--- a/input/dynamic_data/season_16/forecasting_method/average/improved_hor_7/forecast_point_GW2.xlsx
+++ b/input/dynamic_data/season_16/forecasting_method/average/improved_hor_7/forecast_point_GW2.xlsx
@@ -141,37 +141,37 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.498989012612786</v>
+        <v>4.588968792865042</v>
       </c>
       <c r="C2" t="n">
-        <v>4.423475273798263</v>
+        <v>4.512010934264536</v>
       </c>
       <c r="D2" t="n">
-        <v>3.934751163933976</v>
+        <v>3.9739264759356807</v>
       </c>
       <c r="E2" t="n">
-        <v>4.498989012612786</v>
+        <v>4.0560232286687254</v>
       </c>
       <c r="F2" t="n">
-        <v>4.423475273798263</v>
+        <v>4.4375916930172465</v>
       </c>
       <c r="G2" t="n">
-        <v>3.934751163933976</v>
+        <v>4.370840914156036</v>
       </c>
       <c r="H2" t="n">
-        <v>4.498989012612786</v>
+        <v>4.39729879036355</v>
       </c>
       <c r="I2" t="n">
-        <v>4.423475273798263</v>
+        <v>4.2234520934105095</v>
       </c>
       <c r="J2" t="n">
-        <v>3.934751163933976</v>
+        <v>3.8971768225287513</v>
       </c>
       <c r="K2" t="n">
-        <v>4.498989012612786</v>
+        <v>4.399962203606615</v>
       </c>
       <c r="L2" t="n">
-        <v>4.423475273798263</v>
+        <v>4.421386244699772</v>
       </c>
     </row>
     <row r="3">
@@ -448,34 +448,34 @@
         <v>3.6823402916540315</v>
       </c>
       <c r="C10" t="n">
-        <v>4.238626027012021</v>
+        <v>4.252253982411982</v>
       </c>
       <c r="D10" t="n">
-        <v>4.189180352306905</v>
+        <v>4.1809428936940325</v>
       </c>
       <c r="E10" t="n">
-        <v>3.6823402916540315</v>
+        <v>4.074647733985734</v>
       </c>
       <c r="F10" t="n">
-        <v>4.238626027012021</v>
+        <v>3.5977114132138865</v>
       </c>
       <c r="G10" t="n">
-        <v>4.189180352306905</v>
+        <v>3.692439965598525</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6823402916540315</v>
+        <v>4.132178059010088</v>
       </c>
       <c r="I10" t="n">
-        <v>4.238626027012021</v>
+        <v>3.76893508126518</v>
       </c>
       <c r="J10" t="n">
-        <v>4.189180352306905</v>
+        <v>3.80085717388294</v>
       </c>
       <c r="K10" t="n">
-        <v>3.6823402916540315</v>
+        <v>3.7292620800714027</v>
       </c>
       <c r="L10" t="n">
-        <v>4.238626027012021</v>
+        <v>4.062352475544132</v>
       </c>
     </row>
     <row r="11">
@@ -559,37 +559,37 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>4.548775611509021</v>
+        <v>4.503738229216852</v>
       </c>
       <c r="C13" t="n">
-        <v>4.424701908652174</v>
+        <v>4.32519807719561</v>
       </c>
       <c r="D13" t="n">
-        <v>4.838218515251289</v>
+        <v>4.7148081275637255</v>
       </c>
       <c r="E13" t="n">
-        <v>4.548775611509021</v>
+        <v>4.691962296532255</v>
       </c>
       <c r="F13" t="n">
-        <v>4.424701908652174</v>
+        <v>4.155809952011832</v>
       </c>
       <c r="G13" t="n">
-        <v>4.838218515251289</v>
+        <v>4.689122127926648</v>
       </c>
       <c r="H13" t="n">
-        <v>4.548775611509021</v>
+        <v>4.732089037941017</v>
       </c>
       <c r="I13" t="n">
-        <v>4.424701908652174</v>
+        <v>4.660908395201804</v>
       </c>
       <c r="J13" t="n">
-        <v>4.838218515251289</v>
+        <v>4.2376530368824366</v>
       </c>
       <c r="K13" t="n">
-        <v>4.548775611509021</v>
+        <v>4.893512162090143</v>
       </c>
       <c r="L13" t="n">
-        <v>4.424701908652174</v>
+        <v>4.811447054649116</v>
       </c>
     </row>
     <row r="14">
@@ -787,37 +787,37 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>4.191585795931966</v>
+        <v>4.150491817540476</v>
       </c>
       <c r="C19" t="n">
-        <v>4.25982993222463</v>
+        <v>4.1973635474677105</v>
       </c>
       <c r="D19" t="n">
-        <v>4.427792754107489</v>
+        <v>4.321820257727676</v>
       </c>
       <c r="E19" t="n">
-        <v>4.191585795931966</v>
+        <v>4.695850184266923</v>
       </c>
       <c r="F19" t="n">
-        <v>4.25982993222463</v>
+        <v>4.066482954362198</v>
       </c>
       <c r="G19" t="n">
-        <v>4.427792754107489</v>
+        <v>3.987945729473306</v>
       </c>
       <c r="H19" t="n">
-        <v>4.191585795931966</v>
+        <v>4.502441454101484</v>
       </c>
       <c r="I19" t="n">
-        <v>4.25982993222463</v>
+        <v>4.617099904890027</v>
       </c>
       <c r="J19" t="n">
-        <v>4.427792754107489</v>
+        <v>4.524364481225021</v>
       </c>
       <c r="K19" t="n">
-        <v>4.191585795931966</v>
+        <v>4.54094736964781</v>
       </c>
       <c r="L19" t="n">
-        <v>4.25982993222463</v>
+        <v>4.4997160074635225</v>
       </c>
     </row>
     <row r="20">
@@ -1053,37 +1053,37 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>3.9440669271913786</v>
+        <v>3.905016759595424</v>
       </c>
       <c r="C26" t="n">
-        <v>3.833993065407102</v>
+        <v>3.827480323600638</v>
       </c>
       <c r="D26" t="n">
-        <v>3.5087010540811274</v>
+        <v>3.52425058059846</v>
       </c>
       <c r="E26" t="n">
-        <v>3.9440669271913786</v>
+        <v>3.8390297498903263</v>
       </c>
       <c r="F26" t="n">
-        <v>3.833993065407102</v>
+        <v>3.5919098240401226</v>
       </c>
       <c r="G26" t="n">
-        <v>3.5087010540811274</v>
+        <v>3.551799162837815</v>
       </c>
       <c r="H26" t="n">
-        <v>3.9440669271913786</v>
+        <v>3.8693870447394074</v>
       </c>
       <c r="I26" t="n">
-        <v>3.833993065407102</v>
+        <v>3.399931746444053</v>
       </c>
       <c r="J26" t="n">
-        <v>3.5087010540811274</v>
+        <v>3.4894527156258226</v>
       </c>
       <c r="K26" t="n">
-        <v>3.9440669271913786</v>
+        <v>3.5617426083747903</v>
       </c>
       <c r="L26" t="n">
-        <v>3.833993065407102</v>
+        <v>3.7190635790794455</v>
       </c>
     </row>
     <row r="27">
@@ -1243,37 +1243,37 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>3.114810289454374</v>
+        <v>3.1469217357374086</v>
       </c>
       <c r="C31" t="n">
-        <v>3.1261643980489064</v>
+        <v>3.162235224331042</v>
       </c>
       <c r="D31" t="n">
-        <v>2.912293025742961</v>
+        <v>2.935468495880425</v>
       </c>
       <c r="E31" t="n">
-        <v>3.114810289454374</v>
+        <v>3.2290153473396366</v>
       </c>
       <c r="F31" t="n">
-        <v>3.1261643980489064</v>
+        <v>3.1488278043093736</v>
       </c>
       <c r="G31" t="n">
-        <v>2.912293025742961</v>
+        <v>3.284090148828329</v>
       </c>
       <c r="H31" t="n">
-        <v>3.114810289454374</v>
+        <v>3.1641598942576694</v>
       </c>
       <c r="I31" t="n">
-        <v>3.1261643980489064</v>
+        <v>2.843935834142042</v>
       </c>
       <c r="J31" t="n">
-        <v>2.912293025742961</v>
+        <v>3.1279871875776757</v>
       </c>
       <c r="K31" t="n">
-        <v>3.114810289454374</v>
+        <v>2.789010034456593</v>
       </c>
       <c r="L31" t="n">
-        <v>3.1261643980489064</v>
+        <v>3.0225085504140505</v>
       </c>
     </row>
     <row r="32">
@@ -1281,37 +1281,37 @@
         <v>31.0</v>
       </c>
       <c r="B32" t="n">
-        <v>3.4520049830477526</v>
+        <v>3.4865250328782302</v>
       </c>
       <c r="C32" t="n">
-        <v>3.116450547994837</v>
+        <v>3.133676492022501</v>
       </c>
       <c r="D32" t="n">
-        <v>3.4701172992688956</v>
+        <v>3.4696309070446762</v>
       </c>
       <c r="E32" t="n">
-        <v>3.4520049830477526</v>
+        <v>3.484404277257949</v>
       </c>
       <c r="F32" t="n">
-        <v>3.116450547994837</v>
+        <v>3.618673801819681</v>
       </c>
       <c r="G32" t="n">
-        <v>3.4701172992688956</v>
+        <v>3.557987970354715</v>
       </c>
       <c r="H32" t="n">
-        <v>3.4520049830477526</v>
+        <v>3.0731548426893838</v>
       </c>
       <c r="I32" t="n">
-        <v>3.116450547994837</v>
+        <v>3.499303989092613</v>
       </c>
       <c r="J32" t="n">
-        <v>3.4701172992688956</v>
+        <v>3.467530647888178</v>
       </c>
       <c r="K32" t="n">
-        <v>3.4520049830477526</v>
+        <v>3.3304422264600406</v>
       </c>
       <c r="L32" t="n">
-        <v>3.116450547994837</v>
+        <v>3.446667044798791</v>
       </c>
     </row>
     <row r="33">
@@ -1357,37 +1357,37 @@
         <v>33.0</v>
       </c>
       <c r="B34" t="n">
-        <v>1.5020689013604904</v>
+        <v>1.5175541477662686</v>
       </c>
       <c r="C34" t="n">
-        <v>1.5164815650242987</v>
+        <v>1.5249433345179606</v>
       </c>
       <c r="D34" t="n">
-        <v>1.5103993312157713</v>
+        <v>1.5240157541573458</v>
       </c>
       <c r="E34" t="n">
-        <v>1.5020689013604904</v>
+        <v>1.4147272154621982</v>
       </c>
       <c r="F34" t="n">
-        <v>1.5164815650242987</v>
+        <v>1.5561999379102145</v>
       </c>
       <c r="G34" t="n">
-        <v>1.5103993312157713</v>
+        <v>1.5305326201010134</v>
       </c>
       <c r="H34" t="n">
-        <v>1.5020689013604904</v>
+        <v>1.5075101674889373</v>
       </c>
       <c r="I34" t="n">
-        <v>1.5164815650242987</v>
+        <v>1.5827428289892964</v>
       </c>
       <c r="J34" t="n">
-        <v>1.5103993312157713</v>
+        <v>1.4566755225746213</v>
       </c>
       <c r="K34" t="n">
-        <v>1.5020689013604904</v>
+        <v>1.5166355321902267</v>
       </c>
       <c r="L34" t="n">
-        <v>1.5164815650242987</v>
+        <v>1.3441426489435</v>
       </c>
     </row>
     <row r="35">
@@ -1509,37 +1509,37 @@
         <v>37.0</v>
       </c>
       <c r="B38" t="n">
-        <v>2.887431963338195</v>
+        <v>2.8588435280576183</v>
       </c>
       <c r="C38" t="n">
-        <v>3.1587207928754557</v>
+        <v>3.1677179686326844</v>
       </c>
       <c r="D38" t="n">
-        <v>3.1187444531436674</v>
+        <v>3.114189840789045</v>
       </c>
       <c r="E38" t="n">
-        <v>2.887431963338195</v>
+        <v>2.75799709665045</v>
       </c>
       <c r="F38" t="n">
-        <v>3.1587207928754557</v>
+        <v>3.1048210397217133</v>
       </c>
       <c r="G38" t="n">
-        <v>3.1187444531436674</v>
+        <v>3.0001235866095715</v>
       </c>
       <c r="H38" t="n">
-        <v>2.887431963338195</v>
+        <v>2.8228733955590943</v>
       </c>
       <c r="I38" t="n">
-        <v>3.1587207928754557</v>
+        <v>3.1407258481588287</v>
       </c>
       <c r="J38" t="n">
-        <v>3.1187444531436674</v>
+        <v>3.125507309015374</v>
       </c>
       <c r="K38" t="n">
-        <v>2.887431963338195</v>
+        <v>3.2051009760587332</v>
       </c>
       <c r="L38" t="n">
-        <v>3.1587207928754557</v>
+        <v>3.2597678887301402</v>
       </c>
     </row>
     <row r="39">
@@ -1775,37 +1775,37 @@
         <v>44.0</v>
       </c>
       <c r="B45" t="n">
-        <v>2.3880934162669227</v>
+        <v>2.4597362187549305</v>
       </c>
       <c r="C45" t="n">
-        <v>2.4540484735497157</v>
+        <v>2.540137569650043</v>
       </c>
       <c r="D45" t="n">
-        <v>2.5964194172353</v>
+        <v>2.68055091574466</v>
       </c>
       <c r="E45" t="n">
-        <v>2.3880934162669227</v>
+        <v>2.5150566731192416</v>
       </c>
       <c r="F45" t="n">
-        <v>2.4540484735497157</v>
+        <v>2.665667624390045</v>
       </c>
       <c r="G45" t="n">
-        <v>2.5964194172353</v>
+        <v>2.790595443430805</v>
       </c>
       <c r="H45" t="n">
-        <v>2.3880934162669227</v>
+        <v>2.896366590629071</v>
       </c>
       <c r="I45" t="n">
-        <v>2.4540484735497157</v>
+        <v>2.775392442246485</v>
       </c>
       <c r="J45" t="n">
-        <v>2.5964194172353</v>
+        <v>2.8008236496382386</v>
       </c>
       <c r="K45" t="n">
-        <v>2.3880934162669227</v>
+        <v>2.5081774137170347</v>
       </c>
       <c r="L45" t="n">
-        <v>2.4540484735497157</v>
+        <v>2.777073478113681</v>
       </c>
     </row>
     <row r="46">
@@ -2006,34 +2006,34 @@
         <v>2.118860800414855</v>
       </c>
       <c r="C51" t="n">
-        <v>2.0921242818747987</v>
+        <v>2.108599972741761</v>
       </c>
       <c r="D51" t="n">
-        <v>1.9615316525722608</v>
+        <v>1.9449509521966641</v>
       </c>
       <c r="E51" t="n">
-        <v>2.118860800414855</v>
+        <v>2.0252367177226223</v>
       </c>
       <c r="F51" t="n">
-        <v>2.0921242818747987</v>
+        <v>2.120150428596178</v>
       </c>
       <c r="G51" t="n">
-        <v>1.9615316525722608</v>
+        <v>1.9055837818432537</v>
       </c>
       <c r="H51" t="n">
-        <v>2.118860800414855</v>
+        <v>2.163606929292642</v>
       </c>
       <c r="I51" t="n">
-        <v>2.0921242818747987</v>
+        <v>2.1098771370554608</v>
       </c>
       <c r="J51" t="n">
-        <v>1.9615316525722608</v>
+        <v>2.200509888650988</v>
       </c>
       <c r="K51" t="n">
-        <v>2.118860800414855</v>
+        <v>2.0959128482797555</v>
       </c>
       <c r="L51" t="n">
-        <v>2.0921242818747987</v>
+        <v>2.127921291916947</v>
       </c>
     </row>
     <row r="52">
@@ -2307,37 +2307,37 @@
         <v>58.0</v>
       </c>
       <c r="B59" t="n">
-        <v>1.6596945450303289</v>
+        <v>1.6103966872571507</v>
       </c>
       <c r="C59" t="n">
-        <v>1.6097866058706793</v>
+        <v>1.560073262682937</v>
       </c>
       <c r="D59" t="n">
-        <v>1.5066325193185703</v>
+        <v>1.46375606850789</v>
       </c>
       <c r="E59" t="n">
-        <v>1.6596945450303289</v>
+        <v>1.4940802419031178</v>
       </c>
       <c r="F59" t="n">
-        <v>1.6097866058706793</v>
+        <v>1.6152707703364817</v>
       </c>
       <c r="G59" t="n">
-        <v>1.5066325193185703</v>
+        <v>1.6162491285891154</v>
       </c>
       <c r="H59" t="n">
-        <v>1.6596945450303289</v>
+        <v>1.5514112280367474</v>
       </c>
       <c r="I59" t="n">
-        <v>1.6097866058706793</v>
+        <v>1.431559716173632</v>
       </c>
       <c r="J59" t="n">
-        <v>1.5066325193185703</v>
+        <v>1.6574082692601277</v>
       </c>
       <c r="K59" t="n">
-        <v>1.6596945450303289</v>
+        <v>1.6241188752245048</v>
       </c>
       <c r="L59" t="n">
-        <v>1.6097866058706793</v>
+        <v>1.4597523584506007</v>
       </c>
     </row>
     <row r="60">
@@ -2424,34 +2424,34 @@
         <v>1.897374927705475</v>
       </c>
       <c r="C62" t="n">
-        <v>1.8562523455308644</v>
+        <v>1.8556408211853461</v>
       </c>
       <c r="D62" t="n">
-        <v>1.917238405492542</v>
+        <v>1.9366822464188649</v>
       </c>
       <c r="E62" t="n">
-        <v>1.897374927705475</v>
+        <v>2.123336091859667</v>
       </c>
       <c r="F62" t="n">
-        <v>1.8562523455308644</v>
+        <v>2.0222248485812693</v>
       </c>
       <c r="G62" t="n">
-        <v>1.917238405492542</v>
+        <v>2.103962587428335</v>
       </c>
       <c r="H62" t="n">
-        <v>1.897374927705475</v>
+        <v>1.9162961173353281</v>
       </c>
       <c r="I62" t="n">
-        <v>1.8562523455308644</v>
+        <v>2.0874559387319134</v>
       </c>
       <c r="J62" t="n">
-        <v>1.917238405492542</v>
+        <v>1.9312755406130013</v>
       </c>
       <c r="K62" t="n">
-        <v>1.897374927705475</v>
+        <v>1.8486982851853535</v>
       </c>
       <c r="L62" t="n">
-        <v>1.8562523455308644</v>
+        <v>1.9530855403754703</v>
       </c>
     </row>
     <row r="63">
@@ -2535,37 +2535,37 @@
         <v>64.0</v>
       </c>
       <c r="B65" t="n">
-        <v>3.65848636693023</v>
+        <v>3.6222637296338913</v>
       </c>
       <c r="C65" t="n">
-        <v>3.452883196956194</v>
+        <v>3.3906073266865615</v>
       </c>
       <c r="D65" t="n">
-        <v>3.5185703065244636</v>
+        <v>3.530172277672723</v>
       </c>
       <c r="E65" t="n">
-        <v>3.65848636693023</v>
+        <v>3.1902869801799323</v>
       </c>
       <c r="F65" t="n">
-        <v>3.452883196956194</v>
+        <v>3.256194641769876</v>
       </c>
       <c r="G65" t="n">
-        <v>3.5185703065244636</v>
+        <v>3.1169666491809873</v>
       </c>
       <c r="H65" t="n">
-        <v>3.65848636693023</v>
+        <v>3.199037083575376</v>
       </c>
       <c r="I65" t="n">
-        <v>3.452883196956194</v>
+        <v>3.5800151037979195</v>
       </c>
       <c r="J65" t="n">
-        <v>3.5185703065244636</v>
+        <v>3.4095381927294417</v>
       </c>
       <c r="K65" t="n">
-        <v>3.65848636693023</v>
+        <v>3.5195199751103834</v>
       </c>
       <c r="L65" t="n">
-        <v>3.452883196956194</v>
+        <v>3.265310527154668</v>
       </c>
     </row>
     <row r="66">
@@ -2687,37 +2687,37 @@
         <v>68.0</v>
       </c>
       <c r="B69" t="n">
-        <v>6.483390979426294</v>
+        <v>6.61305879901482</v>
       </c>
       <c r="C69" t="n">
-        <v>6.374569843904448</v>
+        <v>6.5021565752379455</v>
       </c>
       <c r="D69" t="n">
-        <v>5.6702806188276105</v>
+        <v>5.7267352720254765</v>
       </c>
       <c r="E69" t="n">
-        <v>6.483390979426294</v>
+        <v>5.845043039530004</v>
       </c>
       <c r="F69" t="n">
-        <v>6.374569843904448</v>
+        <v>6.394912695324973</v>
       </c>
       <c r="G69" t="n">
-        <v>5.6702806188276105</v>
+        <v>6.2987196625513455</v>
       </c>
       <c r="H69" t="n">
-        <v>6.483390979426294</v>
+        <v>6.336847507597794</v>
       </c>
       <c r="I69" t="n">
-        <v>6.374569843904448</v>
+        <v>6.086320977377658</v>
       </c>
       <c r="J69" t="n">
-        <v>5.6702806188276105</v>
+        <v>5.616133088028677</v>
       </c>
       <c r="K69" t="n">
-        <v>6.483390979426294</v>
+        <v>6.340685691986811</v>
       </c>
       <c r="L69" t="n">
-        <v>6.374569843904448</v>
+        <v>6.371559391472813</v>
       </c>
     </row>
     <row r="70">
@@ -2953,37 +2953,37 @@
         <v>75.0</v>
       </c>
       <c r="B76" t="n">
-        <v>7.691997577102357</v>
+        <v>7.9250884127721255</v>
       </c>
       <c r="C76" t="n">
-        <v>7.5628904611767895</v>
+        <v>7.7921832087936425</v>
       </c>
       <c r="D76" t="n">
-        <v>6.727310587918907</v>
+        <v>6.86291846582458</v>
       </c>
       <c r="E76" t="n">
-        <v>7.691997577102357</v>
+        <v>7.004698472004285</v>
       </c>
       <c r="F76" t="n">
-        <v>7.5628904611767895</v>
+        <v>7.663662163409071</v>
       </c>
       <c r="G76" t="n">
-        <v>6.727310587918907</v>
+        <v>7.548384451144172</v>
       </c>
       <c r="H76" t="n">
-        <v>7.691997577102357</v>
+        <v>7.594076853429571</v>
       </c>
       <c r="I76" t="n">
-        <v>7.5628904611767895</v>
+        <v>7.293845907042796</v>
       </c>
       <c r="J76" t="n">
-        <v>6.727310587918907</v>
+        <v>6.730372829461736</v>
       </c>
       <c r="K76" t="n">
-        <v>7.691997577102357</v>
+        <v>7.598676532874734</v>
       </c>
       <c r="L76" t="n">
-        <v>7.5628904611767895</v>
+        <v>7.635675568493829</v>
       </c>
     </row>
     <row r="77">
@@ -3067,37 +3067,37 @@
         <v>78.0</v>
       </c>
       <c r="B79" t="n">
-        <v>4.843126342090843</v>
+        <v>4.989887746396626</v>
       </c>
       <c r="C79" t="n">
-        <v>4.761836395256767</v>
+        <v>4.9062064025146075</v>
       </c>
       <c r="D79" t="n">
-        <v>4.235728728875954</v>
+        <v>4.3211117622293544</v>
       </c>
       <c r="E79" t="n">
-        <v>4.843126342090843</v>
+        <v>4.410380963867533</v>
       </c>
       <c r="F79" t="n">
-        <v>4.761836395256767</v>
+        <v>4.825285464334912</v>
       </c>
       <c r="G79" t="n">
-        <v>4.235728728875954</v>
+        <v>4.752702949932143</v>
       </c>
       <c r="H79" t="n">
-        <v>4.843126342090843</v>
+        <v>4.781472339797862</v>
       </c>
       <c r="I79" t="n">
-        <v>4.761836395256767</v>
+        <v>4.592437386187748</v>
       </c>
       <c r="J79" t="n">
-        <v>4.235728728875954</v>
+        <v>4.237656813555293</v>
       </c>
       <c r="K79" t="n">
-        <v>4.843126342090843</v>
+        <v>4.784368444283432</v>
       </c>
       <c r="L79" t="n">
-        <v>4.761836395256767</v>
+        <v>4.807664213976888</v>
       </c>
     </row>
     <row r="80">
@@ -3485,37 +3485,37 @@
         <v>89.0</v>
       </c>
       <c r="B90" t="n">
-        <v>3.661997080543015</v>
+        <v>3.5894822868688965</v>
       </c>
       <c r="C90" t="n">
-        <v>4.215209596900011</v>
+        <v>4.145024397590244</v>
       </c>
       <c r="D90" t="n">
-        <v>4.1660370864652725</v>
+        <v>4.075511568916975</v>
       </c>
       <c r="E90" t="n">
-        <v>3.661997080543015</v>
+        <v>3.9718968666534176</v>
       </c>
       <c r="F90" t="n">
-        <v>4.215209596900011</v>
+        <v>3.50698750473076</v>
       </c>
       <c r="G90" t="n">
-        <v>4.1660370864652725</v>
+        <v>3.5993272761571156</v>
       </c>
       <c r="H90" t="n">
-        <v>3.661997080543015</v>
+        <v>4.027976442759072</v>
       </c>
       <c r="I90" t="n">
-        <v>4.215209596900011</v>
+        <v>3.673893405566657</v>
       </c>
       <c r="J90" t="n">
-        <v>4.1660370864652725</v>
+        <v>3.705010515050249</v>
       </c>
       <c r="K90" t="n">
-        <v>3.661997080543015</v>
+        <v>3.6352208430729758</v>
       </c>
       <c r="L90" t="n">
-        <v>4.215209596900011</v>
+        <v>3.959911659178531</v>
       </c>
     </row>
     <row r="91">
@@ -3599,37 +3599,37 @@
         <v>92.0</v>
       </c>
       <c r="B93" t="n">
-        <v>4.862331287247011</v>
+        <v>4.7660474993807345</v>
       </c>
       <c r="C93" t="n">
-        <v>5.596876527894882</v>
+        <v>5.503685931889561</v>
       </c>
       <c r="D93" t="n">
-        <v>5.531586187487551</v>
+        <v>5.411388097049957</v>
       </c>
       <c r="E93" t="n">
-        <v>4.862331287247011</v>
+        <v>5.273810431761328</v>
       </c>
       <c r="F93" t="n">
-        <v>5.596876527894882</v>
+        <v>4.656512469340402</v>
       </c>
       <c r="G93" t="n">
-        <v>5.531586187487551</v>
+        <v>4.779119492172062</v>
       </c>
       <c r="H93" t="n">
-        <v>4.862331287247011</v>
+        <v>5.348271844885568</v>
       </c>
       <c r="I93" t="n">
-        <v>5.596876527894882</v>
+        <v>4.878127005291969</v>
       </c>
       <c r="J93" t="n">
-        <v>5.531586187487551</v>
+        <v>4.919443721740121</v>
       </c>
       <c r="K93" t="n">
-        <v>4.862331287247011</v>
+        <v>4.8267782995351745</v>
       </c>
       <c r="L93" t="n">
-        <v>5.596876527894882</v>
+        <v>5.257896697258666</v>
       </c>
     </row>
     <row r="94">
@@ -3637,37 +3637,37 @@
         <v>93.0</v>
       </c>
       <c r="B94" t="n">
-        <v>2.985063668399586</v>
+        <v>2.9552130317155902</v>
       </c>
       <c r="C94" t="n">
-        <v>3.4360128491772803</v>
+        <v>3.412589654321131</v>
       </c>
       <c r="D94" t="n">
-        <v>3.395930055238796</v>
+        <v>3.3553598922693326</v>
       </c>
       <c r="E94" t="n">
-        <v>2.985063668399586</v>
+        <v>3.270054131177613</v>
       </c>
       <c r="F94" t="n">
-        <v>3.4360128491772803</v>
+        <v>2.887295255351295</v>
       </c>
       <c r="G94" t="n">
-        <v>3.395930055238796</v>
+        <v>2.9633183901813718</v>
       </c>
       <c r="H94" t="n">
-        <v>2.985063668399586</v>
+        <v>3.316224325338142</v>
       </c>
       <c r="I94" t="n">
-        <v>3.4360128491772803</v>
+        <v>3.024708523839863</v>
       </c>
       <c r="J94" t="n">
-        <v>3.395930055238796</v>
+        <v>3.05032717302268</v>
       </c>
       <c r="K94" t="n">
-        <v>2.985063668399586</v>
+        <v>2.99286948647527</v>
       </c>
       <c r="L94" t="n">
-        <v>3.4360128491772803</v>
+        <v>3.260186735690757</v>
       </c>
     </row>
     <row r="95">
@@ -3751,37 +3751,37 @@
         <v>96.0</v>
       </c>
       <c r="B97" t="n">
-        <v>4.5313701529981865</v>
+        <v>4.441640050958617</v>
       </c>
       <c r="C97" t="n">
-        <v>5.215917581559596</v>
+        <v>5.129070129106861</v>
       </c>
       <c r="D97" t="n">
-        <v>5.155071316193671</v>
+        <v>5.043054670827519</v>
       </c>
       <c r="E97" t="n">
-        <v>4.5313701529981865</v>
+        <v>4.914841414802951</v>
       </c>
       <c r="F97" t="n">
-        <v>5.215917581559596</v>
+        <v>4.339560670408317</v>
       </c>
       <c r="G97" t="n">
-        <v>5.155071316193671</v>
+        <v>4.453822280937514</v>
       </c>
       <c r="H97" t="n">
-        <v>4.5313701529981865</v>
+        <v>4.984234511457269</v>
       </c>
       <c r="I97" t="n">
-        <v>5.215917581559596</v>
+        <v>4.546090714199316</v>
       </c>
       <c r="J97" t="n">
-        <v>5.155071316193671</v>
+        <v>4.584595152641035</v>
       </c>
       <c r="K97" t="n">
-        <v>4.5313701529981865</v>
+        <v>4.498237127325937</v>
       </c>
       <c r="L97" t="n">
-        <v>5.215917581559596</v>
+        <v>4.900010870093412</v>
       </c>
     </row>
     <row r="98">
@@ -3865,37 +3865,37 @@
         <v>99.0</v>
       </c>
       <c r="B100" t="n">
-        <v>3.2032702642129305</v>
+        <v>3.2356265295080107</v>
       </c>
       <c r="C100" t="n">
-        <v>3.1158969495287443</v>
+        <v>3.1073576952505677</v>
       </c>
       <c r="D100" t="n">
-        <v>3.4070973873621146</v>
+        <v>3.3872657518414226</v>
       </c>
       <c r="E100" t="n">
-        <v>3.2032702642129305</v>
+        <v>3.370852591659389</v>
       </c>
       <c r="F100" t="n">
-        <v>3.1158969495287443</v>
+        <v>2.9856639635694613</v>
       </c>
       <c r="G100" t="n">
-        <v>3.4070973873621146</v>
+        <v>3.368812125624094</v>
       </c>
       <c r="H100" t="n">
-        <v>3.2032702642129305</v>
+        <v>3.399680898820455</v>
       </c>
       <c r="I100" t="n">
-        <v>3.1158969495287443</v>
+        <v>3.348542496828011</v>
       </c>
       <c r="J100" t="n">
-        <v>3.4070973873621146</v>
+        <v>3.0444625977676467</v>
       </c>
       <c r="K100" t="n">
-        <v>3.2032702642129305</v>
+        <v>3.515652324420784</v>
       </c>
       <c r="L100" t="n">
-        <v>3.1158969495287443</v>
+        <v>3.4566941822577824</v>
       </c>
     </row>
     <row r="101">
@@ -3906,34 +3906,34 @@
         <v>3.4223507203120955</v>
       </c>
       <c r="C101" t="n">
-        <v>3.3290017045308895</v>
+        <v>3.286679642914513</v>
       </c>
       <c r="D101" t="n">
-        <v>3.640118140539483</v>
+        <v>3.5827408633176385</v>
       </c>
       <c r="E101" t="n">
-        <v>3.4223507203120955</v>
+        <v>3.565380519019769</v>
       </c>
       <c r="F101" t="n">
-        <v>3.3290017045308895</v>
+        <v>3.157963109508036</v>
       </c>
       <c r="G101" t="n">
-        <v>3.640118140539483</v>
+        <v>3.5632223000961756</v>
       </c>
       <c r="H101" t="n">
-        <v>3.4223507203120955</v>
+        <v>3.595872473785962</v>
       </c>
       <c r="I101" t="n">
-        <v>3.3290017045308895</v>
+        <v>3.541782934928997</v>
       </c>
       <c r="J101" t="n">
-        <v>3.640118140539483</v>
+        <v>3.2201549435365835</v>
       </c>
       <c r="K101" t="n">
-        <v>3.4223507203120955</v>
+        <v>3.7185364735768327</v>
       </c>
       <c r="L101" t="n">
-        <v>3.3290017045308895</v>
+        <v>3.6561759265669487</v>
       </c>
     </row>
     <row r="102">
@@ -4017,37 +4017,37 @@
         <v>103.0</v>
       </c>
       <c r="B104" t="n">
-        <v>3.386135263285443</v>
+        <v>3.4203386497832757</v>
       </c>
       <c r="C104" t="n">
-        <v>3.293774070654401</v>
+        <v>3.2847473362085022</v>
       </c>
       <c r="D104" t="n">
-        <v>3.601598259655205</v>
+        <v>3.580634496117838</v>
       </c>
       <c r="E104" t="n">
-        <v>3.386135263285443</v>
+        <v>3.5632843583242066</v>
       </c>
       <c r="F104" t="n">
-        <v>3.293774070654401</v>
+        <v>3.156106477905077</v>
       </c>
       <c r="G104" t="n">
-        <v>3.601598259655205</v>
+        <v>3.561127408262003</v>
       </c>
       <c r="H104" t="n">
-        <v>3.386135263285443</v>
+        <v>3.5937583862417024</v>
       </c>
       <c r="I104" t="n">
-        <v>3.293774070654401</v>
+        <v>3.5397006477395068</v>
       </c>
       <c r="J104" t="n">
-        <v>3.601598259655205</v>
+        <v>3.2182617480725217</v>
       </c>
       <c r="K104" t="n">
-        <v>3.386135263285443</v>
+        <v>3.7163502693387866</v>
       </c>
       <c r="L104" t="n">
-        <v>3.293774070654401</v>
+        <v>3.654026385379845</v>
       </c>
     </row>
     <row r="105">
@@ -4093,37 +4093,37 @@
         <v>105.0</v>
       </c>
       <c r="B106" t="n">
-        <v>4.177857834760359</v>
+        <v>4.136898444223493</v>
       </c>
       <c r="C106" t="n">
-        <v>4.245878463078041</v>
+        <v>4.183616663446232</v>
       </c>
       <c r="D106" t="n">
-        <v>4.413291185974659</v>
+        <v>4.307665762608829</v>
       </c>
       <c r="E106" t="n">
-        <v>4.177857834760359</v>
+        <v>4.680470694943368</v>
       </c>
       <c r="F106" t="n">
-        <v>4.245878463078041</v>
+        <v>4.053164720447801</v>
       </c>
       <c r="G106" t="n">
-        <v>4.413291185974659</v>
+        <v>3.9748847146703126</v>
       </c>
       <c r="H106" t="n">
-        <v>4.177857834760359</v>
+        <v>4.487695402256541</v>
       </c>
       <c r="I106" t="n">
-        <v>4.245878463078041</v>
+        <v>4.601978332457638</v>
       </c>
       <c r="J106" t="n">
-        <v>4.413291185974659</v>
+        <v>4.509546628758603</v>
       </c>
       <c r="K106" t="n">
-        <v>4.177857834760359</v>
+        <v>4.526075206173705</v>
       </c>
       <c r="L106" t="n">
-        <v>4.245878463078041</v>
+        <v>4.484978881792931</v>
       </c>
     </row>
     <row r="107">
@@ -4131,37 +4131,37 @@
         <v>106.0</v>
       </c>
       <c r="B107" t="n">
-        <v>3.8384937004310316</v>
+        <v>3.800861409250335</v>
       </c>
       <c r="C107" t="n">
-        <v>3.900989066147984</v>
+        <v>3.843784743953065</v>
       </c>
       <c r="D107" t="n">
-        <v>4.0548029840999185</v>
+        <v>3.9577574315151067</v>
       </c>
       <c r="E107" t="n">
-        <v>3.8384937004310316</v>
+        <v>4.300279709882156</v>
       </c>
       <c r="F107" t="n">
-        <v>3.900989066147984</v>
+        <v>3.7239293105675033</v>
       </c>
       <c r="G107" t="n">
-        <v>4.0548029840999185</v>
+        <v>3.652007928622292</v>
       </c>
       <c r="H107" t="n">
-        <v>3.8384937004310316</v>
+        <v>4.123163403908194</v>
       </c>
       <c r="I107" t="n">
-        <v>3.900989066147984</v>
+        <v>4.228163220798534</v>
       </c>
       <c r="J107" t="n">
-        <v>4.0548029840999185</v>
+        <v>4.143239672319482</v>
       </c>
       <c r="K107" t="n">
-        <v>3.8384937004310316</v>
+        <v>4.158425646278933</v>
       </c>
       <c r="L107" t="n">
-        <v>3.900989066147984</v>
+        <v>4.120667544283698</v>
       </c>
     </row>
     <row r="108">
@@ -4283,37 +4283,37 @@
         <v>110.0</v>
       </c>
       <c r="B111" t="n">
-        <v>3.6462604652389423</v>
+        <v>3.6101588764742</v>
       </c>
       <c r="C111" t="n">
-        <v>3.705626039096413</v>
+        <v>3.650928597098004</v>
       </c>
       <c r="D111" t="n">
-        <v>3.851736897105289</v>
+        <v>3.7591828756350583</v>
       </c>
       <c r="E111" t="n">
-        <v>3.6462604652389423</v>
+        <v>4.084519611309633</v>
       </c>
       <c r="F111" t="n">
-        <v>3.705626039096413</v>
+        <v>3.537086730704909</v>
       </c>
       <c r="G111" t="n">
-        <v>3.851736897105289</v>
+        <v>3.4687738964600507</v>
       </c>
       <c r="H111" t="n">
-        <v>3.6462604652389423</v>
+        <v>3.9162898509126776</v>
       </c>
       <c r="I111" t="n">
-        <v>3.705626039096413</v>
+        <v>4.016021459135033</v>
       </c>
       <c r="J111" t="n">
-        <v>3.851736897105289</v>
+        <v>3.93535882260291</v>
       </c>
       <c r="K111" t="n">
-        <v>3.6462604652389423</v>
+        <v>3.949782863046529</v>
       </c>
       <c r="L111" t="n">
-        <v>3.705626039096413</v>
+        <v>3.9139192173094957</v>
       </c>
     </row>
     <row r="112">
@@ -4473,37 +4473,37 @@
         <v>115.0</v>
       </c>
       <c r="B116" t="n">
-        <v>1.2791100976706877</v>
+        <v>1.29229679970853</v>
       </c>
       <c r="C116" t="n">
-        <v>1.2472828267630804</v>
+        <v>1.2660680663825723</v>
       </c>
       <c r="D116" t="n">
-        <v>1.3802832444061301</v>
+        <v>1.4168459701067544</v>
       </c>
       <c r="E116" t="n">
-        <v>1.2791100976706877</v>
+        <v>1.2382200017894336</v>
       </c>
       <c r="F116" t="n">
-        <v>1.2472828267630804</v>
+        <v>1.392904093660173</v>
       </c>
       <c r="G116" t="n">
-        <v>1.3802832444061301</v>
+        <v>1.3032422835761066</v>
       </c>
       <c r="H116" t="n">
-        <v>1.2791100976706877</v>
+        <v>1.3493771138476343</v>
       </c>
       <c r="I116" t="n">
-        <v>1.2472828267630804</v>
+        <v>1.288689048037959</v>
       </c>
       <c r="J116" t="n">
-        <v>1.3802832444061301</v>
+        <v>1.2786936753850566</v>
       </c>
       <c r="K116" t="n">
-        <v>1.2791100976706877</v>
+        <v>1.4039185434098633</v>
       </c>
       <c r="L116" t="n">
-        <v>1.2472828267630804</v>
+        <v>1.2335874312832282</v>
       </c>
     </row>
     <row r="117">
@@ -4514,34 +4514,34 @@
         <v>1.1278265928265847</v>
       </c>
       <c r="C117" t="n">
-        <v>1.099763611718029</v>
+        <v>1.1049359821341773</v>
       </c>
       <c r="D117" t="n">
-        <v>1.2170337420594532</v>
+        <v>1.2365244295164919</v>
       </c>
       <c r="E117" t="n">
-        <v>1.1278265928265847</v>
+        <v>1.0806321319551953</v>
       </c>
       <c r="F117" t="n">
-        <v>1.099763611718029</v>
+        <v>1.2156296281483283</v>
       </c>
       <c r="G117" t="n">
-        <v>1.2170337420594532</v>
+        <v>1.1373790484079895</v>
       </c>
       <c r="H117" t="n">
-        <v>1.1278265928265847</v>
+        <v>1.1776423133541731</v>
       </c>
       <c r="I117" t="n">
-        <v>1.099763611718029</v>
+        <v>1.1246779985754016</v>
       </c>
       <c r="J117" t="n">
-        <v>1.2170337420594532</v>
+        <v>1.115954733853476</v>
       </c>
       <c r="K117" t="n">
-        <v>1.1278265928265847</v>
+        <v>1.2252422723457408</v>
       </c>
       <c r="L117" t="n">
-        <v>1.099763611718029</v>
+        <v>1.0765891472389746</v>
       </c>
     </row>
     <row r="118">
@@ -4853,37 +4853,37 @@
         <v>125.0</v>
       </c>
       <c r="B126" t="n">
-        <v>2.0177532923582193</v>
+        <v>2.0585159851331327</v>
       </c>
       <c r="C126" t="n">
-        <v>1.7990911861128445</v>
+        <v>1.8285695174606864</v>
       </c>
       <c r="D126" t="n">
-        <v>2.058869448794547</v>
+        <v>2.089953309896169</v>
       </c>
       <c r="E126" t="n">
-        <v>2.0177532923582193</v>
+        <v>2.0002067104186856</v>
       </c>
       <c r="F126" t="n">
-        <v>1.7990911861128445</v>
+        <v>1.8767161649898698</v>
       </c>
       <c r="G126" t="n">
-        <v>2.058869448794547</v>
+        <v>1.9155955026234905</v>
       </c>
       <c r="H126" t="n">
-        <v>2.0177532923582193</v>
+        <v>2.0647275594918155</v>
       </c>
       <c r="I126" t="n">
-        <v>1.7990911861128445</v>
+        <v>1.8954313392660087</v>
       </c>
       <c r="J126" t="n">
-        <v>2.058869448794547</v>
+        <v>2.0810544825400954</v>
       </c>
       <c r="K126" t="n">
-        <v>2.0177532923582193</v>
+        <v>1.910247665442212</v>
       </c>
       <c r="L126" t="n">
-        <v>1.7990911861128445</v>
+        <v>2.100217046779707</v>
       </c>
     </row>
     <row r="127">
@@ -4891,37 +4891,37 @@
         <v>126.0</v>
       </c>
       <c r="B127" t="n">
-        <v>1.8536883144981882</v>
+        <v>1.87222519764317</v>
       </c>
       <c r="C127" t="n">
-        <v>1.8075641847057353</v>
+        <v>1.8342261130318047</v>
       </c>
       <c r="D127" t="n">
-        <v>2.0003085938517984</v>
+        <v>2.052666792188403</v>
       </c>
       <c r="E127" t="n">
-        <v>1.8536883144981882</v>
+        <v>1.7938810094544932</v>
       </c>
       <c r="F127" t="n">
-        <v>1.8075641847057353</v>
+        <v>2.0179808095470633</v>
       </c>
       <c r="G127" t="n">
-        <v>2.0003085938517984</v>
+        <v>1.8880825538649728</v>
       </c>
       <c r="H127" t="n">
-        <v>1.8536883144981882</v>
+        <v>1.9549207536831774</v>
       </c>
       <c r="I127" t="n">
-        <v>1.8075641847057353</v>
+        <v>1.8669984389094134</v>
       </c>
       <c r="J127" t="n">
-        <v>2.0003085938517984</v>
+        <v>1.8525175638156905</v>
       </c>
       <c r="K127" t="n">
-        <v>1.8536883144981882</v>
+        <v>2.033938080635404</v>
       </c>
       <c r="L127" t="n">
-        <v>1.8075641847057353</v>
+        <v>1.7871695363366056</v>
       </c>
     </row>
     <row r="128">
@@ -4929,37 +4929,37 @@
         <v>127.0</v>
       </c>
       <c r="B128" t="n">
-        <v>1.7197602386375643</v>
+        <v>1.737489725633828</v>
       </c>
       <c r="C128" t="n">
-        <v>1.6717639306883254</v>
+        <v>1.7029908312123956</v>
       </c>
       <c r="D128" t="n">
-        <v>1.529924484920293</v>
+        <v>1.5680724440689164</v>
       </c>
       <c r="E128" t="n">
-        <v>1.7197602386375643</v>
+        <v>1.7081296080091892</v>
       </c>
       <c r="F128" t="n">
-        <v>1.6717639306883254</v>
+        <v>1.5981766017617571</v>
       </c>
       <c r="G128" t="n">
-        <v>1.529924484920293</v>
+        <v>1.580329850769936</v>
       </c>
       <c r="H128" t="n">
-        <v>1.7197602386375643</v>
+        <v>1.7216367172344462</v>
       </c>
       <c r="I128" t="n">
-        <v>1.6717639306883254</v>
+        <v>1.5127582904189234</v>
       </c>
       <c r="J128" t="n">
-        <v>1.529924484920293</v>
+        <v>1.5525895571605859</v>
       </c>
       <c r="K128" t="n">
-        <v>1.7197602386375643</v>
+        <v>1.5847540659581143</v>
       </c>
       <c r="L128" t="n">
-        <v>1.6717639306883254</v>
+        <v>1.654752118989364</v>
       </c>
     </row>
     <row r="129">
@@ -5081,37 +5081,37 @@
         <v>131.0</v>
       </c>
       <c r="B132" t="n">
-        <v>2.8971560393809574</v>
+        <v>2.9261275997747673</v>
       </c>
       <c r="C132" t="n">
-        <v>2.8163001210273113</v>
+        <v>2.8680275916774858</v>
       </c>
       <c r="D132" t="n">
-        <v>2.57735343665993</v>
+        <v>2.640809893343405</v>
       </c>
       <c r="E132" t="n">
-        <v>2.8971560393809574</v>
+        <v>2.8766818682423123</v>
       </c>
       <c r="F132" t="n">
-        <v>2.8163001210273113</v>
+        <v>2.691508671812935</v>
       </c>
       <c r="G132" t="n">
-        <v>2.57735343665993</v>
+        <v>2.6614527411947404</v>
       </c>
       <c r="H132" t="n">
-        <v>2.8971560393809574</v>
+        <v>2.8994293553290515</v>
       </c>
       <c r="I132" t="n">
-        <v>2.8163001210273113</v>
+        <v>2.5476546537667324</v>
       </c>
       <c r="J132" t="n">
-        <v>2.57735343665993</v>
+        <v>2.6147349750067628</v>
       </c>
       <c r="K132" t="n">
-        <v>2.8971560393809574</v>
+        <v>2.668903615855164</v>
       </c>
       <c r="L132" t="n">
-        <v>2.8163001210273113</v>
+        <v>2.786788189146968</v>
       </c>
     </row>
     <row r="133">
@@ -5119,37 +5119,37 @@
         <v>132.0</v>
       </c>
       <c r="B133" t="n">
-        <v>4.548200443537229</v>
+        <v>4.594141862158817</v>
       </c>
       <c r="C133" t="n">
-        <v>4.424142429126266</v>
+        <v>4.41201786988149</v>
       </c>
       <c r="D133" t="n">
-        <v>4.837606748796276</v>
+        <v>4.809448571049309</v>
       </c>
       <c r="E133" t="n">
-        <v>4.548200443537229</v>
+        <v>4.786144155167275</v>
       </c>
       <c r="F133" t="n">
-        <v>4.424142429126266</v>
+        <v>4.239229613270335</v>
       </c>
       <c r="G133" t="n">
-        <v>4.837606748796276</v>
+        <v>4.783246975797044</v>
       </c>
       <c r="H133" t="n">
-        <v>4.548200443537229</v>
+        <v>4.827076361506911</v>
       </c>
       <c r="I133" t="n">
-        <v>4.424142429126266</v>
+        <v>4.75446690821716</v>
       </c>
       <c r="J133" t="n">
-        <v>4.837606748796276</v>
+        <v>4.3227155361183955</v>
       </c>
       <c r="K133" t="n">
-        <v>4.548200443537229</v>
+        <v>4.991739735448811</v>
       </c>
       <c r="L133" t="n">
-        <v>4.424142429126266</v>
+        <v>4.908027333366565</v>
       </c>
     </row>
     <row r="134">
@@ -5309,37 +5309,37 @@
         <v>137.0</v>
       </c>
       <c r="B138" t="n">
-        <v>2.198010293939019</v>
+        <v>2.220212418120221</v>
       </c>
       <c r="C138" t="n">
-        <v>2.13666663883331</v>
+        <v>2.1761287768325346</v>
       </c>
       <c r="D138" t="n">
-        <v>1.9553829023679714</v>
+        <v>2.0037263308500526</v>
       </c>
       <c r="E138" t="n">
-        <v>2.198010293939019</v>
+        <v>2.1826952479257824</v>
       </c>
       <c r="F138" t="n">
-        <v>2.13666663883331</v>
+        <v>2.0421942560185378</v>
       </c>
       <c r="G138" t="n">
-        <v>1.9553829023679714</v>
+        <v>2.0193891840859908</v>
       </c>
       <c r="H138" t="n">
-        <v>2.198010293939019</v>
+        <v>2.199955005605145</v>
       </c>
       <c r="I138" t="n">
-        <v>2.13666663883331</v>
+        <v>1.9330443757169227</v>
       </c>
       <c r="J138" t="n">
-        <v>1.9553829023679714</v>
+        <v>1.9839418698111901</v>
       </c>
       <c r="K138" t="n">
-        <v>2.198010293939019</v>
+        <v>2.0250425685960183</v>
       </c>
       <c r="L138" t="n">
-        <v>2.13666663883331</v>
+        <v>2.1144880164115585</v>
       </c>
     </row>
     <row r="139">
@@ -5879,37 +5879,37 @@
         <v>152.0</v>
       </c>
       <c r="B153" t="n">
-        <v>4.917408648778799</v>
+        <v>5.016750237643016</v>
       </c>
       <c r="C153" t="n">
-        <v>4.439408677988355</v>
+        <v>4.50903754821808</v>
       </c>
       <c r="D153" t="n">
-        <v>4.943209787790084</v>
+        <v>4.992441331499788</v>
       </c>
       <c r="E153" t="n">
-        <v>4.917408648778799</v>
+        <v>5.013698688848242</v>
       </c>
       <c r="F153" t="n">
-        <v>4.439408677988355</v>
+        <v>5.2068986982849195</v>
       </c>
       <c r="G153" t="n">
-        <v>4.943209787790084</v>
+        <v>5.119578040451551</v>
       </c>
       <c r="H153" t="n">
-        <v>4.917408648778799</v>
+        <v>4.421953131553556</v>
       </c>
       <c r="I153" t="n">
-        <v>4.439408677988355</v>
+        <v>5.035137838770438</v>
       </c>
       <c r="J153" t="n">
-        <v>4.943209787790084</v>
+        <v>4.989419275004248</v>
       </c>
       <c r="K153" t="n">
-        <v>4.917408648778799</v>
+        <v>4.792163163462733</v>
       </c>
       <c r="L153" t="n">
-        <v>4.439408677988355</v>
+        <v>4.959398700142531</v>
       </c>
     </row>
     <row r="154">
@@ -5917,37 +5917,37 @@
         <v>153.0</v>
       </c>
       <c r="B154" t="n">
-        <v>3.6664797646651657</v>
+        <v>3.74055006294123</v>
       </c>
       <c r="C154" t="n">
-        <v>3.3100771661443082</v>
+        <v>3.3619932996137494</v>
       </c>
       <c r="D154" t="n">
-        <v>3.685717408075925</v>
+        <v>3.722425046526858</v>
       </c>
       <c r="E154" t="n">
-        <v>3.6664797646651657</v>
+        <v>3.738274791003091</v>
       </c>
       <c r="F154" t="n">
-        <v>3.3100771661443082</v>
+        <v>3.8823270705118547</v>
       </c>
       <c r="G154" t="n">
-        <v>3.685717408075925</v>
+        <v>3.817219724783571</v>
       </c>
       <c r="H154" t="n">
-        <v>3.6664797646651657</v>
+        <v>3.297062098177513</v>
       </c>
       <c r="I154" t="n">
-        <v>3.3100771661443082</v>
+        <v>3.7542600822358776</v>
       </c>
       <c r="J154" t="n">
-        <v>3.685717408075925</v>
+        <v>3.7201717644061367</v>
       </c>
       <c r="K154" t="n">
-        <v>3.6664797646651657</v>
+        <v>3.5730952057794476</v>
       </c>
       <c r="L154" t="n">
-        <v>3.3100771661443082</v>
+        <v>3.697788058247927</v>
       </c>
     </row>
     <row r="155">
@@ -5993,37 +5993,37 @@
         <v>155.0</v>
       </c>
       <c r="B156" t="n">
-        <v>4.945764485852086</v>
+        <v>5.045678919909704</v>
       </c>
       <c r="C156" t="n">
-        <v>4.465008167102614</v>
+        <v>4.535038546550068</v>
       </c>
       <c r="D156" t="n">
-        <v>4.971714405033246</v>
+        <v>5.0212298384360805</v>
       </c>
       <c r="E156" t="n">
-        <v>4.945764485852086</v>
+        <v>5.042609774606967</v>
       </c>
       <c r="F156" t="n">
-        <v>4.465008167102614</v>
+        <v>5.236923856186397</v>
       </c>
       <c r="G156" t="n">
-        <v>4.971714405033246</v>
+        <v>5.149099670880838</v>
       </c>
       <c r="H156" t="n">
-        <v>4.945764485852086</v>
+        <v>4.447451964678841</v>
       </c>
       <c r="I156" t="n">
-        <v>4.465008167102614</v>
+        <v>5.0641725516436855</v>
       </c>
       <c r="J156" t="n">
-        <v>4.971714405033246</v>
+        <v>5.018190355497523</v>
       </c>
       <c r="K156" t="n">
-        <v>4.945764485852086</v>
+        <v>4.819796782630321</v>
       </c>
       <c r="L156" t="n">
-        <v>4.465008167102614</v>
+        <v>4.9879966694322375</v>
       </c>
     </row>
     <row r="157">
@@ -6031,37 +6031,37 @@
         <v>156.0</v>
       </c>
       <c r="B157" t="n">
-        <v>3.495999479384161</v>
+        <v>3.5666257314929317</v>
       </c>
       <c r="C157" t="n">
-        <v>3.15616853012107</v>
+        <v>3.20567071947718</v>
       </c>
       <c r="D157" t="n">
-        <v>3.5143426302169423</v>
+        <v>3.5493434738464718</v>
       </c>
       <c r="E157" t="n">
-        <v>3.495999479384161</v>
+        <v>3.564456252858998</v>
       </c>
       <c r="F157" t="n">
-        <v>3.15616853012107</v>
+        <v>3.7018105344836045</v>
       </c>
       <c r="G157" t="n">
-        <v>3.5143426302169423</v>
+        <v>3.639730484577492</v>
       </c>
       <c r="H157" t="n">
-        <v>3.495999479384161</v>
+        <v>3.1437586236831367</v>
       </c>
       <c r="I157" t="n">
-        <v>3.15616853012107</v>
+        <v>3.5796982761114378</v>
       </c>
       <c r="J157" t="n">
-        <v>3.5143426302169423</v>
+        <v>3.5471949625695616</v>
       </c>
       <c r="K157" t="n">
-        <v>3.495999479384161</v>
+        <v>3.406957021713102</v>
       </c>
       <c r="L157" t="n">
-        <v>3.15616853012107</v>
+        <v>3.525852031448016</v>
       </c>
     </row>
     <row r="158">
@@ -6107,37 +6107,37 @@
         <v>158.0</v>
       </c>
       <c r="B159" t="n">
-        <v>3.8351967249486014</v>
+        <v>3.79722448014713</v>
       </c>
       <c r="C159" t="n">
-        <v>3.8719962355643642</v>
+        <v>3.815713705630915</v>
       </c>
       <c r="D159" t="n">
-        <v>3.856466612947381</v>
+        <v>3.8133927137520987</v>
       </c>
       <c r="E159" t="n">
-        <v>3.8351967249486014</v>
+        <v>3.5399308968254593</v>
       </c>
       <c r="F159" t="n">
-        <v>3.8719962355643642</v>
+        <v>3.8939239887644805</v>
       </c>
       <c r="G159" t="n">
-        <v>3.856466612947381</v>
+        <v>3.8296992178274594</v>
       </c>
       <c r="H159" t="n">
-        <v>3.8351967249486014</v>
+        <v>3.7720924294434797</v>
       </c>
       <c r="I159" t="n">
-        <v>3.8719962355643642</v>
+        <v>3.9603396194210365</v>
       </c>
       <c r="J159" t="n">
-        <v>3.856466612947381</v>
+        <v>3.6448939644711724</v>
       </c>
       <c r="K159" t="n">
-        <v>3.8351967249486014</v>
+        <v>3.794925919955176</v>
       </c>
       <c r="L159" t="n">
-        <v>3.8719962355643642</v>
+        <v>3.3633141716167483</v>
       </c>
     </row>
     <row r="160">
@@ -6335,37 +6335,37 @@
         <v>164.0</v>
       </c>
       <c r="B165" t="n">
-        <v>7.4536974365362685</v>
+        <v>7.602771385266994</v>
       </c>
       <c r="C165" t="n">
-        <v>7.525217214428803</v>
+        <v>7.639790359304164</v>
       </c>
       <c r="D165" t="n">
-        <v>7.495035422830581</v>
+        <v>7.635143288599242</v>
       </c>
       <c r="E165" t="n">
-        <v>7.4536974365362685</v>
+        <v>7.087620305019294</v>
       </c>
       <c r="F165" t="n">
-        <v>7.525217214428803</v>
+        <v>7.796382340039119</v>
       </c>
       <c r="G165" t="n">
-        <v>7.495035422830581</v>
+        <v>7.667792035921415</v>
       </c>
       <c r="H165" t="n">
-        <v>7.4536974365362685</v>
+        <v>7.552452201625949</v>
       </c>
       <c r="I165" t="n">
-        <v>7.525217214428803</v>
+        <v>7.92935916533088</v>
       </c>
       <c r="J165" t="n">
-        <v>7.495035422830581</v>
+        <v>7.297776489195097</v>
       </c>
       <c r="K165" t="n">
-        <v>7.4536974365362685</v>
+        <v>7.59816922709961</v>
       </c>
       <c r="L165" t="n">
-        <v>7.525217214428803</v>
+        <v>6.733999761488951</v>
       </c>
     </row>
     <row r="166">
@@ -6411,37 +6411,37 @@
         <v>166.0</v>
       </c>
       <c r="B167" t="n">
-        <v>1.7548450082390037</v>
+        <v>1.7731246437414934</v>
       </c>
       <c r="C167" t="n">
-        <v>1.7612417704615944</v>
+        <v>1.7817529879734681</v>
       </c>
       <c r="D167" t="n">
-        <v>1.6407493246240479</v>
+        <v>1.653981880725958</v>
       </c>
       <c r="E167" t="n">
-        <v>1.7548450082390037</v>
+        <v>1.8193800698528593</v>
       </c>
       <c r="F167" t="n">
-        <v>1.7612417704615944</v>
+        <v>1.7741986129855427</v>
       </c>
       <c r="G167" t="n">
-        <v>1.6407493246240479</v>
+        <v>1.8504118195973087</v>
       </c>
       <c r="H167" t="n">
-        <v>1.7548450082390037</v>
+        <v>1.782837438101101</v>
       </c>
       <c r="I167" t="n">
-        <v>1.7612417704615944</v>
+        <v>1.6024080470355726</v>
       </c>
       <c r="J167" t="n">
-        <v>1.6407493246240479</v>
+        <v>1.7624560231721085</v>
       </c>
       <c r="K167" t="n">
-        <v>1.7548450082390037</v>
+        <v>1.5714602519590428</v>
       </c>
       <c r="L167" t="n">
-        <v>1.7612417704615944</v>
+        <v>1.70302436689062</v>
       </c>
     </row>
     <row r="168">
@@ -6449,37 +6449,37 @@
         <v>167.0</v>
       </c>
       <c r="B168" t="n">
-        <v>2.6036777328937744</v>
+        <v>2.6817880648805876</v>
       </c>
       <c r="C168" t="n">
-        <v>2.6755868604217015</v>
+        <v>2.7694476202372713</v>
       </c>
       <c r="D168" t="n">
-        <v>2.830810292369641</v>
+        <v>2.9225367331410523</v>
       </c>
       <c r="E168" t="n">
-        <v>2.6036777328937744</v>
+        <v>2.7421025543477047</v>
       </c>
       <c r="F168" t="n">
-        <v>2.6755868604217015</v>
+        <v>2.9063098577482305</v>
       </c>
       <c r="G168" t="n">
-        <v>2.830810292369641</v>
+        <v>3.0425154929381115</v>
       </c>
       <c r="H168" t="n">
-        <v>2.6036777328937744</v>
+        <v>3.1578350942848847</v>
       </c>
       <c r="I168" t="n">
-        <v>2.6755868604217015</v>
+        <v>3.025940046020022</v>
       </c>
       <c r="J168" t="n">
-        <v>2.830810292369641</v>
+        <v>3.053667046963737</v>
       </c>
       <c r="K168" t="n">
-        <v>2.6036777328937744</v>
+        <v>2.7346022721550907</v>
       </c>
       <c r="L168" t="n">
-        <v>2.6755868604217015</v>
+        <v>3.0277728368253567</v>
       </c>
     </row>
     <row r="169">
@@ -6563,37 +6563,37 @@
         <v>170.0</v>
       </c>
       <c r="B171" t="n">
-        <v>1.7599778526474201</v>
+        <v>1.778121954221105</v>
       </c>
       <c r="C171" t="n">
-        <v>1.887276763732962</v>
+        <v>1.9073615870045464</v>
       </c>
       <c r="D171" t="n">
-        <v>1.965658834799391</v>
+        <v>1.9892949971931086</v>
       </c>
       <c r="E171" t="n">
-        <v>1.7599778526474201</v>
+        <v>1.9166488015597076</v>
       </c>
       <c r="F171" t="n">
-        <v>1.887276763732962</v>
+        <v>1.9331209222919574</v>
       </c>
       <c r="G171" t="n">
-        <v>1.965658834799391</v>
+        <v>1.7446282441718113</v>
       </c>
       <c r="H171" t="n">
-        <v>1.7599778526474201</v>
+        <v>1.7631881192697825</v>
       </c>
       <c r="I171" t="n">
-        <v>1.887276763732962</v>
+        <v>1.9154829577238877</v>
       </c>
       <c r="J171" t="n">
-        <v>1.965658834799391</v>
+        <v>1.683086039839831</v>
       </c>
       <c r="K171" t="n">
-        <v>1.7599778526474201</v>
+        <v>1.8410675443035323</v>
       </c>
       <c r="L171" t="n">
-        <v>1.887276763732962</v>
+        <v>1.7274020746132803</v>
       </c>
     </row>
     <row r="172">
@@ -6715,37 +6715,37 @@
         <v>174.0</v>
       </c>
       <c r="B175" t="n">
-        <v>1.7107980994882035</v>
+        <v>1.6936901184933215</v>
       </c>
       <c r="C175" t="n">
-        <v>1.8345398470473937</v>
+        <v>1.816792973414712</v>
       </c>
       <c r="D175" t="n">
-        <v>1.9107316570822102</v>
+        <v>1.8948358809224906</v>
       </c>
       <c r="E175" t="n">
-        <v>1.7107980994882035</v>
+        <v>1.8256391965227856</v>
       </c>
       <c r="F175" t="n">
-        <v>1.8345398470473937</v>
+        <v>1.8413291597722756</v>
       </c>
       <c r="G175" t="n">
-        <v>1.9107316570822102</v>
+        <v>1.6617868142191112</v>
       </c>
       <c r="H175" t="n">
-        <v>1.7107980994882035</v>
+        <v>1.6794653975014788</v>
       </c>
       <c r="I175" t="n">
-        <v>1.8345398470473937</v>
+        <v>1.82452871128315</v>
       </c>
       <c r="J175" t="n">
-        <v>1.9107316570822102</v>
+        <v>1.6031668623648916</v>
       </c>
       <c r="K175" t="n">
-        <v>1.7107980994882035</v>
+        <v>1.75364681812928</v>
       </c>
       <c r="L175" t="n">
-        <v>1.8345398470473937</v>
+        <v>1.6453786071827414</v>
       </c>
     </row>
     <row r="176">
@@ -6753,37 +6753,37 @@
         <v>175.0</v>
       </c>
       <c r="B176" t="n">
-        <v>1.8816514657210186</v>
+        <v>1.8628349510638083</v>
       </c>
       <c r="C176" t="n">
-        <v>2.017751009399075</v>
+        <v>1.9982317974050405</v>
       </c>
       <c r="D176" t="n">
-        <v>2.1015519155789675</v>
+        <v>2.0840686657912473</v>
       </c>
       <c r="E176" t="n">
-        <v>1.8816514657210186</v>
+        <v>2.0079614719250096</v>
       </c>
       <c r="F176" t="n">
-        <v>2.017751009399075</v>
+        <v>2.025218354753173</v>
       </c>
       <c r="G176" t="n">
-        <v>2.1015519155789675</v>
+        <v>1.8277455391297701</v>
       </c>
       <c r="H176" t="n">
-        <v>1.8816514657210186</v>
+        <v>1.8471896407774686</v>
       </c>
       <c r="I176" t="n">
-        <v>2.017751009399075</v>
+        <v>2.006740085146846</v>
       </c>
       <c r="J176" t="n">
-        <v>2.1015519155789675</v>
+        <v>1.7632713511119171</v>
       </c>
       <c r="K176" t="n">
-        <v>1.8816514657210186</v>
+        <v>1.9287793847077002</v>
       </c>
       <c r="L176" t="n">
-        <v>2.017751009399075</v>
+        <v>1.8096986832038278</v>
       </c>
     </row>
     <row r="177">
@@ -6791,37 +6791,37 @@
         <v>176.0</v>
       </c>
       <c r="B177" t="n">
-        <v>3.631667030100974</v>
+        <v>3.6679837004019835</v>
       </c>
       <c r="C177" t="n">
-        <v>3.3139487981099833</v>
+        <v>3.361976101052414</v>
       </c>
       <c r="D177" t="n">
-        <v>3.1461780625421416</v>
+        <v>3.209240681759985</v>
       </c>
       <c r="E177" t="n">
-        <v>3.631667030100974</v>
+        <v>3.6128094559492263</v>
       </c>
       <c r="F177" t="n">
-        <v>3.3139487981099833</v>
+        <v>3.3265868786342527</v>
       </c>
       <c r="G177" t="n">
-        <v>3.1461780625421416</v>
+        <v>3.6237111126482535</v>
       </c>
       <c r="H177" t="n">
-        <v>3.631667030100974</v>
+        <v>3.352590350892135</v>
       </c>
       <c r="I177" t="n">
-        <v>3.3139487981099833</v>
+        <v>3.5104734524499523</v>
       </c>
       <c r="J177" t="n">
-        <v>3.1461780625421416</v>
+        <v>3.6859971265468494</v>
       </c>
       <c r="K177" t="n">
-        <v>3.631667030100974</v>
+        <v>3.3904513361420205</v>
       </c>
       <c r="L177" t="n">
-        <v>3.3139487981099833</v>
+        <v>3.6523657660011475</v>
       </c>
     </row>
     <row r="178">
@@ -6829,37 +6829,37 @@
         <v>177.0</v>
       </c>
       <c r="B178" t="n">
-        <v>2.891513721200377</v>
+        <v>2.8631655474631184</v>
       </c>
       <c r="C178" t="n">
-        <v>3.1631860525229425</v>
+        <v>3.172506946552327</v>
       </c>
       <c r="D178" t="n">
-        <v>3.1231532010737966</v>
+        <v>3.1188978945150376</v>
       </c>
       <c r="E178" t="n">
-        <v>2.891513721200377</v>
+        <v>2.762166655723917</v>
       </c>
       <c r="F178" t="n">
-        <v>3.1631860525229425</v>
+        <v>3.109514929629497</v>
       </c>
       <c r="G178" t="n">
-        <v>3.1231532010737966</v>
+        <v>3.0046591941840908</v>
       </c>
       <c r="H178" t="n">
-        <v>2.891513721200377</v>
+        <v>2.827141035069664</v>
       </c>
       <c r="I178" t="n">
-        <v>3.1631860525229425</v>
+        <v>3.1454740192041744</v>
       </c>
       <c r="J178" t="n">
-        <v>3.1231532010737966</v>
+        <v>3.1302324725680553</v>
       </c>
       <c r="K178" t="n">
-        <v>2.891513721200377</v>
+        <v>3.2099464698673867</v>
       </c>
       <c r="L178" t="n">
-        <v>3.1631860525229425</v>
+        <v>3.2646960283552175</v>
       </c>
     </row>
     <row r="179">
@@ -6867,37 +6867,37 @@
         <v>178.0</v>
       </c>
       <c r="B179" t="n">
-        <v>3.551779151216261</v>
+        <v>3.516613021006199</v>
       </c>
       <c r="C179" t="n">
-        <v>3.8854867574707557</v>
+        <v>3.8965540247449635</v>
       </c>
       <c r="D179" t="n">
-        <v>3.8363125667697737</v>
+        <v>3.8307100184124727</v>
       </c>
       <c r="E179" t="n">
-        <v>3.551779151216261</v>
+        <v>3.3925636037058373</v>
       </c>
       <c r="F179" t="n">
-        <v>3.8854867574707557</v>
+        <v>3.8191856213962496</v>
       </c>
       <c r="G179" t="n">
-        <v>3.8363125667697737</v>
+        <v>3.690399130192061</v>
       </c>
       <c r="H179" t="n">
-        <v>3.551779151216261</v>
+        <v>3.472366795191395</v>
       </c>
       <c r="I179" t="n">
-        <v>3.8854867574707557</v>
+        <v>3.863351493234811</v>
       </c>
       <c r="J179" t="n">
-        <v>3.8363125667697737</v>
+        <v>3.8446314365449905</v>
       </c>
       <c r="K179" t="n">
-        <v>3.551779151216261</v>
+        <v>3.942538203098416</v>
       </c>
       <c r="L179" t="n">
-        <v>3.8854867574707557</v>
+        <v>4.009783008570191</v>
       </c>
     </row>
     <row r="180">
@@ -7057,37 +7057,37 @@
         <v>183.0</v>
       </c>
       <c r="B184" t="n">
-        <v>1.4918378746401648</v>
+        <v>1.5075414312153246</v>
       </c>
       <c r="C184" t="n">
-        <v>1.6320035845198133</v>
+        <v>1.6704188365858583</v>
       </c>
       <c r="D184" t="n">
-        <v>1.6113491696423055</v>
+        <v>1.6421920834712855</v>
       </c>
       <c r="E184" t="n">
-        <v>1.4918378746401648</v>
+        <v>1.4543625244145684</v>
       </c>
       <c r="F184" t="n">
-        <v>1.6320035845198133</v>
+        <v>1.6372516746552028</v>
       </c>
       <c r="G184" t="n">
-        <v>1.6113491696423055</v>
+        <v>1.58204202545257</v>
       </c>
       <c r="H184" t="n">
-        <v>1.4918378746401648</v>
+        <v>1.488573458853202</v>
       </c>
       <c r="I184" t="n">
-        <v>1.6320035845198133</v>
+        <v>1.6561851999662496</v>
       </c>
       <c r="J184" t="n">
-        <v>1.6113491696423055</v>
+        <v>1.648160074401956</v>
       </c>
       <c r="K184" t="n">
-        <v>1.4918378746401648</v>
+        <v>1.6901318540927974</v>
       </c>
       <c r="L184" t="n">
-        <v>1.6320035845198133</v>
+        <v>1.718959117620847</v>
       </c>
     </row>
     <row r="185">
@@ -7171,37 +7171,37 @@
         <v>186.0</v>
       </c>
       <c r="B187" t="n">
-        <v>2.6749955331170105</v>
+        <v>2.622025324540436</v>
       </c>
       <c r="C187" t="n">
-        <v>2.9263248861237314</v>
+        <v>2.9053135133981653</v>
       </c>
       <c r="D187" t="n">
-        <v>2.8892897173056684</v>
+        <v>2.8562194984918583</v>
       </c>
       <c r="E187" t="n">
-        <v>2.6749955331170105</v>
+        <v>2.5295327153983114</v>
       </c>
       <c r="F187" t="n">
-        <v>2.9263248861237314</v>
+        <v>2.84762678139558</v>
       </c>
       <c r="G187" t="n">
-        <v>2.8892897173056684</v>
+        <v>2.751602157878868</v>
       </c>
       <c r="H187" t="n">
-        <v>2.6749955331170105</v>
+        <v>2.589034852199935</v>
       </c>
       <c r="I187" t="n">
-        <v>2.9263248861237314</v>
+        <v>2.8805573409281098</v>
       </c>
       <c r="J187" t="n">
-        <v>2.8892897173056684</v>
+        <v>2.8665994608815026</v>
       </c>
       <c r="K187" t="n">
-        <v>2.6749955331170105</v>
+        <v>2.9395998222557824</v>
       </c>
       <c r="L187" t="n">
-        <v>2.9263248861237314</v>
+        <v>2.989738288398509</v>
       </c>
     </row>
     <row r="188">
@@ -7665,37 +7665,37 @@
         <v>199.0</v>
       </c>
       <c r="B200" t="n">
-        <v>2.1327667799097085</v>
+        <v>2.154529706235318</v>
       </c>
       <c r="C200" t="n">
-        <v>2.1916701520230464</v>
+        <v>2.224954777673528</v>
       </c>
       <c r="D200" t="n">
-        <v>2.318819289928911</v>
+        <v>2.3479454963555035</v>
       </c>
       <c r="E200" t="n">
-        <v>2.1327667799097085</v>
+        <v>2.202985943689379</v>
       </c>
       <c r="F200" t="n">
-        <v>2.1916701520230464</v>
+        <v>2.334908938571147</v>
       </c>
       <c r="G200" t="n">
-        <v>2.318819289928911</v>
+        <v>2.4443355897731007</v>
       </c>
       <c r="H200" t="n">
-        <v>2.1327667799097085</v>
+        <v>2.5369825479971837</v>
       </c>
       <c r="I200" t="n">
-        <v>2.1916701520230464</v>
+        <v>2.4310189920721776</v>
       </c>
       <c r="J200" t="n">
-        <v>2.318819289928911</v>
+        <v>2.453294669997797</v>
       </c>
       <c r="K200" t="n">
-        <v>2.1327667799097085</v>
+        <v>2.1969602696248427</v>
       </c>
       <c r="L200" t="n">
-        <v>2.1916701520230464</v>
+        <v>2.4324914433397185</v>
       </c>
     </row>
     <row r="201">
@@ -8159,37 +8159,37 @@
         <v>212.0</v>
       </c>
       <c r="B213" t="n">
-        <v>1.3859457067684862</v>
+        <v>1.3722234720480062</v>
       </c>
       <c r="C213" t="n">
-        <v>1.4419188147966202</v>
+        <v>1.4164874089068538</v>
       </c>
       <c r="D213" t="n">
-        <v>1.4453619648304339</v>
+        <v>1.4122260152774062</v>
       </c>
       <c r="E213" t="n">
-        <v>1.3859457067684862</v>
+        <v>1.4337933036549182</v>
       </c>
       <c r="F213" t="n">
-        <v>1.4419188147966202</v>
+        <v>1.4276883447483704</v>
       </c>
       <c r="G213" t="n">
-        <v>1.4453619648304339</v>
+        <v>1.4408346462267405</v>
       </c>
       <c r="H213" t="n">
-        <v>1.3859457067684862</v>
+        <v>1.254473349709851</v>
       </c>
       <c r="I213" t="n">
-        <v>1.4419188147966202</v>
+        <v>1.3253075311091342</v>
       </c>
       <c r="J213" t="n">
-        <v>1.4453619648304339</v>
+        <v>1.314176728813856</v>
       </c>
       <c r="K213" t="n">
-        <v>1.3859457067684862</v>
+        <v>1.287503915748767</v>
       </c>
       <c r="L213" t="n">
-        <v>1.4419188147966202</v>
+        <v>1.3003432894452043</v>
       </c>
     </row>
     <row r="214">
@@ -8197,37 +8197,37 @@
         <v>213.0</v>
       </c>
       <c r="B214" t="n">
-        <v>1.0621905633200146</v>
+        <v>1.0516738250693214</v>
       </c>
       <c r="C214" t="n">
-        <v>1.1050884249439024</v>
+        <v>1.085597762924352</v>
       </c>
       <c r="D214" t="n">
-        <v>1.1077272595361602</v>
+        <v>1.0823318253932601</v>
       </c>
       <c r="E214" t="n">
-        <v>1.0621905633200146</v>
+        <v>1.0988610228063456</v>
       </c>
       <c r="F214" t="n">
-        <v>1.1050884249439024</v>
+        <v>1.0941821744875964</v>
       </c>
       <c r="G214" t="n">
-        <v>1.1077272595361602</v>
+        <v>1.1042575167644906</v>
       </c>
       <c r="H214" t="n">
-        <v>1.0621905633200146</v>
+        <v>0.9614299806196064</v>
       </c>
       <c r="I214" t="n">
-        <v>1.1050884249439024</v>
+        <v>1.0157173878934795</v>
       </c>
       <c r="J214" t="n">
-        <v>1.1077272595361602</v>
+        <v>1.0071867267698253</v>
       </c>
       <c r="K214" t="n">
-        <v>1.0621905633200146</v>
+        <v>0.9867446487024274</v>
       </c>
       <c r="L214" t="n">
-        <v>1.1050884249439024</v>
+        <v>0.9965847611344602</v>
       </c>
     </row>
     <row r="215">
@@ -8463,37 +8463,37 @@
         <v>220.0</v>
       </c>
       <c r="B221" t="n">
-        <v>0.7320301425306367</v>
+        <v>0.7395768450309526</v>
       </c>
       <c r="C221" t="n">
-        <v>0.7227931329669038</v>
+        <v>0.7359953589057727</v>
       </c>
       <c r="D221" t="n">
-        <v>0.6776756146178597</v>
+        <v>0.6788745578208447</v>
       </c>
       <c r="E221" t="n">
-        <v>0.7320301425306367</v>
+        <v>0.7068978678735661</v>
       </c>
       <c r="F221" t="n">
-        <v>0.7227931329669038</v>
+        <v>0.7400269827376952</v>
       </c>
       <c r="G221" t="n">
-        <v>0.6776756146178597</v>
+        <v>0.6651336609945544</v>
       </c>
       <c r="H221" t="n">
-        <v>0.7320301425306367</v>
+        <v>0.7551952380921214</v>
       </c>
       <c r="I221" t="n">
-        <v>0.7227931329669038</v>
+        <v>0.7364411461672705</v>
       </c>
       <c r="J221" t="n">
-        <v>0.6776756146178597</v>
+        <v>0.7680760154651359</v>
       </c>
       <c r="K221" t="n">
-        <v>0.7320301425306367</v>
+        <v>0.731566987074887</v>
       </c>
       <c r="L221" t="n">
-        <v>0.7227931329669038</v>
+        <v>0.7427393603402332</v>
       </c>
     </row>
     <row r="222">
@@ -8504,34 +8504,34 @@
         <v>0.7137721763517728</v>
       </c>
       <c r="C222" t="n">
-        <v>0.7047655521211159</v>
+        <v>0.7103156523092492</v>
       </c>
       <c r="D222" t="n">
-        <v>0.6607733345981326</v>
+        <v>0.6551878602761719</v>
       </c>
       <c r="E222" t="n">
-        <v>0.7137721763517728</v>
+        <v>0.6822334054947683</v>
       </c>
       <c r="F222" t="n">
-        <v>0.7047655521211159</v>
+        <v>0.7142066082471985</v>
       </c>
       <c r="G222" t="n">
-        <v>0.6607733345981326</v>
+        <v>0.641926398808546</v>
       </c>
       <c r="H222" t="n">
-        <v>0.7137721763517728</v>
+        <v>0.7288456260971085</v>
       </c>
       <c r="I222" t="n">
-        <v>0.7047655521211159</v>
+        <v>0.710745885551362</v>
       </c>
       <c r="J222" t="n">
-        <v>0.6607733345981326</v>
+        <v>0.7412769786474367</v>
       </c>
       <c r="K222" t="n">
-        <v>0.7137721763517728</v>
+        <v>0.7060417913566475</v>
       </c>
       <c r="L222" t="n">
-        <v>0.7047655521211159</v>
+        <v>0.7168243479418077</v>
       </c>
     </row>
     <row r="223">
@@ -8580,34 +8580,34 @@
         <v>1.2817218143374576</v>
       </c>
       <c r="C224" t="n">
-        <v>1.2655486051084612</v>
+        <v>1.275514928703825</v>
       </c>
       <c r="D224" t="n">
-        <v>1.1865517112417308</v>
+        <v>1.176521866258882</v>
       </c>
       <c r="E224" t="n">
-        <v>1.2817218143374576</v>
+        <v>1.2250875941421178</v>
       </c>
       <c r="F224" t="n">
-        <v>1.2655486051084612</v>
+        <v>1.2825019243720868</v>
       </c>
       <c r="G224" t="n">
-        <v>1.1865517112417308</v>
+        <v>1.1527082391433936</v>
       </c>
       <c r="H224" t="n">
-        <v>1.2817218143374576</v>
+        <v>1.308789231639522</v>
       </c>
       <c r="I224" t="n">
-        <v>1.2655486051084612</v>
+        <v>1.276287499210128</v>
       </c>
       <c r="J224" t="n">
-        <v>1.1865517112417308</v>
+        <v>1.3311122308728551</v>
       </c>
       <c r="K224" t="n">
-        <v>1.2817218143374576</v>
+        <v>1.2678403499013935</v>
       </c>
       <c r="L224" t="n">
-        <v>1.2655486051084612</v>
+        <v>1.287202603639226</v>
       </c>
     </row>
     <row r="225">
@@ -8805,37 +8805,37 @@
         <v>229.0</v>
       </c>
       <c r="B230" t="n">
-        <v>3.270861126145823</v>
+        <v>3.336939128694224</v>
       </c>
       <c r="C230" t="n">
-        <v>2.9847081816512895</v>
+        <v>3.0585494695920157</v>
       </c>
       <c r="D230" t="n">
-        <v>2.833605458707417</v>
+        <v>2.919598798432117</v>
       </c>
       <c r="E230" t="n">
-        <v>3.270861126145823</v>
+        <v>3.2867444958253893</v>
       </c>
       <c r="F230" t="n">
-        <v>2.9847081816512895</v>
+        <v>3.0263542117427833</v>
       </c>
       <c r="G230" t="n">
-        <v>2.833605458707417</v>
+        <v>3.2966622511312784</v>
       </c>
       <c r="H230" t="n">
-        <v>3.270861126145823</v>
+        <v>3.0500108065225615</v>
       </c>
       <c r="I230" t="n">
-        <v>2.9847081816512895</v>
+        <v>3.1936445689327235</v>
       </c>
       <c r="J230" t="n">
-        <v>2.833605458707417</v>
+        <v>3.353326798720691</v>
       </c>
       <c r="K230" t="n">
-        <v>3.270861126145823</v>
+        <v>3.0844547445142743</v>
       </c>
       <c r="L230" t="n">
-        <v>2.9847081816512895</v>
+        <v>3.322730751376239</v>
       </c>
     </row>
     <row r="231">
@@ -9109,37 +9109,37 @@
         <v>237.0</v>
       </c>
       <c r="B238" t="n">
-        <v>3.1520209231378247</v>
+        <v>3.2156981135042453</v>
       </c>
       <c r="C238" t="n">
-        <v>2.876264774075306</v>
+        <v>2.9474231863723355</v>
       </c>
       <c r="D238" t="n">
-        <v>2.730652066628016</v>
+        <v>2.813521010190332</v>
       </c>
       <c r="E238" t="n">
-        <v>3.1520209231378247</v>
+        <v>3.167327202319086</v>
       </c>
       <c r="F238" t="n">
-        <v>2.876264774075306</v>
+        <v>2.91639767888276</v>
       </c>
       <c r="G238" t="n">
-        <v>2.730652066628016</v>
+        <v>3.1768846158041275</v>
       </c>
       <c r="H238" t="n">
-        <v>3.1520209231378247</v>
+        <v>2.939194758563094</v>
       </c>
       <c r="I238" t="n">
-        <v>2.876264774075306</v>
+        <v>3.0776098752327874</v>
       </c>
       <c r="J238" t="n">
-        <v>2.730652066628016</v>
+        <v>3.2314903702870232</v>
       </c>
       <c r="K238" t="n">
-        <v>3.1520209231378247</v>
+        <v>2.9723872448956064</v>
       </c>
       <c r="L238" t="n">
-        <v>2.876264774075306</v>
+        <v>3.202005969184166</v>
       </c>
     </row>
     <row r="239">
@@ -9261,37 +9261,37 @@
         <v>241.0</v>
       </c>
       <c r="B242" t="n">
-        <v>3.186079935433894</v>
+        <v>3.154843857635522</v>
       </c>
       <c r="C242" t="n">
-        <v>3.0902727376265955</v>
+        <v>3.0562578706116983</v>
       </c>
       <c r="D242" t="n">
-        <v>2.892250055437398</v>
+        <v>2.867567896996947</v>
       </c>
       <c r="E242" t="n">
-        <v>3.186079935433894</v>
+        <v>2.9269743978490768</v>
       </c>
       <c r="F242" t="n">
-        <v>3.0902727376265955</v>
+        <v>3.164392418673997</v>
       </c>
       <c r="G242" t="n">
-        <v>2.892250055437398</v>
+        <v>3.1663090691169047</v>
       </c>
       <c r="H242" t="n">
-        <v>3.186079935433894</v>
+        <v>3.039288531929872</v>
       </c>
       <c r="I242" t="n">
-        <v>3.0902727376265955</v>
+        <v>2.8044937083801</v>
       </c>
       <c r="J242" t="n">
-        <v>2.892250055437398</v>
+        <v>3.2469417872285296</v>
       </c>
       <c r="K242" t="n">
-        <v>3.186079935433894</v>
+        <v>3.1817262778271966</v>
       </c>
       <c r="L242" t="n">
-        <v>3.0902727376265955</v>
+        <v>2.859724438188356</v>
       </c>
     </row>
     <row r="243">
@@ -9565,37 +9565,37 @@
         <v>249.0</v>
       </c>
       <c r="B250" t="n">
-        <v>1.2174367057293445</v>
+        <v>1.181275219420552</v>
       </c>
       <c r="C250" t="n">
-        <v>1.1808277060660035</v>
+        <v>1.1443614484992104</v>
       </c>
       <c r="D250" t="n">
-        <v>1.1051610289111273</v>
+        <v>1.0737098409894565</v>
       </c>
       <c r="E250" t="n">
-        <v>1.2174367057293445</v>
+        <v>1.0959535495518515</v>
       </c>
       <c r="F250" t="n">
-        <v>1.1808277060660035</v>
+        <v>1.1848505084189525</v>
       </c>
       <c r="G250" t="n">
-        <v>1.1051610289111273</v>
+        <v>1.1855681641175122</v>
       </c>
       <c r="H250" t="n">
-        <v>1.2174367057293445</v>
+        <v>1.1380075811829944</v>
       </c>
       <c r="I250" t="n">
-        <v>1.1808277060660035</v>
+        <v>1.0500928319201133</v>
       </c>
       <c r="J250" t="n">
-        <v>1.1051610289111273</v>
+        <v>1.215759652532781</v>
       </c>
       <c r="K250" t="n">
-        <v>1.2174367057293445</v>
+        <v>1.1913408639479728</v>
       </c>
       <c r="L250" t="n">
-        <v>1.1808277060660035</v>
+        <v>1.070772997220561</v>
       </c>
     </row>
     <row r="251">
@@ -9682,34 +9682,34 @@
         <v>1.475631828367468</v>
       </c>
       <c r="C253" t="n">
-        <v>1.443649856731058</v>
+        <v>1.4431742602767719</v>
       </c>
       <c r="D253" t="n">
-        <v>1.491080108839959</v>
+        <v>1.5062020281389</v>
       </c>
       <c r="E253" t="n">
-        <v>1.475631828367468</v>
+        <v>1.651366987998844</v>
       </c>
       <c r="F253" t="n">
-        <v>1.443649856731058</v>
+        <v>1.5727304641317117</v>
       </c>
       <c r="G253" t="n">
-        <v>1.491080108839959</v>
+        <v>1.6362997709989524</v>
       </c>
       <c r="H253" t="n">
-        <v>1.475631828367468</v>
+        <v>1.4903472698127458</v>
       </c>
       <c r="I253" t="n">
-        <v>1.443649856731058</v>
+        <v>1.6234621731997783</v>
       </c>
       <c r="J253" t="n">
-        <v>1.491080108839959</v>
+        <v>1.5019971095130384</v>
       </c>
       <c r="K253" t="n">
-        <v>1.475631828367468</v>
+        <v>1.437774891421632</v>
       </c>
       <c r="L253" t="n">
-        <v>1.443649856731058</v>
+        <v>1.518959244595695</v>
       </c>
     </row>
     <row r="254">
@@ -9717,37 +9717,37 @@
         <v>253.0</v>
       </c>
       <c r="B254" t="n">
-        <v>1.1515328333008474</v>
+        <v>1.1632831683345295</v>
       </c>
       <c r="C254" t="n">
-        <v>1.1265751916282856</v>
+        <v>1.1376959304347134</v>
       </c>
       <c r="D254" t="n">
-        <v>1.163588145364558</v>
+        <v>1.1873825393043693</v>
       </c>
       <c r="E254" t="n">
-        <v>1.1515328333008474</v>
+        <v>1.301820267734132</v>
       </c>
       <c r="F254" t="n">
-        <v>1.1265751916282856</v>
+        <v>1.2398288259175274</v>
       </c>
       <c r="G254" t="n">
-        <v>1.163588145364558</v>
+        <v>1.2899423456178756</v>
       </c>
       <c r="H254" t="n">
-        <v>1.1515328333008474</v>
+        <v>1.1748837756261477</v>
       </c>
       <c r="I254" t="n">
-        <v>1.1265751916282856</v>
+        <v>1.2798220966814255</v>
       </c>
       <c r="J254" t="n">
-        <v>1.163588145364558</v>
+        <v>1.1840676805654569</v>
       </c>
       <c r="K254" t="n">
-        <v>1.1515328333008474</v>
+        <v>1.1334394520990823</v>
       </c>
       <c r="L254" t="n">
-        <v>1.1265751916282856</v>
+        <v>1.197439421308201</v>
       </c>
     </row>
     <row r="255">
@@ -9948,34 +9948,34 @@
         <v>2.1829082249295304</v>
       </c>
       <c r="C260" t="n">
-        <v>2.135597162920371</v>
+        <v>2.134893611132011</v>
       </c>
       <c r="D260" t="n">
-        <v>2.205760929687008</v>
+        <v>2.22813084701991</v>
       </c>
       <c r="E260" t="n">
-        <v>2.1829082249295304</v>
+        <v>2.4428739684124676</v>
       </c>
       <c r="F260" t="n">
-        <v>2.135597162920371</v>
+        <v>2.326546635652684</v>
       </c>
       <c r="G260" t="n">
-        <v>2.205760929687008</v>
+        <v>2.4205849724152415</v>
       </c>
       <c r="H260" t="n">
-        <v>2.1829082249295304</v>
+        <v>2.2046768379038815</v>
       </c>
       <c r="I260" t="n">
-        <v>2.135597162920371</v>
+        <v>2.4015942612599006</v>
       </c>
       <c r="J260" t="n">
-        <v>2.205760929687008</v>
+        <v>2.2219104936247764</v>
       </c>
       <c r="K260" t="n">
-        <v>2.1829082249295304</v>
+        <v>2.1269063026064474</v>
       </c>
       <c r="L260" t="n">
-        <v>2.135597162920371</v>
+        <v>2.2470026497252995</v>
       </c>
     </row>
     <row r="261">
@@ -10138,34 +10138,34 @@
         <v>1.00600478277262</v>
       </c>
       <c r="C265" t="n">
-        <v>0.9494683489576031</v>
+        <v>0.9416672671416227</v>
       </c>
       <c r="D265" t="n">
-        <v>0.9675308862379144</v>
+        <v>0.980428389654835</v>
       </c>
       <c r="E265" t="n">
-        <v>1.00600478277262</v>
+        <v>0.8860326580369162</v>
       </c>
       <c r="F265" t="n">
-        <v>0.9494683489576031</v>
+        <v>0.9043370742058472</v>
       </c>
       <c r="G265" t="n">
-        <v>0.9675308862379144</v>
+        <v>0.8656695345415253</v>
       </c>
       <c r="H265" t="n">
-        <v>1.00600478277262</v>
+        <v>0.8884628084960219</v>
       </c>
       <c r="I265" t="n">
-        <v>0.9494683489576031</v>
+        <v>0.9942711479991923</v>
       </c>
       <c r="J265" t="n">
-        <v>0.9675308862379144</v>
+        <v>0.9469249024776035</v>
       </c>
       <c r="K265" t="n">
-        <v>1.00600478277262</v>
+        <v>0.9774699448465279</v>
       </c>
       <c r="L265" t="n">
-        <v>0.9494683489576031</v>
+        <v>0.9068688126381657</v>
       </c>
     </row>
     <row r="266">
@@ -10173,37 +10173,37 @@
         <v>265.0</v>
       </c>
       <c r="B266" t="n">
-        <v>1.5642296572140366</v>
+        <v>1.5800299567818552</v>
       </c>
       <c r="C266" t="n">
-        <v>1.4763215597566548</v>
+        <v>1.4789815286007013</v>
       </c>
       <c r="D266" t="n">
-        <v>1.5044068700675335</v>
+        <v>1.539859703116507</v>
       </c>
       <c r="E266" t="n">
-        <v>1.5642296572140366</v>
+        <v>1.3916018754175283</v>
       </c>
       <c r="F266" t="n">
-        <v>1.4763215597566548</v>
+        <v>1.4203507704363008</v>
       </c>
       <c r="G266" t="n">
-        <v>1.5044068700675335</v>
+        <v>1.3596195770355153</v>
       </c>
       <c r="H266" t="n">
-        <v>1.5642296572140366</v>
+        <v>1.395418666938431</v>
       </c>
       <c r="I266" t="n">
-        <v>1.4763215597566548</v>
+        <v>1.5616011234786407</v>
       </c>
       <c r="J266" t="n">
-        <v>1.5044068700675335</v>
+        <v>1.4872391646228573</v>
       </c>
       <c r="K266" t="n">
-        <v>1.5642296572140366</v>
+        <v>1.535213173097308</v>
       </c>
       <c r="L266" t="n">
-        <v>1.4763215597566548</v>
+        <v>1.4243271159112936</v>
       </c>
     </row>
     <row r="267">
@@ -10249,37 +10249,37 @@
         <v>267.0</v>
       </c>
       <c r="B268" t="n">
-        <v>2.695460039095372</v>
+        <v>2.7763238402682333</v>
       </c>
       <c r="C268" t="n">
-        <v>2.769904037002254</v>
+        <v>2.867073484712978</v>
       </c>
       <c r="D268" t="n">
-        <v>2.930599253872237</v>
+        <v>3.0255591456069935</v>
       </c>
       <c r="E268" t="n">
-        <v>2.695460039095372</v>
+        <v>2.8387644772499705</v>
       </c>
       <c r="F268" t="n">
-        <v>2.769904037002254</v>
+        <v>3.008760256240559</v>
       </c>
       <c r="G268" t="n">
-        <v>2.930599253872237</v>
+        <v>3.1497672795428953</v>
       </c>
       <c r="H268" t="n">
-        <v>2.695460039095372</v>
+        <v>3.269152014922248</v>
       </c>
       <c r="I268" t="n">
-        <v>2.769904037002254</v>
+        <v>3.132607531147997</v>
       </c>
       <c r="J268" t="n">
-        <v>2.930599253872237</v>
+        <v>3.161311937266906</v>
       </c>
       <c r="K268" t="n">
-        <v>2.695460039095372</v>
+        <v>2.8309998024299188</v>
       </c>
       <c r="L268" t="n">
-        <v>2.769904037002254</v>
+        <v>3.134504929705963</v>
       </c>
     </row>
     <row r="269">
@@ -10287,37 +10287,37 @@
         <v>268.0</v>
       </c>
       <c r="B269" t="n">
-        <v>1.5484654654407757</v>
+        <v>1.5647651019190998</v>
       </c>
       <c r="C269" t="n">
-        <v>1.461443299342865</v>
+        <v>1.464692914462797</v>
       </c>
       <c r="D269" t="n">
-        <v>1.4892455679560554</v>
+        <v>1.5249829377892508</v>
       </c>
       <c r="E269" t="n">
-        <v>1.5484654654407757</v>
+        <v>1.3781574463648965</v>
       </c>
       <c r="F269" t="n">
-        <v>1.461443299342865</v>
+        <v>1.4066285949345954</v>
       </c>
       <c r="G269" t="n">
-        <v>1.4892455679560554</v>
+        <v>1.3464841327213584</v>
       </c>
       <c r="H269" t="n">
-        <v>1.5484654654407757</v>
+        <v>1.3819373634149337</v>
       </c>
       <c r="I269" t="n">
-        <v>1.461443299342865</v>
+        <v>1.5465143117374454</v>
       </c>
       <c r="J269" t="n">
-        <v>1.4892455679560554</v>
+        <v>1.4728707724941328</v>
       </c>
       <c r="K269" t="n">
-        <v>1.5484654654407757</v>
+        <v>1.5203812984419365</v>
       </c>
       <c r="L269" t="n">
-        <v>1.461443299342865</v>
+        <v>1.4105665244692451</v>
       </c>
     </row>
     <row r="270">
@@ -10401,37 +10401,37 @@
         <v>271.0</v>
       </c>
       <c r="B272" t="n">
-        <v>3.8223340572703166</v>
+        <v>3.7848601939637447</v>
       </c>
       <c r="C272" t="n">
-        <v>3.607522815665522</v>
+        <v>3.5428051798522264</v>
       </c>
       <c r="D272" t="n">
-        <v>3.676151765139268</v>
+        <v>3.6886349335331965</v>
       </c>
       <c r="E272" t="n">
-        <v>3.8223340572703166</v>
+        <v>3.333492837591991</v>
       </c>
       <c r="F272" t="n">
-        <v>3.607522815665522</v>
+        <v>3.4023589675725994</v>
       </c>
       <c r="G272" t="n">
-        <v>3.676151765139268</v>
+        <v>3.256881297704419</v>
       </c>
       <c r="H272" t="n">
-        <v>3.8223340572703166</v>
+        <v>3.342635716329269</v>
       </c>
       <c r="I272" t="n">
-        <v>3.607522815665522</v>
+        <v>3.740715108428408</v>
       </c>
       <c r="J272" t="n">
-        <v>3.676151765139268</v>
+        <v>3.56258581612583</v>
       </c>
       <c r="K272" t="n">
-        <v>3.8223340572703166</v>
+        <v>3.677504469560511</v>
       </c>
       <c r="L272" t="n">
-        <v>3.607522815665522</v>
+        <v>3.411884047550451</v>
       </c>
     </row>
     <row r="273">
@@ -10477,37 +10477,37 @@
         <v>273.0</v>
       </c>
       <c r="B274" t="n">
-        <v>0.9830395919597474</v>
+        <v>0.993387377138271</v>
       </c>
       <c r="C274" t="n">
-        <v>1.0541426853436848</v>
+        <v>1.0655899724261146</v>
       </c>
       <c r="D274" t="n">
-        <v>1.0979231676049799</v>
+        <v>1.1113638943182513</v>
       </c>
       <c r="E274" t="n">
-        <v>0.9830395919597474</v>
+        <v>1.070778481395351</v>
       </c>
       <c r="F274" t="n">
-        <v>1.0541426853436848</v>
+        <v>1.079980998000733</v>
       </c>
       <c r="G274" t="n">
-        <v>1.0979231676049799</v>
+        <v>0.9746753710818179</v>
       </c>
       <c r="H274" t="n">
-        <v>0.9830395919597474</v>
+        <v>0.9850442580975927</v>
       </c>
       <c r="I274" t="n">
-        <v>1.0541426853436848</v>
+        <v>1.0701271568068047</v>
       </c>
       <c r="J274" t="n">
-        <v>1.0979231676049799</v>
+        <v>0.9402934498645898</v>
       </c>
       <c r="K274" t="n">
-        <v>0.9830395919597474</v>
+        <v>1.0285533310178483</v>
       </c>
       <c r="L274" t="n">
-        <v>1.0541426853436848</v>
+        <v>0.9650515883287478</v>
       </c>
     </row>
     <row r="275">
@@ -10518,34 +10518,34 @@
         <v>5.044807253872187</v>
       </c>
       <c r="C275" t="n">
-        <v>4.960132173255069</v>
+        <v>4.960204899653972</v>
       </c>
       <c r="D275" t="n">
-        <v>4.4121159572399655</v>
+        <v>4.368670613608298</v>
       </c>
       <c r="E275" t="n">
-        <v>5.044807253872187</v>
+        <v>4.458922326444298</v>
       </c>
       <c r="F275" t="n">
-        <v>4.960132173255069</v>
+        <v>4.878393332607424</v>
       </c>
       <c r="G275" t="n">
-        <v>4.4121159572399655</v>
+        <v>4.805011963371655</v>
       </c>
       <c r="H275" t="n">
-        <v>5.044807253872187</v>
+        <v>4.834097993771611</v>
       </c>
       <c r="I275" t="n">
-        <v>4.960132173255069</v>
+        <v>4.642982491043847</v>
       </c>
       <c r="J275" t="n">
-        <v>4.4121159572399655</v>
+        <v>4.284297146340129</v>
       </c>
       <c r="K275" t="n">
-        <v>5.044807253872187</v>
+        <v>4.83702597324917</v>
       </c>
       <c r="L275" t="n">
-        <v>4.960132173255069</v>
+        <v>4.860578139932469</v>
       </c>
     </row>
     <row r="276">
@@ -10708,34 +10708,34 @@
         <v>0.3037723092539625</v>
       </c>
       <c r="C280" t="n">
-        <v>0.3323132533418928</v>
+        <v>0.33659239932260737</v>
       </c>
       <c r="D280" t="n">
-        <v>0.3281075421112785</v>
+        <v>0.330904657812616</v>
       </c>
       <c r="E280" t="n">
-        <v>0.3037723092539625</v>
+        <v>0.29305666390719154</v>
       </c>
       <c r="F280" t="n">
-        <v>0.3323132533418928</v>
+        <v>0.3299091565523221</v>
       </c>
       <c r="G280" t="n">
-        <v>0.3281075421112785</v>
+        <v>0.3187843129598879</v>
       </c>
       <c r="H280" t="n">
-        <v>0.3037723092539625</v>
+        <v>0.29995022871474825</v>
       </c>
       <c r="I280" t="n">
-        <v>0.3323132533418928</v>
+        <v>0.3337242959488018</v>
       </c>
       <c r="J280" t="n">
-        <v>0.3281075421112785</v>
+        <v>0.33210721871679955</v>
       </c>
       <c r="K280" t="n">
-        <v>0.3037723092539625</v>
+        <v>0.3405646077982439</v>
       </c>
       <c r="L280" t="n">
-        <v>0.3323132533418928</v>
+        <v>0.3463733532363899</v>
       </c>
     </row>
     <row r="281">
@@ -10781,37 +10781,37 @@
         <v>281.0</v>
       </c>
       <c r="B282" t="n">
-        <v>6.810091244869118</v>
+        <v>6.742664598880315</v>
       </c>
       <c r="C282" t="n">
-        <v>6.695786575503085</v>
+        <v>6.62958886177832</v>
       </c>
       <c r="D282" t="n">
-        <v>5.956007978042064</v>
+        <v>5.838970491476326</v>
       </c>
       <c r="E282" t="n">
-        <v>6.810091244869118</v>
+        <v>5.959596909593791</v>
       </c>
       <c r="F282" t="n">
-        <v>6.695786575503085</v>
+        <v>6.520243166463544</v>
       </c>
       <c r="G282" t="n">
-        <v>5.956007978042064</v>
+        <v>6.422164897926404</v>
       </c>
       <c r="H282" t="n">
-        <v>6.810091244869118</v>
+        <v>6.461039990200584</v>
       </c>
       <c r="I282" t="n">
-        <v>6.695786575503085</v>
+        <v>6.205603524605074</v>
       </c>
       <c r="J282" t="n">
-        <v>5.956007978042064</v>
+        <v>5.726200674473464</v>
       </c>
       <c r="K282" t="n">
-        <v>6.810091244869118</v>
+        <v>6.464953397111113</v>
       </c>
       <c r="L282" t="n">
-        <v>6.695786575503085</v>
+        <v>6.496432173708676</v>
       </c>
     </row>
     <row r="283">
@@ -10857,37 +10857,37 @@
         <v>283.0</v>
       </c>
       <c r="B284" t="n">
-        <v>1.8656378865832655</v>
+        <v>1.8469815077174325</v>
       </c>
       <c r="C284" t="n">
-        <v>2.147477059894303</v>
+        <v>2.132837774236492</v>
       </c>
       <c r="D284" t="n">
-        <v>2.122425674972976</v>
+        <v>2.097069688800236</v>
       </c>
       <c r="E284" t="n">
-        <v>1.8656378865832655</v>
+        <v>2.043754357029822</v>
       </c>
       <c r="F284" t="n">
-        <v>2.147477059894303</v>
+        <v>1.8045335096733397</v>
       </c>
       <c r="G284" t="n">
-        <v>2.122425674972976</v>
+        <v>1.852047283700096</v>
       </c>
       <c r="H284" t="n">
-        <v>1.8656378865832655</v>
+        <v>2.072610312220543</v>
       </c>
       <c r="I284" t="n">
-        <v>2.147477059894303</v>
+        <v>1.8904155638906146</v>
       </c>
       <c r="J284" t="n">
-        <v>2.122425674972976</v>
+        <v>1.9064269887136482</v>
       </c>
       <c r="K284" t="n">
-        <v>1.8656378865832655</v>
+        <v>1.870516452522055</v>
       </c>
       <c r="L284" t="n">
-        <v>2.147477059894303</v>
+        <v>2.0375873237912816</v>
       </c>
     </row>
     <row r="285">
@@ -11430,34 +11430,34 @@
         <v>3.501925997189143</v>
       </c>
       <c r="C299" t="n">
-        <v>4.030956810264973</v>
+        <v>4.0439170712739365</v>
       </c>
       <c r="D299" t="n">
-        <v>3.9839336999644788</v>
+        <v>3.976099831233615</v>
       </c>
       <c r="E299" t="n">
-        <v>3.501925997189143</v>
+        <v>3.87501254606295</v>
       </c>
       <c r="F299" t="n">
-        <v>4.030956810264973</v>
+        <v>3.421443465416018</v>
       </c>
       <c r="G299" t="n">
-        <v>3.9839336999644788</v>
+        <v>3.5115308430067658</v>
       </c>
       <c r="H299" t="n">
-        <v>3.501925997189143</v>
+        <v>3.9297242035613484</v>
       </c>
       <c r="I299" t="n">
-        <v>4.030956810264973</v>
+        <v>3.5842781213661814</v>
       </c>
       <c r="J299" t="n">
-        <v>3.9839336999644788</v>
+        <v>3.614636208117746</v>
       </c>
       <c r="K299" t="n">
-        <v>3.501925997189143</v>
+        <v>3.546548877661603</v>
       </c>
       <c r="L299" t="n">
-        <v>4.030956810264973</v>
+        <v>3.8633196872371656</v>
       </c>
     </row>
     <row r="300">
@@ -11541,37 +11541,37 @@
         <v>301.0</v>
       </c>
       <c r="B302" t="n">
-        <v>2.0294687116298418</v>
+        <v>1.908906213909257</v>
       </c>
       <c r="C302" t="n">
-        <v>2.336057566873291</v>
+        <v>2.204346531618499</v>
       </c>
       <c r="D302" t="n">
-        <v>2.3088062968136227</v>
+        <v>2.167379231045313</v>
       </c>
       <c r="E302" t="n">
-        <v>2.0294687116298418</v>
+        <v>2.1122763685164117</v>
       </c>
       <c r="F302" t="n">
-        <v>2.336057566873291</v>
+        <v>1.865035039836423</v>
       </c>
       <c r="G302" t="n">
-        <v>2.3088062968136227</v>
+        <v>1.914141832788587</v>
       </c>
       <c r="H302" t="n">
-        <v>2.0294687116298418</v>
+        <v>2.1420997922711673</v>
       </c>
       <c r="I302" t="n">
-        <v>2.336057566873291</v>
+        <v>1.9537965061930904</v>
       </c>
       <c r="J302" t="n">
-        <v>2.3088062968136227</v>
+        <v>1.9703447543539518</v>
       </c>
       <c r="K302" t="n">
-        <v>2.0294687116298418</v>
+        <v>1.9332302270051305</v>
       </c>
       <c r="L302" t="n">
-        <v>2.336057566873291</v>
+        <v>2.1059025699584697</v>
       </c>
     </row>
     <row r="303">
@@ -11658,34 +11658,34 @@
         <v>2.334119174803286</v>
       </c>
       <c r="C305" t="n">
-        <v>2.6867311277266803</v>
+        <v>2.695369458107093</v>
       </c>
       <c r="D305" t="n">
-        <v>2.655389076666957</v>
+        <v>2.6501676118980617</v>
       </c>
       <c r="E305" t="n">
-        <v>2.334119174803286</v>
+        <v>2.5827904683390477</v>
       </c>
       <c r="F305" t="n">
-        <v>2.6867311277266803</v>
+        <v>2.280475602437922</v>
       </c>
       <c r="G305" t="n">
-        <v>2.655389076666957</v>
+        <v>2.3405210390379776</v>
       </c>
       <c r="H305" t="n">
-        <v>2.334119174803286</v>
+        <v>2.6192571238179996</v>
       </c>
       <c r="I305" t="n">
-        <v>2.6867311277266803</v>
+        <v>2.3890088761509713</v>
       </c>
       <c r="J305" t="n">
-        <v>2.655389076666957</v>
+        <v>2.4092432821475698</v>
       </c>
       <c r="K305" t="n">
-        <v>2.334119174803286</v>
+        <v>2.3638614140822782</v>
       </c>
       <c r="L305" t="n">
-        <v>2.6867311277266803</v>
+        <v>2.5749968924566797</v>
       </c>
     </row>
     <row r="306">
@@ -11848,34 +11848,34 @@
         <v>2.508936080213741</v>
       </c>
       <c r="C310" t="n">
-        <v>2.8879573660821847</v>
+        <v>2.897242675503479</v>
       </c>
       <c r="D310" t="n">
-        <v>2.854267911156102</v>
+        <v>2.848655377960855</v>
       </c>
       <c r="E310" t="n">
-        <v>2.508936080213741</v>
+        <v>2.7762319351984694</v>
       </c>
       <c r="F310" t="n">
-        <v>2.8879573660821847</v>
+        <v>2.4512748024041526</v>
       </c>
       <c r="G310" t="n">
-        <v>2.854267911156102</v>
+        <v>2.515817420435112</v>
       </c>
       <c r="H310" t="n">
-        <v>2.508936080213741</v>
+        <v>2.8154298084876848</v>
       </c>
       <c r="I310" t="n">
-        <v>2.8879573660821847</v>
+        <v>2.5679368174640014</v>
       </c>
       <c r="J310" t="n">
-        <v>2.854267911156102</v>
+        <v>2.5896867057364537</v>
       </c>
       <c r="K310" t="n">
-        <v>2.508936080213741</v>
+        <v>2.540905903365424</v>
       </c>
       <c r="L310" t="n">
-        <v>2.8879573660821847</v>
+        <v>2.767854649267127</v>
       </c>
     </row>
     <row r="311">
@@ -11924,34 +11924,34 @@
         <v>1.224251434231457</v>
       </c>
       <c r="C312" t="n">
-        <v>1.1908584024255833</v>
+        <v>1.1757188539491619</v>
       </c>
       <c r="D312" t="n">
-        <v>1.302151713405051</v>
+        <v>1.2816265774176052</v>
       </c>
       <c r="E312" t="n">
-        <v>1.224251434231457</v>
+        <v>1.275416393791691</v>
       </c>
       <c r="F312" t="n">
-        <v>1.1908584024255833</v>
+        <v>1.1296740696735719</v>
       </c>
       <c r="G312" t="n">
-        <v>1.302151713405051</v>
+        <v>1.2746443505884877</v>
       </c>
       <c r="H312" t="n">
-        <v>1.224251434231457</v>
+        <v>1.2863240483267666</v>
       </c>
       <c r="I312" t="n">
-        <v>1.1908584024255833</v>
+        <v>1.2669750099218078</v>
       </c>
       <c r="J312" t="n">
-        <v>1.302151713405051</v>
+        <v>1.1519214803655977</v>
       </c>
       <c r="K312" t="n">
-        <v>1.224251434231457</v>
+        <v>1.3302037058911573</v>
       </c>
       <c r="L312" t="n">
-        <v>1.1908584024255833</v>
+        <v>1.307895942790435</v>
       </c>
     </row>
     <row r="313">
@@ -11997,37 +11997,37 @@
         <v>313.0</v>
       </c>
       <c r="B314" t="n">
-        <v>2.5030997220569753</v>
+        <v>2.478068724836406</v>
       </c>
       <c r="C314" t="n">
-        <v>2.4715147438869685</v>
+        <v>2.4660683913823855</v>
       </c>
       <c r="D314" t="n">
-        <v>2.3172401572572707</v>
+        <v>2.27467614910601</v>
       </c>
       <c r="E314" t="n">
-        <v>2.5030997220569753</v>
+        <v>2.368572663950436</v>
       </c>
       <c r="F314" t="n">
-        <v>2.4715147438869685</v>
+        <v>2.479576982133052</v>
       </c>
       <c r="G314" t="n">
-        <v>2.3172401572572707</v>
+        <v>2.2286351096856793</v>
       </c>
       <c r="H314" t="n">
-        <v>2.5030997220569753</v>
+        <v>2.530400611153729</v>
       </c>
       <c r="I314" t="n">
-        <v>2.4715147438869685</v>
+        <v>2.4675620718269133</v>
       </c>
       <c r="J314" t="n">
-        <v>2.3172401572572707</v>
+        <v>2.5735596848512188</v>
       </c>
       <c r="K314" t="n">
-        <v>2.5030997220569753</v>
+        <v>2.4512304339614697</v>
       </c>
       <c r="L314" t="n">
-        <v>2.4715147438869685</v>
+        <v>2.488665230571272</v>
       </c>
     </row>
     <row r="315">
@@ -12035,37 +12035,37 @@
         <v>314.0</v>
       </c>
       <c r="B315" t="n">
-        <v>4.736873185719089</v>
+        <v>4.7847203896152415</v>
       </c>
       <c r="C315" t="n">
-        <v>4.607668879701341</v>
+        <v>4.595041358050036</v>
       </c>
       <c r="D315" t="n">
-        <v>5.038284916397663</v>
+        <v>5.008958654553191</v>
       </c>
       <c r="E315" t="n">
-        <v>4.736873185719089</v>
+        <v>4.984687502903022</v>
       </c>
       <c r="F315" t="n">
-        <v>4.607668879701341</v>
+        <v>4.415085335946492</v>
       </c>
       <c r="G315" t="n">
-        <v>5.038284916397663</v>
+        <v>4.981670140004567</v>
       </c>
       <c r="H315" t="n">
-        <v>4.736873185719089</v>
+        <v>5.02731769764698</v>
       </c>
       <c r="I315" t="n">
-        <v>4.607668879701341</v>
+        <v>4.951696190506355</v>
       </c>
       <c r="J315" t="n">
-        <v>5.038284916397663</v>
+        <v>4.502034500617968</v>
       </c>
       <c r="K315" t="n">
-        <v>4.736873185719089</v>
+        <v>5.198811793032276</v>
       </c>
       <c r="L315" t="n">
-        <v>4.607668879701341</v>
+        <v>5.111626754101333</v>
       </c>
     </row>
     <row r="316">
@@ -12076,34 +12076,34 @@
         <v>2.1608669105856873</v>
       </c>
       <c r="C316" t="n">
-        <v>2.1019264875191253</v>
+        <v>2.0752044037794852</v>
       </c>
       <c r="D316" t="n">
-        <v>2.298364920295825</v>
+        <v>2.262136996888583</v>
       </c>
       <c r="E316" t="n">
-        <v>2.1608669105856873</v>
+        <v>2.2511757025574695</v>
       </c>
       <c r="F316" t="n">
-        <v>2.1019264875191253</v>
+        <v>1.9939329852096233</v>
       </c>
       <c r="G316" t="n">
-        <v>2.298364920295825</v>
+        <v>2.249813006493003</v>
       </c>
       <c r="H316" t="n">
-        <v>2.1608669105856873</v>
+        <v>2.270428275270804</v>
       </c>
       <c r="I316" t="n">
-        <v>2.1019264875191253</v>
+        <v>2.23627622474274</v>
       </c>
       <c r="J316" t="n">
-        <v>2.298364920295825</v>
+        <v>2.0332008122804472</v>
       </c>
       <c r="K316" t="n">
-        <v>2.1608669105856873</v>
+        <v>2.347878133549505</v>
       </c>
       <c r="L316" t="n">
-        <v>2.1019264875191253</v>
+        <v>2.308503781365228</v>
       </c>
     </row>
     <row r="317">
@@ -12187,37 +12187,37 @@
         <v>318.0</v>
       </c>
       <c r="B319" t="n">
-        <v>3.213773456854264</v>
+        <v>3.246235815004307</v>
       </c>
       <c r="C319" t="n">
-        <v>3.126113654087541</v>
+        <v>3.117546400475778</v>
       </c>
       <c r="D319" t="n">
-        <v>3.4182689081067243</v>
+        <v>3.398372246699646</v>
       </c>
       <c r="E319" t="n">
-        <v>3.213773456854264</v>
+        <v>3.381905269459099</v>
       </c>
       <c r="F319" t="n">
-        <v>3.126113654087541</v>
+        <v>2.995453647606429</v>
       </c>
       <c r="G319" t="n">
-        <v>3.4182689081067243</v>
+        <v>3.379858112946236</v>
       </c>
       <c r="H319" t="n">
-        <v>3.213773456854264</v>
+        <v>3.4108281016644666</v>
       </c>
       <c r="I319" t="n">
-        <v>3.126113654087541</v>
+        <v>3.359522022129014</v>
       </c>
       <c r="J319" t="n">
-        <v>3.4182689081067243</v>
+        <v>3.0544450764585434</v>
       </c>
       <c r="K319" t="n">
-        <v>3.213773456854264</v>
+        <v>3.5271797856019016</v>
       </c>
       <c r="L319" t="n">
-        <v>3.126113654087541</v>
+        <v>3.468028325774814</v>
       </c>
     </row>
     <row r="320">
@@ -12339,37 +12339,37 @@
         <v>322.0</v>
       </c>
       <c r="B323" t="n">
-        <v>1.2047695835050394</v>
+        <v>1.2169389732374134</v>
       </c>
       <c r="C323" t="n">
-        <v>1.2534256727856001</v>
+        <v>1.2561938839496296</v>
       </c>
       <c r="D323" t="n">
-        <v>1.256418721078852</v>
+        <v>1.2524147210846768</v>
       </c>
       <c r="E323" t="n">
-        <v>1.2047695835050394</v>
+        <v>1.2715413971023033</v>
       </c>
       <c r="F323" t="n">
-        <v>1.2534256727856001</v>
+        <v>1.2661272917654351</v>
       </c>
       <c r="G323" t="n">
-        <v>1.256418721078852</v>
+        <v>1.2777859224103987</v>
       </c>
       <c r="H323" t="n">
-        <v>1.2047695835050394</v>
+        <v>1.112513771442176</v>
       </c>
       <c r="I323" t="n">
-        <v>1.2534256727856001</v>
+        <v>1.1753321663596628</v>
       </c>
       <c r="J323" t="n">
-        <v>1.256418721078852</v>
+        <v>1.1654609555893731</v>
       </c>
       <c r="K323" t="n">
-        <v>1.2047695835050394</v>
+        <v>1.1418065097895658</v>
       </c>
       <c r="L323" t="n">
-        <v>1.2534256727856001</v>
+        <v>1.1531929454259089</v>
       </c>
     </row>
     <row r="324">
@@ -12491,37 +12491,37 @@
         <v>326.0</v>
       </c>
       <c r="B327" t="n">
-        <v>1.525442651838355</v>
+        <v>1.540851163473086</v>
       </c>
       <c r="C327" t="n">
-        <v>1.4828694991211249</v>
+        <v>1.5102566449423893</v>
       </c>
       <c r="D327" t="n">
-        <v>1.357056647174343</v>
+        <v>1.390607503576615</v>
       </c>
       <c r="E327" t="n">
-        <v>1.525442651838355</v>
+        <v>1.5148138461098837</v>
       </c>
       <c r="F327" t="n">
-        <v>1.4828694991211249</v>
+        <v>1.417304655060184</v>
       </c>
       <c r="G327" t="n">
-        <v>1.357056647174343</v>
+        <v>1.4014776912374594</v>
       </c>
       <c r="H327" t="n">
-        <v>1.525442651838355</v>
+        <v>1.526792302533448</v>
       </c>
       <c r="I327" t="n">
-        <v>1.4828694991211249</v>
+        <v>1.3415534707667065</v>
       </c>
       <c r="J327" t="n">
-        <v>1.357056647174343</v>
+        <v>1.3768768760197123</v>
       </c>
       <c r="K327" t="n">
-        <v>1.525442651838355</v>
+        <v>1.4054012005506862</v>
       </c>
       <c r="L327" t="n">
-        <v>1.4828694991211249</v>
+        <v>1.467477297958805</v>
       </c>
     </row>
     <row r="328">
@@ -12570,34 +12570,34 @@
         <v>3.7283356473238825</v>
       </c>
       <c r="C329" t="n">
-        <v>3.36592030668296</v>
+        <v>3.3510150256237656</v>
       </c>
       <c r="D329" t="n">
-        <v>3.7478978422090323</v>
+        <v>3.710269816451698</v>
       </c>
       <c r="E329" t="n">
-        <v>3.7283356473238825</v>
+        <v>3.726067805072989</v>
       </c>
       <c r="F329" t="n">
-        <v>3.36592030668296</v>
+        <v>3.8696496953654775</v>
       </c>
       <c r="G329" t="n">
-        <v>3.7478978422090323</v>
+        <v>3.804754951571959</v>
       </c>
       <c r="H329" t="n">
-        <v>3.7283356473238825</v>
+        <v>3.286295850939619</v>
       </c>
       <c r="I329" t="n">
-        <v>3.36592030668296</v>
+        <v>3.7420008978356054</v>
       </c>
       <c r="J329" t="n">
-        <v>3.7478978422090323</v>
+        <v>3.7080238922125353</v>
       </c>
       <c r="K329" t="n">
-        <v>3.7283356473238825</v>
+        <v>3.561427598302106</v>
       </c>
       <c r="L329" t="n">
-        <v>3.36592030668296</v>
+        <v>3.685713277948692</v>
       </c>
     </row>
     <row r="330">
@@ -12643,37 +12643,37 @@
         <v>330.0</v>
       </c>
       <c r="B331" t="n">
-        <v>4.338514764773357</v>
+        <v>4.2955591730429274</v>
       </c>
       <c r="C331" t="n">
-        <v>4.409151084135418</v>
+        <v>4.344069156509088</v>
       </c>
       <c r="D331" t="n">
-        <v>4.583001559384908</v>
+        <v>4.4728758586798065</v>
       </c>
       <c r="E331" t="n">
-        <v>4.338514764773357</v>
+        <v>4.8599788220318265</v>
       </c>
       <c r="F331" t="n">
-        <v>4.409151084135418</v>
+        <v>4.208614044921652</v>
       </c>
       <c r="G331" t="n">
-        <v>4.583001559384908</v>
+        <v>4.1273317989547795</v>
       </c>
       <c r="H331" t="n">
-        <v>4.338514764773357</v>
+        <v>4.6598100994969025</v>
       </c>
       <c r="I331" t="n">
-        <v>4.409151084135418</v>
+        <v>4.778476074929057</v>
       </c>
       <c r="J331" t="n">
-        <v>4.583001559384908</v>
+        <v>4.682499376912991</v>
       </c>
       <c r="K331" t="n">
-        <v>4.338514764773357</v>
+        <v>4.6996618679168325</v>
       </c>
       <c r="L331" t="n">
-        <v>4.409151084135418</v>
+        <v>4.656989393464703</v>
       </c>
     </row>
     <row r="332">
@@ -12722,34 +12722,34 @@
         <v>2.915657160728968</v>
       </c>
       <c r="C333" t="n">
-        <v>2.963127620441992</v>
+        <v>2.948583835688438</v>
       </c>
       <c r="D333" t="n">
-        <v>3.079962161878383</v>
+        <v>3.036012775299087</v>
       </c>
       <c r="E333" t="n">
-        <v>2.915657160728968</v>
+        <v>3.2987630905827645</v>
       </c>
       <c r="F333" t="n">
-        <v>2.963127620441992</v>
+        <v>2.8566422164143455</v>
       </c>
       <c r="G333" t="n">
-        <v>3.079962161878383</v>
+        <v>2.8014710144947683</v>
       </c>
       <c r="H333" t="n">
-        <v>2.915657160728968</v>
+        <v>3.1628964092725664</v>
       </c>
       <c r="I333" t="n">
-        <v>2.963127620441992</v>
+        <v>3.243442221136812</v>
       </c>
       <c r="J333" t="n">
-        <v>3.079962161878383</v>
+        <v>3.1782970012572225</v>
       </c>
       <c r="K333" t="n">
-        <v>2.915657160728968</v>
+        <v>3.1899462273010233</v>
       </c>
       <c r="L333" t="n">
-        <v>2.963127620441992</v>
+        <v>3.160981824602727</v>
       </c>
     </row>
     <row r="334">
@@ -13023,37 +13023,37 @@
         <v>340.0</v>
       </c>
       <c r="B341" t="n">
-        <v>1.001573482151323</v>
+        <v>1.0117936197242954</v>
       </c>
       <c r="C341" t="n">
-        <v>0.9766519757005835</v>
+        <v>0.991258039168312</v>
       </c>
       <c r="D341" t="n">
-        <v>1.0807944507454683</v>
+        <v>1.1093084135234446</v>
       </c>
       <c r="E341" t="n">
-        <v>1.001573482151323</v>
+        <v>0.9694546159273331</v>
       </c>
       <c r="F341" t="n">
-        <v>0.9766519757005835</v>
+        <v>1.0905633095826608</v>
       </c>
       <c r="G341" t="n">
-        <v>1.0807944507454683</v>
+        <v>1.0203633002686618</v>
       </c>
       <c r="H341" t="n">
-        <v>1.001573482151323</v>
+        <v>1.0564842029330677</v>
       </c>
       <c r="I341" t="n">
-        <v>0.9766519757005835</v>
+        <v>1.0089689589167652</v>
       </c>
       <c r="J341" t="n">
-        <v>1.0807944507454683</v>
+        <v>1.0011431604784697</v>
       </c>
       <c r="K341" t="n">
-        <v>1.001573482151323</v>
+        <v>1.0991869864222414</v>
       </c>
       <c r="L341" t="n">
-        <v>0.9766519757005835</v>
+        <v>0.9658275812692277</v>
       </c>
     </row>
     <row r="342">
@@ -13289,37 +13289,37 @@
         <v>347.0</v>
       </c>
       <c r="B348" t="n">
-        <v>1.8326225019050972</v>
+        <v>1.7959700518669952</v>
       </c>
       <c r="C348" t="n">
-        <v>1.7870225391296275</v>
+        <v>1.7595186580676372</v>
       </c>
       <c r="D348" t="n">
-        <v>1.9775765489676302</v>
+        <v>1.9690623167944807</v>
       </c>
       <c r="E348" t="n">
-        <v>1.8326225019050972</v>
+        <v>1.7208167979198639</v>
       </c>
       <c r="F348" t="n">
-        <v>1.7870225391296275</v>
+        <v>1.9357890833598252</v>
       </c>
       <c r="G348" t="n">
-        <v>1.9775765489676302</v>
+        <v>1.8111815429376181</v>
       </c>
       <c r="H348" t="n">
-        <v>1.8326225019050972</v>
+        <v>1.875297443816053</v>
       </c>
       <c r="I348" t="n">
-        <v>1.7870225391296275</v>
+        <v>1.7909561773790448</v>
       </c>
       <c r="J348" t="n">
-        <v>1.9775765489676302</v>
+        <v>1.7770651037913738</v>
       </c>
       <c r="K348" t="n">
-        <v>1.8326225019050972</v>
+        <v>1.9510964197957736</v>
       </c>
       <c r="L348" t="n">
-        <v>1.7870225391296275</v>
+        <v>1.7143786809995218</v>
       </c>
     </row>
     <row r="349">
@@ -13403,37 +13403,37 @@
         <v>350.0</v>
       </c>
       <c r="B351" t="n">
-        <v>2.4294413851498997</v>
+        <v>2.4051469712984006</v>
       </c>
       <c r="C351" t="n">
-        <v>2.3689911633432494</v>
+        <v>2.356331591941159</v>
       </c>
       <c r="D351" t="n">
-        <v>2.6216017239608655</v>
+        <v>2.636950578665208</v>
       </c>
       <c r="E351" t="n">
-        <v>2.4294413851498997</v>
+        <v>2.3045024082522296</v>
       </c>
       <c r="F351" t="n">
-        <v>2.3689911633432494</v>
+        <v>2.5923913631384936</v>
       </c>
       <c r="G351" t="n">
-        <v>2.6216017239608655</v>
+        <v>2.4255180635888363</v>
       </c>
       <c r="H351" t="n">
-        <v>2.4294413851498997</v>
+        <v>2.5113815024861212</v>
       </c>
       <c r="I351" t="n">
-        <v>2.3689911633432494</v>
+        <v>2.398432435592959</v>
       </c>
       <c r="J351" t="n">
-        <v>2.6216017239608655</v>
+        <v>2.3798296345424967</v>
       </c>
       <c r="K351" t="n">
-        <v>2.4294413851498997</v>
+        <v>2.612890810681783</v>
       </c>
       <c r="L351" t="n">
-        <v>2.3689911633432494</v>
+        <v>2.2958805398665465</v>
       </c>
     </row>
     <row r="352">
@@ -13482,34 +13482,34 @@
         <v>1.7140988882060295</v>
       </c>
       <c r="C353" t="n">
-        <v>1.6714480720044305</v>
+        <v>1.6793091691235273</v>
       </c>
       <c r="D353" t="n">
-        <v>1.8496781308774257</v>
+        <v>1.8793005621208232</v>
       </c>
       <c r="E353" t="n">
-        <v>1.7140988882060295</v>
+        <v>1.6423715735428877</v>
       </c>
       <c r="F353" t="n">
-        <v>1.6714480720044305</v>
+        <v>1.8475441236556753</v>
       </c>
       <c r="G353" t="n">
-        <v>1.8496781308774257</v>
+        <v>1.7286169476274578</v>
       </c>
       <c r="H353" t="n">
-        <v>1.7140988882060295</v>
+        <v>1.7898100584467644</v>
       </c>
       <c r="I353" t="n">
-        <v>1.6714480720044305</v>
+        <v>1.7093135764039389</v>
       </c>
       <c r="J353" t="n">
-        <v>1.8496781308774257</v>
+        <v>1.6960557418605051</v>
       </c>
       <c r="K353" t="n">
-        <v>1.7140988882060295</v>
+        <v>1.8621536592317163</v>
       </c>
       <c r="L353" t="n">
-        <v>1.6714480720044305</v>
+        <v>1.6362269448817213</v>
       </c>
     </row>
     <row r="354">
@@ -13593,37 +13593,37 @@
         <v>355.0</v>
       </c>
       <c r="B356" t="n">
-        <v>2.601241249066522</v>
+        <v>2.5497315213622347</v>
       </c>
       <c r="C356" t="n">
-        <v>2.5286439339085853</v>
+        <v>2.4991050818151543</v>
       </c>
       <c r="D356" t="n">
-        <v>2.314103203877033</v>
+        <v>2.301115039378736</v>
       </c>
       <c r="E356" t="n">
-        <v>2.601241249066522</v>
+        <v>2.50664613428109</v>
       </c>
       <c r="F356" t="n">
-        <v>2.5286439339085853</v>
+        <v>2.3452922904214697</v>
       </c>
       <c r="G356" t="n">
-        <v>2.314103203877033</v>
+        <v>2.319102539261272</v>
       </c>
       <c r="H356" t="n">
-        <v>2.601241249066522</v>
+        <v>2.5264675476949496</v>
       </c>
       <c r="I356" t="n">
-        <v>2.5286439339085853</v>
+        <v>2.2199426220354272</v>
       </c>
       <c r="J356" t="n">
-        <v>2.314103203877033</v>
+        <v>2.2783942116181835</v>
       </c>
       <c r="K356" t="n">
-        <v>2.601241249066522</v>
+        <v>2.3255949868171695</v>
       </c>
       <c r="L356" t="n">
-        <v>2.5286439339085853</v>
+        <v>2.4283157336593733</v>
       </c>
     </row>
     <row r="357">
@@ -13821,37 +13821,37 @@
         <v>361.0</v>
       </c>
       <c r="B362" t="n">
-        <v>2.2667788455179814</v>
+        <v>2.290147699595486</v>
       </c>
       <c r="C362" t="n">
-        <v>2.2035159481221833</v>
+        <v>2.2446754515975824</v>
       </c>
       <c r="D362" t="n">
-        <v>2.016560436590131</v>
+        <v>2.0668424380313835</v>
       </c>
       <c r="E362" t="n">
-        <v>2.2667788455179814</v>
+        <v>2.2514487623609702</v>
       </c>
       <c r="F362" t="n">
-        <v>2.2035159481221833</v>
+        <v>2.1065220784179584</v>
       </c>
       <c r="G362" t="n">
-        <v>2.016560436590131</v>
+        <v>2.082998661199325</v>
       </c>
       <c r="H362" t="n">
-        <v>2.2667788455179814</v>
+        <v>2.2692521914483703</v>
       </c>
       <c r="I362" t="n">
-        <v>2.2035159481221833</v>
+        <v>1.9939340461901647</v>
       </c>
       <c r="J362" t="n">
-        <v>2.016560436590131</v>
+        <v>2.0464347790316877</v>
       </c>
       <c r="K362" t="n">
-        <v>2.2667788455179814</v>
+        <v>2.0888301237318743</v>
       </c>
       <c r="L362" t="n">
-        <v>2.2035159481221833</v>
+        <v>2.181093046361359</v>
       </c>
     </row>
     <row r="363">
@@ -13897,37 +13897,37 @@
         <v>363.0</v>
       </c>
       <c r="B364" t="n">
-        <v>5.741853824220496</v>
+        <v>5.685003786356927</v>
       </c>
       <c r="C364" t="n">
-        <v>5.669401126433313</v>
+        <v>5.657473500195007</v>
       </c>
       <c r="D364" t="n">
-        <v>5.315511060682428</v>
+        <v>5.218395434637173</v>
       </c>
       <c r="E364" t="n">
-        <v>5.741853824220496</v>
+        <v>5.43380594245169</v>
       </c>
       <c r="F364" t="n">
-        <v>5.669401126433313</v>
+        <v>5.688463919789183</v>
       </c>
       <c r="G364" t="n">
-        <v>5.315511060682428</v>
+        <v>5.11277145382943</v>
       </c>
       <c r="H364" t="n">
-        <v>5.741853824220496</v>
+        <v>5.805059767403548</v>
       </c>
       <c r="I364" t="n">
-        <v>5.669401126433313</v>
+        <v>5.660900192480673</v>
       </c>
       <c r="J364" t="n">
-        <v>5.315511060682428</v>
+        <v>5.904072153511638</v>
       </c>
       <c r="K364" t="n">
-        <v>5.741853824220496</v>
+        <v>5.623433344942542</v>
       </c>
       <c r="L364" t="n">
-        <v>5.669401126433313</v>
+        <v>5.70931351377534</v>
       </c>
     </row>
     <row r="365">
@@ -13973,37 +13973,37 @@
         <v>365.0</v>
       </c>
       <c r="B366" t="n">
-        <v>10.009897342286362</v>
+        <v>9.913648329379761</v>
       </c>
       <c r="C366" t="n">
-        <v>9.84188520192627</v>
+        <v>9.74739460642271</v>
       </c>
       <c r="D366" t="n">
-        <v>8.754512426681211</v>
+        <v>8.584959137331918</v>
       </c>
       <c r="E366" t="n">
-        <v>10.009897342286362</v>
+        <v>8.762314524198981</v>
       </c>
       <c r="F366" t="n">
-        <v>9.84188520192627</v>
+        <v>9.586625113326136</v>
       </c>
       <c r="G366" t="n">
-        <v>8.754512426681211</v>
+        <v>9.442421965034711</v>
       </c>
       <c r="H366" t="n">
-        <v>10.009897342286362</v>
+        <v>9.499579486060213</v>
       </c>
       <c r="I366" t="n">
-        <v>9.84188520192627</v>
+        <v>9.124014714406865</v>
       </c>
       <c r="J366" t="n">
-        <v>8.754512426681211</v>
+        <v>8.419155204548352</v>
       </c>
       <c r="K366" t="n">
-        <v>10.009897342286362</v>
+        <v>9.505333315175069</v>
       </c>
       <c r="L366" t="n">
-        <v>9.84188520192627</v>
+        <v>9.551616133555086</v>
       </c>
     </row>
     <row r="367">
@@ -14546,34 +14546,34 @@
         <v>3.368989342455207</v>
       </c>
       <c r="C381" t="n">
-        <v>3.0415044978334707</v>
+        <v>3.028035825003338</v>
       </c>
       <c r="D381" t="n">
-        <v>3.3866660841215337</v>
+        <v>3.352664741499637</v>
       </c>
       <c r="E381" t="n">
-        <v>3.368989342455207</v>
+        <v>3.366940080506618</v>
       </c>
       <c r="F381" t="n">
-        <v>3.0415044978334707</v>
+        <v>3.496683189475944</v>
       </c>
       <c r="G381" t="n">
-        <v>3.3866660841215337</v>
+        <v>3.4380431632275954</v>
       </c>
       <c r="H381" t="n">
-        <v>3.368989342455207</v>
+        <v>2.9695544460749446</v>
       </c>
       <c r="I381" t="n">
-        <v>3.0415044978334707</v>
+        <v>3.381337501980227</v>
       </c>
       <c r="J381" t="n">
-        <v>3.3866660841215337</v>
+        <v>3.3506352850500463</v>
       </c>
       <c r="K381" t="n">
-        <v>3.368989342455207</v>
+        <v>3.21816830821491</v>
       </c>
       <c r="L381" t="n">
-        <v>3.0415044978334707</v>
+        <v>3.330475023531621</v>
       </c>
     </row>
     <row r="382">
@@ -14771,37 +14771,37 @@
         <v>386.0</v>
       </c>
       <c r="B387" t="n">
-        <v>3.1106841354971646</v>
+        <v>3.142105187370873</v>
       </c>
       <c r="C387" t="n">
-        <v>2.808308019923527</v>
+        <v>2.824113140813336</v>
       </c>
       <c r="D387" t="n">
-        <v>3.1270055762259297</v>
+        <v>3.126879964572491</v>
       </c>
       <c r="E387" t="n">
-        <v>3.1106841354971646</v>
+        <v>3.1401939327053268</v>
       </c>
       <c r="F387" t="n">
-        <v>2.808308019923527</v>
+        <v>3.26119950864492</v>
       </c>
       <c r="G387" t="n">
-        <v>3.1270055762259297</v>
+        <v>3.2065085874417614</v>
       </c>
       <c r="H387" t="n">
-        <v>3.1106841354971646</v>
+        <v>2.7695701828467216</v>
       </c>
       <c r="I387" t="n">
-        <v>2.808308019923527</v>
+        <v>3.153621761676737</v>
       </c>
       <c r="J387" t="n">
-        <v>3.1270055762259297</v>
+        <v>3.1249871816071537</v>
       </c>
       <c r="K387" t="n">
-        <v>3.1106841354971646</v>
+        <v>3.001441176333748</v>
       </c>
       <c r="L387" t="n">
-        <v>2.808308019923527</v>
+        <v>3.1061846103144726</v>
       </c>
     </row>
     <row r="388">
@@ -14847,37 +14847,37 @@
         <v>388.0</v>
       </c>
       <c r="B389" t="n">
-        <v>0.9522659289175293</v>
+        <v>0.9046526324716527</v>
       </c>
       <c r="C389" t="n">
-        <v>0.8597002873940502</v>
+        <v>0.8130986185641709</v>
       </c>
       <c r="D389" t="n">
-        <v>0.9572623706132614</v>
+        <v>0.9002690943457224</v>
       </c>
       <c r="E389" t="n">
-        <v>0.9522659289175293</v>
+        <v>0.9041023575886031</v>
       </c>
       <c r="F389" t="n">
-        <v>0.8597002873940502</v>
+        <v>0.9389414244847365</v>
       </c>
       <c r="G389" t="n">
-        <v>0.9572623706132614</v>
+        <v>0.9231952024812217</v>
       </c>
       <c r="H389" t="n">
-        <v>0.9522659289175293</v>
+        <v>0.7973949970859302</v>
       </c>
       <c r="I389" t="n">
-        <v>0.8597002873940502</v>
+        <v>0.9079684028362893</v>
       </c>
       <c r="J389" t="n">
-        <v>0.9572623706132614</v>
+        <v>0.8997241377035411</v>
       </c>
       <c r="K389" t="n">
-        <v>0.9522659289175293</v>
+        <v>0.8641536484178332</v>
       </c>
       <c r="L389" t="n">
-        <v>0.8597002873940502</v>
+        <v>0.8943106347802374</v>
       </c>
     </row>
     <row r="390">
@@ -15037,37 +15037,37 @@
         <v>393.0</v>
       </c>
       <c r="B394" t="n">
-        <v>1.6902453290466375</v>
+        <v>1.7078520512242068</v>
       </c>
       <c r="C394" t="n">
-        <v>1.6618752343537477</v>
+        <v>1.679211055261661</v>
       </c>
       <c r="D394" t="n">
-        <v>1.478264284966065</v>
+        <v>1.4789550310067956</v>
       </c>
       <c r="E394" t="n">
-        <v>1.6902453290466375</v>
+        <v>1.5095085418025054</v>
       </c>
       <c r="F394" t="n">
-        <v>1.6618752343537477</v>
+        <v>1.6515148429857476</v>
       </c>
       <c r="G394" t="n">
-        <v>1.478264284966065</v>
+        <v>1.6266725614744457</v>
       </c>
       <c r="H394" t="n">
-        <v>1.6902453290466375</v>
+        <v>1.6365192482120619</v>
       </c>
       <c r="I394" t="n">
-        <v>1.6618752343537477</v>
+        <v>1.57181964980742</v>
       </c>
       <c r="J394" t="n">
-        <v>1.478264284966065</v>
+        <v>1.4503915216611731</v>
       </c>
       <c r="K394" t="n">
-        <v>1.6902453290466375</v>
+        <v>1.6375104765197153</v>
       </c>
       <c r="L394" t="n">
-        <v>1.6618752343537477</v>
+        <v>1.6454837476788804</v>
       </c>
     </row>
     <row r="395">
@@ -15078,34 +15078,34 @@
         <v>5.820086804474853</v>
       </c>
       <c r="C395" t="n">
-        <v>5.875931748425884</v>
+        <v>5.848425634013571</v>
       </c>
       <c r="D395" t="n">
-        <v>5.852364834352451</v>
+        <v>5.844868200346476</v>
       </c>
       <c r="E395" t="n">
-        <v>5.820086804474853</v>
+        <v>5.425727451480141</v>
       </c>
       <c r="F395" t="n">
-        <v>5.875931748425884</v>
+        <v>5.968300200086702</v>
       </c>
       <c r="G395" t="n">
-        <v>5.852364834352451</v>
+        <v>5.869861526311879</v>
       </c>
       <c r="H395" t="n">
-        <v>5.820086804474853</v>
+        <v>5.781566375294421</v>
       </c>
       <c r="I395" t="n">
-        <v>5.875931748425884</v>
+        <v>6.070096851197547</v>
       </c>
       <c r="J395" t="n">
-        <v>5.852364834352451</v>
+        <v>5.586606579947769</v>
       </c>
       <c r="K395" t="n">
-        <v>5.820086804474853</v>
+        <v>5.8165637523317875</v>
       </c>
       <c r="L395" t="n">
-        <v>5.875931748425884</v>
+        <v>5.155023236543405</v>
       </c>
     </row>
     <row r="396">
@@ -15151,37 +15151,37 @@
         <v>396.0</v>
       </c>
       <c r="B397" t="n">
-        <v>4.359314921818037</v>
+        <v>4.402908071036218</v>
       </c>
       <c r="C397" t="n">
-        <v>4.401143455592937</v>
+        <v>4.424346455976423</v>
       </c>
       <c r="D397" t="n">
-        <v>4.383491553888905</v>
+        <v>4.421655249825857</v>
       </c>
       <c r="E397" t="n">
-        <v>4.359314921818037</v>
+        <v>4.104574380058612</v>
       </c>
       <c r="F397" t="n">
-        <v>4.401143455592937</v>
+        <v>4.515031820680871</v>
       </c>
       <c r="G397" t="n">
-        <v>4.383491553888905</v>
+        <v>4.4405627541830945</v>
       </c>
       <c r="H397" t="n">
-        <v>4.359314921818037</v>
+        <v>4.373767284268586</v>
       </c>
       <c r="I397" t="n">
-        <v>4.401143455592937</v>
+        <v>4.5920412041896865</v>
       </c>
       <c r="J397" t="n">
-        <v>4.383491553888905</v>
+        <v>4.226279783601181</v>
       </c>
       <c r="K397" t="n">
-        <v>4.359314921818037</v>
+        <v>4.400242874581853</v>
       </c>
       <c r="L397" t="n">
-        <v>4.401143455592937</v>
+        <v>3.89978606454894</v>
       </c>
     </row>
     <row r="398">
@@ -15189,37 +15189,37 @@
         <v>397.0</v>
       </c>
       <c r="B398" t="n">
-        <v>5.530910826476234</v>
+        <v>5.5873486920525215</v>
       </c>
       <c r="C398" t="n">
-        <v>5.583981066745715</v>
+        <v>5.614554286655632</v>
       </c>
       <c r="D398" t="n">
-        <v>5.561585094902963</v>
+        <v>5.611139110385129</v>
       </c>
       <c r="E398" t="n">
-        <v>5.530910826476234</v>
+        <v>5.208759284509741</v>
       </c>
       <c r="F398" t="n">
-        <v>5.583981066745715</v>
+        <v>5.729635216280959</v>
       </c>
       <c r="G398" t="n">
-        <v>5.561585094902963</v>
+        <v>5.635132983987747</v>
       </c>
       <c r="H398" t="n">
-        <v>5.530910826476234</v>
+        <v>5.550368647453683</v>
       </c>
       <c r="I398" t="n">
-        <v>5.583981066745715</v>
+        <v>5.827361144526943</v>
       </c>
       <c r="J398" t="n">
-        <v>5.561585094902963</v>
+        <v>5.363205054516304</v>
       </c>
       <c r="K398" t="n">
-        <v>5.530910826476234</v>
+        <v>5.583966522431193</v>
       </c>
       <c r="L398" t="n">
-        <v>5.583981066745715</v>
+        <v>4.948880198153684</v>
       </c>
     </row>
     <row r="399">
@@ -15379,37 +15379,37 @@
         <v>402.0</v>
       </c>
       <c r="B403" t="n">
-        <v>2.8155128023207174</v>
+        <v>2.843952325576482</v>
       </c>
       <c r="C403" t="n">
-        <v>2.842528233519806</v>
+        <v>2.857799933503702</v>
       </c>
       <c r="D403" t="n">
-        <v>2.831127553338553</v>
+        <v>2.856061613768876</v>
       </c>
       <c r="E403" t="n">
-        <v>2.8155128023207174</v>
+        <v>2.651250869955607</v>
       </c>
       <c r="F403" t="n">
-        <v>2.842528233519806</v>
+        <v>2.9163759586411677</v>
       </c>
       <c r="G403" t="n">
-        <v>2.831127553338553</v>
+        <v>2.868274460396618</v>
       </c>
       <c r="H403" t="n">
-        <v>2.8155128023207174</v>
+        <v>2.8251295368741447</v>
       </c>
       <c r="I403" t="n">
-        <v>2.842528233519806</v>
+        <v>2.9661183134184186</v>
       </c>
       <c r="J403" t="n">
-        <v>2.831127553338553</v>
+        <v>2.7298635413663583</v>
       </c>
       <c r="K403" t="n">
-        <v>2.8155128023207174</v>
+        <v>2.842230806177889</v>
       </c>
       <c r="L403" t="n">
-        <v>2.842528233519806</v>
+        <v>2.51897279447729</v>
       </c>
     </row>
     <row r="404">
@@ -15493,37 +15493,37 @@
         <v>405.0</v>
       </c>
       <c r="B406" t="n">
-        <v>3.2861837957001003</v>
+        <v>3.253647322475347</v>
       </c>
       <c r="C406" t="n">
-        <v>3.523872933770965</v>
+        <v>3.4901328932008586</v>
       </c>
       <c r="D406" t="n">
-        <v>3.6702258503286673</v>
+        <v>3.6400564797402675</v>
       </c>
       <c r="E406" t="n">
-        <v>3.2861837957001003</v>
+        <v>3.5071268461178233</v>
       </c>
       <c r="F406" t="n">
-        <v>3.523872933770965</v>
+        <v>3.5372679010599475</v>
       </c>
       <c r="G406" t="n">
-        <v>3.6702258503286673</v>
+        <v>3.192359782684868</v>
       </c>
       <c r="H406" t="n">
-        <v>3.2861837957001003</v>
+        <v>3.226321057261472</v>
       </c>
       <c r="I406" t="n">
-        <v>3.523872933770965</v>
+        <v>3.5049935589910124</v>
       </c>
       <c r="J406" t="n">
-        <v>3.6702258503286673</v>
+        <v>3.079748480704914</v>
       </c>
       <c r="K406" t="n">
-        <v>3.2861837957001003</v>
+        <v>3.3688265710905143</v>
       </c>
       <c r="L406" t="n">
-        <v>3.523872933770965</v>
+        <v>3.160838952334864</v>
       </c>
     </row>
     <row r="407">
@@ -15531,37 +15531,37 @@
         <v>406.0</v>
       </c>
       <c r="B407" t="n">
-        <v>6.547576790817323</v>
+        <v>6.614388798886887</v>
       </c>
       <c r="C407" t="n">
-        <v>7.021161952395483</v>
+        <v>7.09514388850587</v>
       </c>
       <c r="D407" t="n">
-        <v>7.312763706678216</v>
+        <v>7.399925812669911</v>
       </c>
       <c r="E407" t="n">
-        <v>6.547576790817323</v>
+        <v>7.1296911521402295</v>
       </c>
       <c r="F407" t="n">
-        <v>7.021161952395483</v>
+        <v>7.190965358111682</v>
       </c>
       <c r="G407" t="n">
-        <v>7.312763706678216</v>
+        <v>6.489796433297285</v>
       </c>
       <c r="H407" t="n">
-        <v>6.547576790817323</v>
+        <v>6.558836821480634</v>
       </c>
       <c r="I407" t="n">
-        <v>7.021161952395483</v>
+        <v>7.125354360509828</v>
       </c>
       <c r="J407" t="n">
-        <v>7.312763706678216</v>
+        <v>6.260867216138741</v>
       </c>
       <c r="K407" t="n">
-        <v>6.547576790817323</v>
+        <v>6.848538433557424</v>
       </c>
       <c r="L407" t="n">
-        <v>7.021161952395483</v>
+        <v>6.425717261053115</v>
       </c>
     </row>
     <row r="408">
@@ -15648,34 +15648,34 @@
         <v>2.8855763590705643</v>
       </c>
       <c r="C410" t="n">
-        <v>3.0942896265763538</v>
+        <v>3.0953093462425376</v>
       </c>
       <c r="D410" t="n">
-        <v>3.2228011592095926</v>
+        <v>3.2282727298264895</v>
       </c>
       <c r="E410" t="n">
-        <v>2.8855763590705643</v>
+        <v>3.1103808472148815</v>
       </c>
       <c r="F410" t="n">
-        <v>3.0942896265763538</v>
+        <v>3.1371121757696527</v>
       </c>
       <c r="G410" t="n">
-        <v>3.2228011592095926</v>
+        <v>2.8312220119649734</v>
       </c>
       <c r="H410" t="n">
-        <v>2.8855763590705643</v>
+        <v>2.8613413953305913</v>
       </c>
       <c r="I410" t="n">
-        <v>3.0942896265763538</v>
+        <v>3.108488889577767</v>
       </c>
       <c r="J410" t="n">
-        <v>3.2228011592095926</v>
+        <v>2.731349936551989</v>
       </c>
       <c r="K410" t="n">
-        <v>2.8855763590705643</v>
+        <v>2.9877258804902933</v>
       </c>
       <c r="L410" t="n">
-        <v>3.0942896265763538</v>
+        <v>2.803266995990148</v>
       </c>
     </row>
     <row r="411">
@@ -15797,37 +15797,37 @@
         <v>413.0</v>
       </c>
       <c r="B414" t="n">
-        <v>4.278872915777785</v>
+        <v>4.151777680655673</v>
       </c>
       <c r="C414" t="n">
-        <v>4.588363096027826</v>
+        <v>4.453542259610815</v>
       </c>
       <c r="D414" t="n">
-        <v>4.7789262445721175</v>
+        <v>4.644850455830624</v>
       </c>
       <c r="E414" t="n">
-        <v>4.278872915777785</v>
+        <v>4.475227189609034</v>
       </c>
       <c r="F414" t="n">
-        <v>4.588363096027826</v>
+        <v>4.513688321617932</v>
       </c>
       <c r="G414" t="n">
-        <v>4.7789262445721175</v>
+        <v>4.073572449853085</v>
       </c>
       <c r="H414" t="n">
-        <v>4.278872915777785</v>
+        <v>4.116908327352706</v>
       </c>
       <c r="I414" t="n">
-        <v>4.588363096027826</v>
+        <v>4.472505034131904</v>
       </c>
       <c r="J414" t="n">
-        <v>4.7789262445721175</v>
+        <v>3.9298761472697277</v>
       </c>
       <c r="K414" t="n">
-        <v>4.278872915777785</v>
+        <v>4.298750780773769</v>
       </c>
       <c r="L414" t="n">
-        <v>4.588363096027826</v>
+        <v>4.0333506719674235</v>
       </c>
     </row>
     <row r="415">
@@ -15873,37 +15873,37 @@
         <v>415.0</v>
       </c>
       <c r="B416" t="n">
-        <v>6.670643548377365</v>
+        <v>6.603937112893591</v>
       </c>
       <c r="C416" t="n">
-        <v>7.153130108461567</v>
+        <v>7.083932540299004</v>
       </c>
       <c r="D416" t="n">
-        <v>7.450212742701099</v>
+        <v>7.388232865170252</v>
       </c>
       <c r="E416" t="n">
-        <v>6.670643548377365</v>
+        <v>7.118425214286093</v>
       </c>
       <c r="F416" t="n">
-        <v>7.153130108461567</v>
+        <v>7.179602598195859</v>
       </c>
       <c r="G416" t="n">
-        <v>7.450212742701099</v>
+        <v>6.479541621168211</v>
       </c>
       <c r="H416" t="n">
-        <v>6.670643548377365</v>
+        <v>6.548472915604565</v>
       </c>
       <c r="I416" t="n">
-        <v>7.153130108461567</v>
+        <v>7.114095275410454</v>
       </c>
       <c r="J416" t="n">
-        <v>7.450212742701099</v>
+        <v>6.250974145111556</v>
       </c>
       <c r="K416" t="n">
-        <v>6.670643548377365</v>
+        <v>6.837716757451446</v>
       </c>
       <c r="L416" t="n">
-        <v>7.153130108461567</v>
+        <v>6.415563703236022</v>
       </c>
     </row>
     <row r="417">
@@ -16025,37 +16025,37 @@
         <v>419.0</v>
       </c>
       <c r="B420" t="n">
-        <v>0.9530631401894673</v>
+        <v>0.9149406145818885</v>
       </c>
       <c r="C420" t="n">
-        <v>1.0426082401467966</v>
+        <v>1.0137923942315412</v>
       </c>
       <c r="D420" t="n">
-        <v>1.0294131323964444</v>
+        <v>0.9966613208775714</v>
       </c>
       <c r="E420" t="n">
-        <v>0.9530631401894673</v>
+        <v>0.8826658520688261</v>
       </c>
       <c r="F420" t="n">
-        <v>1.0426082401467966</v>
+        <v>0.9936629418049455</v>
       </c>
       <c r="G420" t="n">
-        <v>1.0294131323964444</v>
+        <v>0.9601557032466094</v>
       </c>
       <c r="H420" t="n">
-        <v>0.9530631401894673</v>
+        <v>0.9034287795297784</v>
       </c>
       <c r="I420" t="n">
-        <v>1.0426082401467966</v>
+        <v>1.0051538706282586</v>
       </c>
       <c r="J420" t="n">
-        <v>1.0294131323964444</v>
+        <v>1.0002833488874583</v>
       </c>
       <c r="K420" t="n">
-        <v>0.9530631401894673</v>
+        <v>1.0257564039626186</v>
       </c>
       <c r="L420" t="n">
-        <v>1.0426082401467966</v>
+        <v>1.04325193255171</v>
       </c>
     </row>
     <row r="421">
@@ -16139,37 +16139,37 @@
         <v>422.0</v>
       </c>
       <c r="B423" t="n">
-        <v>1.413014700913014</v>
+        <v>1.4415604524466101</v>
       </c>
       <c r="C423" t="n">
-        <v>1.5457745751531176</v>
+        <v>1.5973091578005927</v>
       </c>
       <c r="D423" t="n">
-        <v>1.5262114628627057</v>
+        <v>1.5703178127215132</v>
       </c>
       <c r="E423" t="n">
-        <v>1.413014700913014</v>
+        <v>1.3907090414266734</v>
       </c>
       <c r="F423" t="n">
-        <v>1.5457745751531176</v>
+        <v>1.5655936321313704</v>
       </c>
       <c r="G423" t="n">
-        <v>1.5262114628627057</v>
+        <v>1.5128003587685248</v>
       </c>
       <c r="H423" t="n">
-        <v>1.413014700913014</v>
+        <v>1.4234226565266048</v>
       </c>
       <c r="I423" t="n">
-        <v>1.5457745751531176</v>
+        <v>1.58369848865382</v>
       </c>
       <c r="J423" t="n">
-        <v>1.5262114628627057</v>
+        <v>1.5760246009583572</v>
       </c>
       <c r="K423" t="n">
-        <v>1.413014700913014</v>
+        <v>1.616159390270477</v>
       </c>
       <c r="L423" t="n">
-        <v>1.5457745751531176</v>
+        <v>1.6437249630592736</v>
       </c>
     </row>
     <row r="424">
@@ -16215,37 +16215,37 @@
         <v>424.0</v>
       </c>
       <c r="B425" t="n">
-        <v>4.913876641007284</v>
+        <v>4.865701379820938</v>
       </c>
       <c r="C425" t="n">
-        <v>4.993880554452096</v>
+        <v>4.92065001025016</v>
       </c>
       <c r="D425" t="n">
-        <v>5.19078660080068</v>
+        <v>5.066553005235159</v>
       </c>
       <c r="E425" t="n">
-        <v>4.913876641007284</v>
+        <v>5.5050354814480125</v>
       </c>
       <c r="F425" t="n">
-        <v>4.993880554452096</v>
+        <v>4.767216173861427</v>
       </c>
       <c r="G425" t="n">
-        <v>5.19078660080068</v>
+        <v>4.675145474698927</v>
       </c>
       <c r="H425" t="n">
-        <v>4.913876641007284</v>
+        <v>5.278298707444913</v>
       </c>
       <c r="I425" t="n">
-        <v>4.993880554452096</v>
+        <v>5.412715014411769</v>
       </c>
       <c r="J425" t="n">
-        <v>5.19078660080068</v>
+        <v>5.303999493764751</v>
       </c>
       <c r="K425" t="n">
-        <v>4.913876641007284</v>
+        <v>5.323439932784336</v>
       </c>
       <c r="L425" t="n">
-        <v>4.993880554452096</v>
+        <v>5.275103613935533</v>
       </c>
     </row>
     <row r="426">
@@ -16332,34 +16332,34 @@
         <v>2.351882057297448</v>
       </c>
       <c r="C428" t="n">
-        <v>2.5728532658436967</v>
+        <v>2.605983496434219</v>
       </c>
       <c r="D428" t="n">
-        <v>2.5402915856637343</v>
+        <v>2.561947562952503</v>
       </c>
       <c r="E428" t="n">
-        <v>2.351882057297448</v>
+        <v>2.2689188205056308</v>
       </c>
       <c r="F428" t="n">
-        <v>2.5728532658436967</v>
+        <v>2.5542401403837633</v>
       </c>
       <c r="G428" t="n">
-        <v>2.5402915856637343</v>
+        <v>2.4681087872675302</v>
       </c>
       <c r="H428" t="n">
-        <v>2.351882057297448</v>
+        <v>2.3222905429694953</v>
       </c>
       <c r="I428" t="n">
-        <v>2.5728532658436967</v>
+        <v>2.583777914628906</v>
       </c>
       <c r="J428" t="n">
-        <v>2.5402915856637343</v>
+        <v>2.5712580936598695</v>
       </c>
       <c r="K428" t="n">
-        <v>2.351882057297448</v>
+        <v>2.636737339220738</v>
       </c>
       <c r="L428" t="n">
-        <v>2.5728532658436967</v>
+        <v>2.6817101157221095</v>
       </c>
     </row>
     <row r="429">
@@ -16367,37 +16367,37 @@
         <v>428.0</v>
       </c>
       <c r="B429" t="n">
-        <v>9.038518476053145</v>
+        <v>8.949028194112024</v>
       </c>
       <c r="C429" t="n">
-        <v>8.886810543102552</v>
+        <v>8.798951329905583</v>
       </c>
       <c r="D429" t="n">
-        <v>7.904958423811507</v>
+        <v>7.7496234295098905</v>
       </c>
       <c r="E429" t="n">
-        <v>9.038518476053145</v>
+        <v>7.909721740920367</v>
       </c>
       <c r="F429" t="n">
-        <v>8.886810543102552</v>
+        <v>8.653825067739255</v>
       </c>
       <c r="G429" t="n">
-        <v>7.904958423811507</v>
+        <v>8.52365320800975</v>
       </c>
       <c r="H429" t="n">
-        <v>9.038518476053145</v>
+        <v>8.57524917451654</v>
       </c>
       <c r="I429" t="n">
-        <v>8.886810543102552</v>
+        <v>8.236227694373786</v>
       </c>
       <c r="J429" t="n">
-        <v>7.904958423811507</v>
+        <v>7.5999525898879625</v>
       </c>
       <c r="K429" t="n">
-        <v>9.038518476053145</v>
+        <v>8.58044314320114</v>
       </c>
       <c r="L429" t="n">
-        <v>8.886810543102552</v>
+        <v>8.62222253993022</v>
       </c>
     </row>
     <row r="430">
@@ -17013,37 +17013,37 @@
         <v>445.0</v>
       </c>
       <c r="B446" t="n">
-        <v>1.915666531238248</v>
+        <v>1.8966995358794534</v>
       </c>
       <c r="C446" t="n">
-        <v>1.968573965655137</v>
+        <v>1.9586969174539832</v>
       </c>
       <c r="D446" t="n">
-        <v>2.0827802399915996</v>
+        <v>2.066969473811164</v>
       </c>
       <c r="E446" t="n">
-        <v>1.915666531238248</v>
+        <v>1.9393570693651137</v>
       </c>
       <c r="F446" t="n">
-        <v>1.968573965655137</v>
+        <v>2.0554929863775047</v>
       </c>
       <c r="G446" t="n">
-        <v>2.0827802399915996</v>
+        <v>2.1518246721031318</v>
       </c>
       <c r="H446" t="n">
-        <v>1.915666531238248</v>
+        <v>2.2333846720213084</v>
       </c>
       <c r="I446" t="n">
-        <v>1.968573965655137</v>
+        <v>2.14010165681783</v>
       </c>
       <c r="J446" t="n">
-        <v>2.0827802399915996</v>
+        <v>2.1597116291754386</v>
       </c>
       <c r="K446" t="n">
-        <v>1.915666531238248</v>
+        <v>1.9340524810048363</v>
       </c>
       <c r="L446" t="n">
-        <v>1.968573965655137</v>
+        <v>2.1413979014821143</v>
       </c>
     </row>
     <row r="447">
@@ -17051,37 +17051,37 @@
         <v>446.0</v>
       </c>
       <c r="B447" t="n">
-        <v>1.094156701160975</v>
+        <v>1.10520878905149</v>
       </c>
       <c r="C447" t="n">
-        <v>1.1243754385896945</v>
+        <v>1.1413347276717984</v>
       </c>
       <c r="D447" t="n">
-        <v>1.1896057687866195</v>
+        <v>1.204425258689166</v>
       </c>
       <c r="E447" t="n">
-        <v>1.094156701160975</v>
+        <v>1.130065378108306</v>
       </c>
       <c r="F447" t="n">
-        <v>1.1243754385896945</v>
+        <v>1.1977378975446198</v>
       </c>
       <c r="G447" t="n">
-        <v>1.1896057687866195</v>
+        <v>1.2538704708458215</v>
       </c>
       <c r="H447" t="n">
-        <v>1.094156701160975</v>
+        <v>1.3013955674884015</v>
       </c>
       <c r="I447" t="n">
-        <v>1.1243754385896945</v>
+        <v>1.2470394576661334</v>
       </c>
       <c r="J447" t="n">
-        <v>1.1896057687866195</v>
+        <v>1.2584662089215117</v>
       </c>
       <c r="K447" t="n">
-        <v>1.094156701160975</v>
+        <v>1.126974388962595</v>
       </c>
       <c r="L447" t="n">
-        <v>1.1243754385896945</v>
+        <v>1.2477947807780063</v>
       </c>
     </row>
     <row r="448">
@@ -17130,34 +17130,34 @@
         <v>1.5057200323495996</v>
       </c>
       <c r="C449" t="n">
-        <v>1.547305445344334</v>
+        <v>1.5549374743450746</v>
       </c>
       <c r="D449" t="n">
-        <v>1.6370719429493596</v>
+        <v>1.640891076366238</v>
       </c>
       <c r="E449" t="n">
-        <v>1.5057200323495996</v>
+        <v>1.5395842799465183</v>
       </c>
       <c r="F449" t="n">
-        <v>1.547305445344334</v>
+        <v>1.6317803149077257</v>
       </c>
       <c r="G449" t="n">
-        <v>1.6370719429493596</v>
+        <v>1.7082544987218884</v>
       </c>
       <c r="H449" t="n">
-        <v>1.5057200323495996</v>
+        <v>1.7730019842313884</v>
       </c>
       <c r="I449" t="n">
-        <v>1.547305445344334</v>
+        <v>1.6989480278651667</v>
       </c>
       <c r="J449" t="n">
-        <v>1.6370719429493596</v>
+        <v>1.71451566398998</v>
       </c>
       <c r="K449" t="n">
-        <v>1.5057200323495996</v>
+        <v>1.5353731622621694</v>
       </c>
       <c r="L449" t="n">
-        <v>1.547305445344334</v>
+        <v>1.699977068849739</v>
       </c>
     </row>
     <row r="450">
@@ -17165,37 +17165,37 @@
         <v>449.0</v>
       </c>
       <c r="B450" t="n">
-        <v>2.1905648425595223</v>
+        <v>2.168876081742101</v>
       </c>
       <c r="C450" t="n">
-        <v>2.2510644983470813</v>
+        <v>2.2397700928830315</v>
       </c>
       <c r="D450" t="n">
-        <v>2.381659382833294</v>
+        <v>2.3635797703516763</v>
       </c>
       <c r="E450" t="n">
-        <v>2.1905648425595223</v>
+        <v>2.2176549749368326</v>
       </c>
       <c r="F450" t="n">
-        <v>2.2510644983470813</v>
+        <v>2.350456405988256</v>
       </c>
       <c r="G450" t="n">
-        <v>2.381659382833294</v>
+        <v>2.4606116968669096</v>
       </c>
       <c r="H450" t="n">
-        <v>2.1905648425595223</v>
+        <v>2.553875563759459</v>
       </c>
       <c r="I450" t="n">
-        <v>2.2510644983470813</v>
+        <v>2.447206427884019</v>
       </c>
       <c r="J450" t="n">
-        <v>2.381659382833294</v>
+        <v>2.469630432954659</v>
       </c>
       <c r="K450" t="n">
-        <v>2.1905648425595223</v>
+        <v>2.211589177692485</v>
       </c>
       <c r="L450" t="n">
-        <v>2.2510644983470813</v>
+        <v>2.4486886837686592</v>
       </c>
     </row>
     <row r="451">
@@ -17241,37 +17241,37 @@
         <v>451.0</v>
       </c>
       <c r="B452" t="n">
-        <v>2.4673341836974023</v>
+        <v>2.4922567512094975</v>
       </c>
       <c r="C452" t="n">
-        <v>2.5354777355003044</v>
+        <v>2.5737211001290476</v>
       </c>
       <c r="D452" t="n">
-        <v>2.6825727753039894</v>
+        <v>2.7159908716175374</v>
       </c>
       <c r="E452" t="n">
-        <v>2.4673341836974023</v>
+        <v>2.5483086053953987</v>
       </c>
       <c r="F452" t="n">
-        <v>2.5354777355003044</v>
+        <v>2.700910806090213</v>
       </c>
       <c r="G452" t="n">
-        <v>2.6825727753039894</v>
+        <v>2.827490314105838</v>
       </c>
       <c r="H452" t="n">
-        <v>2.4673341836974023</v>
+        <v>2.9346598771175523</v>
       </c>
       <c r="I452" t="n">
-        <v>2.5354777355003044</v>
+        <v>2.8120863118183705</v>
       </c>
       <c r="J452" t="n">
-        <v>2.6825727753039894</v>
+        <v>2.8378537489241222</v>
       </c>
       <c r="K452" t="n">
-        <v>2.4673341836974023</v>
+        <v>2.541338394298068</v>
       </c>
       <c r="L452" t="n">
-        <v>2.5354777355003044</v>
+        <v>2.813789572906735</v>
       </c>
     </row>
     <row r="453">
@@ -17393,37 +17393,37 @@
         <v>455.0</v>
       </c>
       <c r="B456" t="n">
-        <v>4.503357026034988</v>
+        <v>4.459635113160861</v>
       </c>
       <c r="C456" t="n">
-        <v>4.685230592998328</v>
+        <v>4.603489967041065</v>
       </c>
       <c r="D456" t="n">
-        <v>4.696418429448734</v>
+        <v>4.589640720873805</v>
       </c>
       <c r="E456" t="n">
-        <v>4.503357026034988</v>
+        <v>4.659732975162729</v>
       </c>
       <c r="F456" t="n">
-        <v>4.685230592998328</v>
+        <v>4.639892264331999</v>
       </c>
       <c r="G456" t="n">
-        <v>4.696418429448734</v>
+        <v>4.682616870691951</v>
       </c>
       <c r="H456" t="n">
-        <v>4.503357026034988</v>
+        <v>4.076955038920116</v>
       </c>
       <c r="I456" t="n">
-        <v>4.685230592998328</v>
+        <v>4.3071614222206325</v>
       </c>
       <c r="J456" t="n">
-        <v>4.696418429448734</v>
+        <v>4.270987054295277</v>
       </c>
       <c r="K456" t="n">
-        <v>4.503357026034988</v>
+        <v>4.184302183984528</v>
       </c>
       <c r="L456" t="n">
-        <v>4.685230592998328</v>
+        <v>4.226029295445585</v>
       </c>
     </row>
     <row r="457">
@@ -17469,37 +17469,37 @@
         <v>457.0</v>
       </c>
       <c r="B458" t="n">
-        <v>1.0876784960859873</v>
+        <v>1.098891676458008</v>
       </c>
       <c r="C458" t="n">
-        <v>1.1316057189663487</v>
+        <v>1.1343387248231365</v>
       </c>
       <c r="D458" t="n">
-        <v>1.1343078740596453</v>
+        <v>1.1309261538498954</v>
       </c>
       <c r="E458" t="n">
-        <v>1.0876784960859873</v>
+        <v>1.1481974760248803</v>
       </c>
       <c r="F458" t="n">
-        <v>1.1316057189663487</v>
+        <v>1.143308557664148</v>
       </c>
       <c r="G458" t="n">
-        <v>1.1343078740596453</v>
+        <v>1.1538362607424428</v>
       </c>
       <c r="H458" t="n">
-        <v>1.0876784960859873</v>
+        <v>1.004596081042931</v>
       </c>
       <c r="I458" t="n">
-        <v>1.1316057189663487</v>
+        <v>1.061320874004107</v>
       </c>
       <c r="J458" t="n">
-        <v>1.1343078740596453</v>
+        <v>1.0524072048796997</v>
       </c>
       <c r="K458" t="n">
-        <v>1.0876784960859873</v>
+        <v>1.0310473222789442</v>
       </c>
       <c r="L458" t="n">
-        <v>1.1316057189663487</v>
+        <v>1.0413292342075393</v>
       </c>
     </row>
     <row r="459">
@@ -17548,34 +17548,34 @@
         <v>1.588154602389967</v>
       </c>
       <c r="C460" t="n">
-        <v>1.5537338786894874</v>
+        <v>1.5532220161210373</v>
       </c>
       <c r="D460" t="n">
-        <v>1.604780875461442</v>
+        <v>1.6210559010266958</v>
       </c>
       <c r="E460" t="n">
-        <v>1.588154602389967</v>
+        <v>1.7772902642840827</v>
       </c>
       <c r="F460" t="n">
-        <v>1.5537338786894874</v>
+        <v>1.6926573938792062</v>
       </c>
       <c r="G460" t="n">
-        <v>1.604780875461442</v>
+        <v>1.7610741122849356</v>
       </c>
       <c r="H460" t="n">
-        <v>1.588154602389967</v>
+        <v>1.6039921545545697</v>
       </c>
       <c r="I460" t="n">
-        <v>1.5537338786894874</v>
+        <v>1.7472575967853035</v>
       </c>
       <c r="J460" t="n">
-        <v>1.604780875461442</v>
+        <v>1.616530340693855</v>
       </c>
       <c r="K460" t="n">
-        <v>1.588154602389967</v>
+        <v>1.5474109239959928</v>
       </c>
       <c r="L460" t="n">
-        <v>1.5537338786894874</v>
+        <v>1.634785905788086</v>
       </c>
     </row>
     <row r="461">
@@ -17583,37 +17583,37 @@
         <v>460.0</v>
       </c>
       <c r="B461" t="n">
-        <v>0.6455540554669512</v>
+        <v>0.6522785768780652</v>
       </c>
       <c r="C461" t="n">
-        <v>0.6716255434828143</v>
+        <v>0.6733191860276947</v>
       </c>
       <c r="D461" t="n">
-        <v>0.6732293144365066</v>
+        <v>0.6712935569455856</v>
       </c>
       <c r="E461" t="n">
-        <v>0.6455540554669512</v>
+        <v>0.6815454440882872</v>
       </c>
       <c r="F461" t="n">
-        <v>0.6716255434828143</v>
+        <v>0.6786434867988387</v>
       </c>
       <c r="G461" t="n">
-        <v>0.6732293144365066</v>
+        <v>0.6848925059959255</v>
       </c>
       <c r="H461" t="n">
-        <v>0.6455540554669512</v>
+        <v>0.5963067298790344</v>
       </c>
       <c r="I461" t="n">
-        <v>0.6716255434828143</v>
+        <v>0.6299773527612458</v>
       </c>
       <c r="J461" t="n">
-        <v>0.6732293144365066</v>
+        <v>0.6246863895700687</v>
       </c>
       <c r="K461" t="n">
-        <v>0.6455540554669512</v>
+        <v>0.6120076204760926</v>
       </c>
       <c r="L461" t="n">
-        <v>0.6716255434828143</v>
+        <v>0.6181107433079871</v>
       </c>
     </row>
     <row r="462">
@@ -17776,34 +17776,34 @@
         <v>1.293417364939506</v>
       </c>
       <c r="C466" t="n">
-        <v>1.345653603011216</v>
+        <v>1.335139246061662</v>
       </c>
       <c r="D466" t="n">
-        <v>1.348866881873496</v>
+        <v>1.3311225821352362</v>
       </c>
       <c r="E466" t="n">
-        <v>1.293417364939506</v>
+        <v>1.351451271937123</v>
       </c>
       <c r="F466" t="n">
-        <v>1.345653603011216</v>
+        <v>1.345696917764631</v>
       </c>
       <c r="G466" t="n">
-        <v>1.348866881873496</v>
+        <v>1.3580882337297167</v>
       </c>
       <c r="H466" t="n">
-        <v>1.293417364939506</v>
+        <v>1.1824295731852827</v>
       </c>
       <c r="I466" t="n">
-        <v>1.345653603011216</v>
+        <v>1.2491957830041327</v>
       </c>
       <c r="J466" t="n">
-        <v>1.348866881873496</v>
+        <v>1.2387042171129483</v>
       </c>
       <c r="K466" t="n">
-        <v>1.293417364939506</v>
+        <v>1.2135632103506295</v>
       </c>
       <c r="L466" t="n">
-        <v>1.345653603011216</v>
+        <v>1.2256652252426607</v>
       </c>
     </row>
     <row r="467">
@@ -17849,37 +17849,37 @@
         <v>467.0</v>
       </c>
       <c r="B468" t="n">
-        <v>3.318098722309681</v>
+        <v>3.219541334518304</v>
       </c>
       <c r="C468" t="n">
-        <v>3.276229804828456</v>
+        <v>3.2039503344802513</v>
       </c>
       <c r="D468" t="n">
-        <v>3.0717240457210284</v>
+        <v>2.955290872803856</v>
       </c>
       <c r="E468" t="n">
-        <v>3.318098722309681</v>
+        <v>3.077282530129178</v>
       </c>
       <c r="F468" t="n">
-        <v>3.276229804828456</v>
+        <v>3.2215008833641345</v>
       </c>
       <c r="G468" t="n">
-        <v>3.0717240457210284</v>
+        <v>2.8954737143803233</v>
       </c>
       <c r="H468" t="n">
-        <v>3.318098722309681</v>
+        <v>3.2875316486784</v>
       </c>
       <c r="I468" t="n">
-        <v>3.276229804828456</v>
+        <v>3.2058909448771793</v>
       </c>
       <c r="J468" t="n">
-        <v>3.0717240457210284</v>
+        <v>3.3436045171731035</v>
       </c>
       <c r="K468" t="n">
-        <v>3.318098722309681</v>
+        <v>3.1846726539390815</v>
       </c>
       <c r="L468" t="n">
-        <v>3.276229804828456</v>
+        <v>3.233308462069262</v>
       </c>
     </row>
     <row r="469">
@@ -17963,37 +17963,37 @@
         <v>470.0</v>
       </c>
       <c r="B471" t="n">
-        <v>2.5984288156689397</v>
+        <v>2.624675571382767</v>
       </c>
       <c r="C471" t="n">
-        <v>2.607900610162541</v>
+        <v>2.6374477159734364</v>
       </c>
       <c r="D471" t="n">
-        <v>2.4294853986397302</v>
+        <v>2.448313971143505</v>
       </c>
       <c r="E471" t="n">
-        <v>2.5984288156689397</v>
+        <v>2.6931453698184953</v>
       </c>
       <c r="F471" t="n">
-        <v>2.607900610162541</v>
+        <v>2.626265319091267</v>
       </c>
       <c r="G471" t="n">
-        <v>2.4294853986397302</v>
+        <v>2.7390802541928134</v>
       </c>
       <c r="H471" t="n">
-        <v>2.5984288156689397</v>
+        <v>2.63905297805607</v>
       </c>
       <c r="I471" t="n">
-        <v>2.607900610162541</v>
+        <v>2.37197157644074</v>
       </c>
       <c r="J471" t="n">
-        <v>2.4294853986397302</v>
+        <v>2.6088832987483235</v>
       </c>
       <c r="K471" t="n">
-        <v>2.5984288156689397</v>
+        <v>2.3261609663337555</v>
       </c>
       <c r="L471" t="n">
-        <v>2.607900610162541</v>
+        <v>2.520909327510923</v>
       </c>
     </row>
     <row r="472">
@@ -18039,37 +18039,37 @@
         <v>472.0</v>
       </c>
       <c r="B473" t="n">
-        <v>5.403363913789505</v>
+        <v>5.457397552927399</v>
       </c>
       <c r="C473" t="n">
-        <v>5.335182398783224</v>
+        <v>5.430969476187677</v>
       </c>
       <c r="D473" t="n">
-        <v>5.002154622516815</v>
+        <v>5.009470449877446</v>
       </c>
       <c r="E473" t="n">
-        <v>5.403363913789505</v>
+        <v>5.2162567287261945</v>
       </c>
       <c r="F473" t="n">
-        <v>5.335182398783224</v>
+        <v>5.46071915559217</v>
       </c>
       <c r="G473" t="n">
-        <v>5.002154622516815</v>
+        <v>4.908075257182242</v>
       </c>
       <c r="H473" t="n">
-        <v>5.403363913789505</v>
+        <v>5.572646942690425</v>
       </c>
       <c r="I473" t="n">
-        <v>5.335182398783224</v>
+        <v>5.434258976563966</v>
       </c>
       <c r="J473" t="n">
-        <v>5.002154622516815</v>
+        <v>5.667695244144955</v>
       </c>
       <c r="K473" t="n">
-        <v>5.403363913789505</v>
+        <v>5.398292161104459</v>
       </c>
       <c r="L473" t="n">
-        <v>5.335182398783224</v>
+        <v>5.480734010018943</v>
       </c>
     </row>
     <row r="474">
@@ -18115,37 +18115,37 @@
         <v>474.0</v>
       </c>
       <c r="B475" t="n">
-        <v>1.6770500651229614</v>
+        <v>1.6943392410520643</v>
       </c>
       <c r="C475" t="n">
-        <v>1.6558884672728411</v>
+        <v>1.686134207965987</v>
       </c>
       <c r="D475" t="n">
-        <v>1.5525261428419397</v>
+        <v>1.5552728709612131</v>
       </c>
       <c r="E475" t="n">
-        <v>1.6770500651229614</v>
+        <v>1.6194730878899997</v>
       </c>
       <c r="F475" t="n">
-        <v>1.6558884672728411</v>
+        <v>1.6953704874810671</v>
       </c>
       <c r="G475" t="n">
-        <v>1.5525261428419397</v>
+        <v>1.523793058070293</v>
       </c>
       <c r="H475" t="n">
-        <v>1.6770500651229614</v>
+        <v>1.730120318330932</v>
       </c>
       <c r="I475" t="n">
-        <v>1.6558884672728411</v>
+        <v>1.6871554877091153</v>
       </c>
       <c r="J475" t="n">
-        <v>1.5525261428419397</v>
+        <v>1.7596296339686337</v>
       </c>
       <c r="K475" t="n">
-        <v>1.6770500651229614</v>
+        <v>1.6759889955821066</v>
       </c>
       <c r="L475" t="n">
-        <v>1.6558884672728411</v>
+        <v>1.701584429736572</v>
       </c>
     </row>
     <row r="476">
@@ -18381,37 +18381,37 @@
         <v>481.0</v>
       </c>
       <c r="B482" t="n">
-        <v>4.519401817747362</v>
+        <v>4.4750939567890535</v>
       </c>
       <c r="C482" t="n">
-        <v>4.124019657629109</v>
+        <v>4.101751851034683</v>
       </c>
       <c r="D482" t="n">
-        <v>3.9152385769282625</v>
+        <v>3.915408233480362</v>
       </c>
       <c r="E482" t="n">
-        <v>4.519401817747362</v>
+        <v>4.407779064442646</v>
       </c>
       <c r="F482" t="n">
-        <v>4.124019657629109</v>
+        <v>4.058575515392401</v>
       </c>
       <c r="G482" t="n">
-        <v>3.9152385769282625</v>
+        <v>4.421079542851931</v>
       </c>
       <c r="H482" t="n">
-        <v>4.519401817747362</v>
+        <v>4.09030084218271</v>
       </c>
       <c r="I482" t="n">
-        <v>4.124019657629109</v>
+        <v>4.282924848004511</v>
       </c>
       <c r="J482" t="n">
-        <v>3.9152385769282625</v>
+        <v>4.497071092203565</v>
       </c>
       <c r="K482" t="n">
-        <v>4.519401817747362</v>
+        <v>4.136492832150188</v>
       </c>
       <c r="L482" t="n">
-        <v>4.124019657629109</v>
+        <v>4.456039421773794</v>
       </c>
     </row>
     <row r="483">
@@ -18457,37 +18457,37 @@
         <v>483.0</v>
       </c>
       <c r="B484" t="n">
-        <v>1.3186612666512187</v>
+        <v>1.3322557126991694</v>
       </c>
       <c r="C484" t="n">
-        <v>1.203297516956419</v>
+        <v>1.2211100791135718</v>
       </c>
       <c r="D484" t="n">
-        <v>1.1423798257591768</v>
+        <v>1.1656347412974466</v>
       </c>
       <c r="E484" t="n">
-        <v>1.3186612666512187</v>
+        <v>1.3122157647686508</v>
       </c>
       <c r="F484" t="n">
-        <v>1.203297516956419</v>
+        <v>1.2082562886974886</v>
       </c>
       <c r="G484" t="n">
-        <v>1.1423798257591768</v>
+        <v>1.3161753773518727</v>
       </c>
       <c r="H484" t="n">
-        <v>1.3186612666512187</v>
+        <v>1.21770106198309</v>
       </c>
       <c r="I484" t="n">
-        <v>1.203297516956419</v>
+        <v>1.2750460997939215</v>
       </c>
       <c r="J484" t="n">
-        <v>1.1423798257591768</v>
+        <v>1.338798405319137</v>
       </c>
       <c r="K484" t="n">
-        <v>1.3186612666512187</v>
+        <v>1.231452626332204</v>
       </c>
       <c r="L484" t="n">
-        <v>1.203297516956419</v>
+        <v>1.326583091437577</v>
       </c>
     </row>
     <row r="485">
@@ -18495,37 +18495,37 @@
         <v>484.0</v>
       </c>
       <c r="B485" t="n">
-        <v>2.7402427905639737</v>
+        <v>2.7131116738257166</v>
       </c>
       <c r="C485" t="n">
-        <v>2.5005112602700645</v>
+        <v>2.4867658506467007</v>
       </c>
       <c r="D485" t="n">
-        <v>2.3739213100359398</v>
+        <v>2.3737914530114166</v>
       </c>
       <c r="E485" t="n">
-        <v>2.7402427905639737</v>
+        <v>2.672300727282283</v>
       </c>
       <c r="F485" t="n">
-        <v>2.5005112602700645</v>
+        <v>2.460589367785066</v>
       </c>
       <c r="G485" t="n">
-        <v>2.3739213100359398</v>
+        <v>2.6803643978081175</v>
       </c>
       <c r="H485" t="n">
-        <v>2.7402427905639737</v>
+        <v>2.4798234565666304</v>
       </c>
       <c r="I485" t="n">
-        <v>2.5005112602700645</v>
+        <v>2.5966054602296733</v>
       </c>
       <c r="J485" t="n">
-        <v>2.3739213100359398</v>
+        <v>2.726435734331732</v>
       </c>
       <c r="K485" t="n">
-        <v>2.7402427905639737</v>
+        <v>2.5078282377909176</v>
       </c>
       <c r="L485" t="n">
-        <v>2.5005112602700645</v>
+        <v>2.701559495952268</v>
       </c>
     </row>
     <row r="486">
@@ -18533,37 +18533,37 @@
         <v>485.0</v>
       </c>
       <c r="B486" t="n">
-        <v>1.7121724974703592</v>
+        <v>1.6436855975715445</v>
       </c>
       <c r="C486" t="n">
-        <v>1.5623822181713352</v>
+        <v>1.5065584113893353</v>
       </c>
       <c r="D486" t="n">
-        <v>1.4832856388487412</v>
+        <v>1.438115084091424</v>
       </c>
       <c r="E486" t="n">
-        <v>1.7121724974703592</v>
+        <v>1.6189610844953413</v>
       </c>
       <c r="F486" t="n">
-        <v>1.5623822181713352</v>
+        <v>1.490699901660513</v>
       </c>
       <c r="G486" t="n">
-        <v>1.4832856388487412</v>
+        <v>1.623846301434527</v>
       </c>
       <c r="H486" t="n">
-        <v>1.7121724974703592</v>
+        <v>1.5023524978354763</v>
       </c>
       <c r="I486" t="n">
-        <v>1.5623822181713352</v>
+        <v>1.5731025887102175</v>
       </c>
       <c r="J486" t="n">
-        <v>1.4832856388487412</v>
+        <v>1.6517577188064316</v>
       </c>
       <c r="K486" t="n">
-        <v>1.7121724974703592</v>
+        <v>1.5193186463377952</v>
       </c>
       <c r="L486" t="n">
-        <v>1.5623822181713352</v>
+        <v>1.6366869367444372</v>
       </c>
     </row>
     <row r="487">
@@ -18726,34 +18726,34 @@
         <v>2.351893580991672</v>
       </c>
       <c r="C491" t="n">
-        <v>2.146136978255199</v>
+        <v>2.155682973903628</v>
       </c>
       <c r="D491" t="n">
-        <v>2.03748744822125</v>
+        <v>2.0577497545753722</v>
       </c>
       <c r="E491" t="n">
-        <v>2.351893580991672</v>
+        <v>2.316516119704076</v>
       </c>
       <c r="F491" t="n">
-        <v>2.146136978255199</v>
+        <v>2.132991573984801</v>
       </c>
       <c r="G491" t="n">
-        <v>2.03748744822125</v>
+        <v>2.32350620976631</v>
       </c>
       <c r="H491" t="n">
-        <v>2.351893580991672</v>
+        <v>2.149664875853647</v>
       </c>
       <c r="I491" t="n">
-        <v>2.146136978255199</v>
+        <v>2.2508987643957887</v>
       </c>
       <c r="J491" t="n">
-        <v>2.03748744822125</v>
+        <v>2.363443703560956</v>
       </c>
       <c r="K491" t="n">
-        <v>2.351893580991672</v>
+        <v>2.1739411582617363</v>
       </c>
       <c r="L491" t="n">
-        <v>2.146136978255199</v>
+        <v>2.3418794362555193</v>
       </c>
     </row>
     <row r="492">
@@ -18837,37 +18837,37 @@
         <v>493.0</v>
       </c>
       <c r="B494" t="n">
-        <v>1.3383610507251789</v>
+        <v>1.324977440217927</v>
       </c>
       <c r="C494" t="n">
-        <v>1.2981157886718435</v>
+        <v>1.2835731062404971</v>
       </c>
       <c r="D494" t="n">
-        <v>1.21493336689558</v>
+        <v>1.2043267252730925</v>
       </c>
       <c r="E494" t="n">
-        <v>1.3383610507251789</v>
+        <v>1.2292763826835078</v>
       </c>
       <c r="F494" t="n">
-        <v>1.2981157886718435</v>
+        <v>1.328987663396454</v>
       </c>
       <c r="G494" t="n">
-        <v>1.21493336689558</v>
+        <v>1.3297926219656364</v>
       </c>
       <c r="H494" t="n">
-        <v>1.3383610507251789</v>
+        <v>1.2764462904792608</v>
       </c>
       <c r="I494" t="n">
-        <v>1.2981157886718435</v>
+        <v>1.1778367052440164</v>
       </c>
       <c r="J494" t="n">
-        <v>1.21493336689558</v>
+        <v>1.3636569072559472</v>
       </c>
       <c r="K494" t="n">
-        <v>1.3383610507251789</v>
+        <v>1.336267571172022</v>
       </c>
       <c r="L494" t="n">
-        <v>1.2981157886718435</v>
+        <v>1.2010326142350742</v>
       </c>
     </row>
     <row r="495">
@@ -18916,34 +18916,34 @@
         <v>4.1347967903484015</v>
       </c>
       <c r="C496" t="n">
-        <v>4.010461148426743</v>
+        <v>4.005588169854281</v>
       </c>
       <c r="D496" t="n">
-        <v>3.7534733868750005</v>
+        <v>3.758287595727632</v>
       </c>
       <c r="E496" t="n">
-        <v>4.1347967903484015</v>
+        <v>3.8361468560059873</v>
       </c>
       <c r="F496" t="n">
-        <v>4.010461148426743</v>
+        <v>4.147311311293322</v>
       </c>
       <c r="G496" t="n">
-        <v>3.7534733868750005</v>
+        <v>4.149823308861878</v>
       </c>
       <c r="H496" t="n">
-        <v>4.1347967903484015</v>
+        <v>3.9833478402905427</v>
       </c>
       <c r="I496" t="n">
-        <v>4.010461148426743</v>
+        <v>3.675621395935978</v>
       </c>
       <c r="J496" t="n">
-        <v>3.7534733868750005</v>
+        <v>4.2555020426090655</v>
       </c>
       <c r="K496" t="n">
-        <v>4.1347967903484015</v>
+        <v>4.170029388138087</v>
       </c>
       <c r="L496" t="n">
-        <v>4.010461148426743</v>
+        <v>3.748007813345217</v>
       </c>
     </row>
     <row r="497">
@@ -19369,37 +19369,37 @@
         <v>507.0</v>
       </c>
       <c r="B508" t="n">
-        <v>1.4268697438387021</v>
+        <v>1.4411384412770893</v>
       </c>
       <c r="C508" t="n">
-        <v>1.383962976097928</v>
+        <v>1.3961041821877156</v>
       </c>
       <c r="D508" t="n">
-        <v>1.2952795219676176</v>
+        <v>1.3099102573119594</v>
       </c>
       <c r="E508" t="n">
-        <v>1.4268697438387021</v>
+        <v>1.337047255497324</v>
       </c>
       <c r="F508" t="n">
-        <v>1.383962976097928</v>
+        <v>1.4455002414143996</v>
       </c>
       <c r="G508" t="n">
-        <v>1.2952795219676176</v>
+        <v>1.44637577084039</v>
       </c>
       <c r="H508" t="n">
-        <v>1.4268697438387021</v>
+        <v>1.3883525572576128</v>
       </c>
       <c r="I508" t="n">
-        <v>1.383962976097928</v>
+        <v>1.2810978526510748</v>
       </c>
       <c r="J508" t="n">
-        <v>1.2952795219676176</v>
+        <v>1.4832089438717846</v>
       </c>
       <c r="K508" t="n">
-        <v>1.4268697438387021</v>
+        <v>1.4534183799621756</v>
       </c>
       <c r="L508" t="n">
-        <v>1.383962976097928</v>
+        <v>1.3063273509902165</v>
       </c>
     </row>
     <row r="509">
@@ -19445,37 +19445,37 @@
         <v>509.0</v>
       </c>
       <c r="B510" t="n">
-        <v>2.4445073229881884</v>
+        <v>2.395617176528425</v>
       </c>
       <c r="C510" t="n">
-        <v>2.3762842511771667</v>
+        <v>2.3480507691834402</v>
       </c>
       <c r="D510" t="n">
-        <v>2.1746703540311163</v>
+        <v>2.162027910514435</v>
       </c>
       <c r="E510" t="n">
-        <v>2.4445073229881884</v>
+        <v>2.3551360150868392</v>
       </c>
       <c r="F510" t="n">
-        <v>2.3762842511771667</v>
+        <v>2.2035349399891455</v>
       </c>
       <c r="G510" t="n">
-        <v>2.1746703540311163</v>
+        <v>2.178928185433727</v>
       </c>
       <c r="H510" t="n">
-        <v>2.4445073229881884</v>
+        <v>2.373759355638374</v>
       </c>
       <c r="I510" t="n">
-        <v>2.3762842511771667</v>
+        <v>2.0857618269606366</v>
       </c>
       <c r="J510" t="n">
-        <v>2.1746703540311163</v>
+        <v>2.1406804059665663</v>
       </c>
       <c r="K510" t="n">
-        <v>2.4445073229881884</v>
+        <v>2.185028207633048</v>
       </c>
       <c r="L510" t="n">
-        <v>2.3762842511771667</v>
+        <v>2.2815401672096933</v>
       </c>
     </row>
     <row r="511">
@@ -19711,37 +19711,37 @@
         <v>516.0</v>
       </c>
       <c r="B517" t="n">
-        <v>0.6712728088690979</v>
+        <v>0.6781225314085785</v>
       </c>
       <c r="C517" t="n">
-        <v>0.6567240389653637</v>
+        <v>0.6632067456320005</v>
       </c>
       <c r="D517" t="n">
-        <v>0.6783003142573757</v>
+        <v>0.6921709822864671</v>
       </c>
       <c r="E517" t="n">
-        <v>0.6712728088690979</v>
+        <v>0.7588811386816138</v>
       </c>
       <c r="F517" t="n">
-        <v>0.6567240389653637</v>
+        <v>0.7227439413124394</v>
       </c>
       <c r="G517" t="n">
-        <v>0.6783003142573757</v>
+        <v>0.7519570407211132</v>
       </c>
       <c r="H517" t="n">
-        <v>0.6712728088690979</v>
+        <v>0.6848849718844703</v>
       </c>
       <c r="I517" t="n">
-        <v>0.6567240389653637</v>
+        <v>0.7460575581066644</v>
       </c>
       <c r="J517" t="n">
-        <v>0.6783003142573757</v>
+        <v>0.6902386235448622</v>
       </c>
       <c r="K517" t="n">
-        <v>0.6712728088690979</v>
+        <v>0.6607254805862968</v>
       </c>
       <c r="L517" t="n">
-        <v>0.6567240389653637</v>
+        <v>0.6980335258770183</v>
       </c>
     </row>
     <row r="518">
@@ -19749,37 +19749,37 @@
         <v>517.0</v>
       </c>
       <c r="B518" t="n">
-        <v>2.3622626600010634</v>
+        <v>2.3154851815852013</v>
       </c>
       <c r="C518" t="n">
-        <v>2.3708735814627233</v>
+        <v>2.3267527499883993</v>
       </c>
       <c r="D518" t="n">
-        <v>2.2086741824970733</v>
+        <v>2.1598992202545495</v>
       </c>
       <c r="E518" t="n">
-        <v>2.3622626600010634</v>
+        <v>2.3758891436567993</v>
       </c>
       <c r="F518" t="n">
-        <v>2.3708735814627233</v>
+        <v>2.316887654828609</v>
       </c>
       <c r="G518" t="n">
-        <v>2.2086741824970733</v>
+        <v>2.4164128355165624</v>
       </c>
       <c r="H518" t="n">
-        <v>2.3622626600010634</v>
+        <v>2.328168909991344</v>
       </c>
       <c r="I518" t="n">
-        <v>2.3708735814627233</v>
+        <v>2.092550064576672</v>
       </c>
       <c r="J518" t="n">
-        <v>2.2086741824970733</v>
+        <v>2.3015532603728044</v>
       </c>
       <c r="K518" t="n">
-        <v>2.3622626600010634</v>
+        <v>2.052136007304741</v>
       </c>
       <c r="L518" t="n">
-        <v>2.3708735814627233</v>
+        <v>2.2239427438631063</v>
       </c>
     </row>
     <row r="519">
@@ -19863,37 +19863,37 @@
         <v>520.0</v>
       </c>
       <c r="B521" t="n">
-        <v>2.1941262406833175</v>
+        <v>2.2160675030901507</v>
       </c>
       <c r="C521" t="n">
-        <v>2.1465720460344593</v>
+        <v>2.1673235274639917</v>
       </c>
       <c r="D521" t="n">
-        <v>2.2170963860180297</v>
+        <v>2.261977075501172</v>
       </c>
       <c r="E521" t="n">
-        <v>2.1941262406833175</v>
+        <v>2.4799822336637662</v>
       </c>
       <c r="F521" t="n">
-        <v>2.1465720460344593</v>
+        <v>2.361887840639784</v>
       </c>
       <c r="G521" t="n">
-        <v>2.2170963860180297</v>
+        <v>2.457354658605015</v>
       </c>
       <c r="H521" t="n">
-        <v>2.1941262406833175</v>
+        <v>2.2381667902928286</v>
       </c>
       <c r="I521" t="n">
-        <v>2.1465720460344593</v>
+        <v>2.43807547069812</v>
       </c>
       <c r="J521" t="n">
-        <v>2.2170963860180297</v>
+        <v>2.2556622323670146</v>
       </c>
       <c r="K521" t="n">
-        <v>2.1941262406833175</v>
+        <v>2.1592148884206677</v>
       </c>
       <c r="L521" t="n">
-        <v>2.1465720460344593</v>
+        <v>2.281135548689614</v>
       </c>
     </row>
     <row r="522">
@@ -19901,37 +19901,37 @@
         <v>521.0</v>
       </c>
       <c r="B522" t="n">
-        <v>1.1049659729767707</v>
+        <v>1.0828666535172353</v>
       </c>
       <c r="C522" t="n">
-        <v>1.0810175938976627</v>
+        <v>1.0590482338653873</v>
       </c>
       <c r="D522" t="n">
-        <v>1.1165337800238637</v>
+        <v>1.1053000608804167</v>
       </c>
       <c r="E522" t="n">
-        <v>1.1049659729767707</v>
+        <v>1.211826832172284</v>
       </c>
       <c r="F522" t="n">
-        <v>1.0810175938976627</v>
+        <v>1.1541207920833843</v>
       </c>
       <c r="G522" t="n">
-        <v>1.1165337800238637</v>
+        <v>1.2007700180423386</v>
       </c>
       <c r="H522" t="n">
-        <v>1.1049659729767707</v>
+        <v>1.0936653232982372</v>
       </c>
       <c r="I522" t="n">
-        <v>1.0810175938976627</v>
+        <v>1.1913493710348997</v>
       </c>
       <c r="J522" t="n">
-        <v>1.1165337800238637</v>
+        <v>1.1022143547624235</v>
       </c>
       <c r="K522" t="n">
-        <v>1.1049659729767707</v>
+        <v>1.0550860013010903</v>
       </c>
       <c r="L522" t="n">
-        <v>1.0810175938976627</v>
+        <v>1.1146617214431656</v>
       </c>
     </row>
     <row r="523">
@@ -19942,34 +19942,34 @@
         <v>7.396431589371015</v>
       </c>
       <c r="C523" t="n">
-        <v>6.980759743490448</v>
+        <v>6.923403984389622</v>
       </c>
       <c r="D523" t="n">
-        <v>7.113560624373022</v>
+        <v>7.208386715988626</v>
       </c>
       <c r="E523" t="n">
-        <v>7.396431589371015</v>
+        <v>6.514362608750987</v>
       </c>
       <c r="F523" t="n">
-        <v>6.980759743490448</v>
+        <v>6.648941851608797</v>
       </c>
       <c r="G523" t="n">
-        <v>7.113560624373022</v>
+        <v>6.364647167573392</v>
       </c>
       <c r="H523" t="n">
-        <v>7.396431589371015</v>
+        <v>6.532229761999616</v>
       </c>
       <c r="I523" t="n">
-        <v>6.980759743490448</v>
+        <v>7.310162589081442</v>
       </c>
       <c r="J523" t="n">
-        <v>7.113560624373022</v>
+        <v>6.962059605864169</v>
       </c>
       <c r="K523" t="n">
-        <v>7.396431589371015</v>
+        <v>7.186635393320691</v>
       </c>
       <c r="L523" t="n">
-        <v>6.980759743490448</v>
+        <v>6.667555908358323</v>
       </c>
     </row>
     <row r="524">
@@ -19977,37 +19977,37 @@
         <v>523.0</v>
       </c>
       <c r="B524" t="n">
-        <v>2.0384730725111058</v>
+        <v>2.018290170803075</v>
       </c>
       <c r="C524" t="n">
-        <v>2.120799294197051</v>
+        <v>2.0833943396961536</v>
       </c>
       <c r="D524" t="n">
-        <v>2.1258635392062657</v>
+        <v>2.077126607762229</v>
       </c>
       <c r="E524" t="n">
-        <v>2.0384730725111058</v>
+        <v>2.108848150958281</v>
       </c>
       <c r="F524" t="n">
-        <v>2.120799294197051</v>
+        <v>2.09986887112141</v>
       </c>
       <c r="G524" t="n">
-        <v>2.1258635392062657</v>
+        <v>2.119204680190911</v>
       </c>
       <c r="H524" t="n">
-        <v>2.0384730725111058</v>
+        <v>1.845101241035487</v>
       </c>
       <c r="I524" t="n">
-        <v>2.120799294197051</v>
+        <v>1.9492853881421426</v>
       </c>
       <c r="J524" t="n">
-        <v>2.1258635392062657</v>
+        <v>1.9329140103576017</v>
       </c>
       <c r="K524" t="n">
-        <v>2.0384730725111058</v>
+        <v>1.893683172572418</v>
       </c>
       <c r="L524" t="n">
-        <v>2.120799294197051</v>
+        <v>1.9125675469171532</v>
       </c>
     </row>
     <row r="525">
@@ -20246,34 +20246,34 @@
         <v>2.722549144707911</v>
       </c>
       <c r="C531" t="n">
-        <v>2.569544683731407</v>
+        <v>2.5484326284115926</v>
       </c>
       <c r="D531" t="n">
-        <v>2.618427299665134</v>
+        <v>2.653331792663495</v>
       </c>
       <c r="E531" t="n">
-        <v>2.722549144707911</v>
+        <v>2.3978687742152722</v>
       </c>
       <c r="F531" t="n">
-        <v>2.569544683731407</v>
+        <v>2.4474059866008364</v>
       </c>
       <c r="G531" t="n">
-        <v>2.618427299665134</v>
+        <v>2.3427600854641484</v>
       </c>
       <c r="H531" t="n">
-        <v>2.722549144707911</v>
+        <v>2.4044454865403515</v>
       </c>
       <c r="I531" t="n">
-        <v>2.569544683731407</v>
+        <v>2.690794427569622</v>
       </c>
       <c r="J531" t="n">
-        <v>2.618427299665134</v>
+        <v>2.5626613585650513</v>
       </c>
       <c r="K531" t="n">
-        <v>2.722549144707911</v>
+        <v>2.6453253581808247</v>
       </c>
       <c r="L531" t="n">
-        <v>2.569544683731407</v>
+        <v>2.454257626296361</v>
       </c>
     </row>
     <row r="532">
@@ -20360,34 +20360,34 @@
         <v>2.1508533063573942</v>
       </c>
       <c r="C534" t="n">
-        <v>2.0299775633360317</v>
+        <v>2.013298733469217</v>
       </c>
       <c r="D534" t="n">
-        <v>2.068595538812737</v>
+        <v>2.0961705944616615</v>
       </c>
       <c r="E534" t="n">
-        <v>2.1508533063573942</v>
+        <v>1.894351105197548</v>
       </c>
       <c r="F534" t="n">
-        <v>2.0299775633360317</v>
+        <v>1.9334862213640736</v>
       </c>
       <c r="G534" t="n">
-        <v>2.068595538812737</v>
+        <v>1.8508144419054362</v>
       </c>
       <c r="H534" t="n">
-        <v>2.1508533063573942</v>
+        <v>1.89954680330895</v>
       </c>
       <c r="I534" t="n">
-        <v>2.0299775633360317</v>
+        <v>2.125766619315548</v>
       </c>
       <c r="J534" t="n">
-        <v>2.068595538812737</v>
+        <v>2.024539636633563</v>
       </c>
       <c r="K534" t="n">
-        <v>2.1508533063573942</v>
+        <v>2.0898453951121256</v>
       </c>
       <c r="L534" t="n">
-        <v>2.0299775633360317</v>
+        <v>1.938899116085087</v>
       </c>
     </row>
     <row r="535">
@@ -20471,37 +20471,37 @@
         <v>536.0</v>
       </c>
       <c r="B537" t="n">
-        <v>4.449658693842262</v>
+        <v>4.49460474125481</v>
       </c>
       <c r="C537" t="n">
-        <v>4.465878592752169</v>
+        <v>4.516476298356616</v>
       </c>
       <c r="D537" t="n">
-        <v>4.160352887264716</v>
+        <v>4.192595726025143</v>
       </c>
       <c r="E537" t="n">
-        <v>4.449658693842262</v>
+        <v>4.611855301300162</v>
       </c>
       <c r="F537" t="n">
-        <v>4.465878592752169</v>
+        <v>4.497327092034437</v>
       </c>
       <c r="G537" t="n">
-        <v>4.160352887264716</v>
+        <v>4.690516127555742</v>
       </c>
       <c r="H537" t="n">
-        <v>4.449658693842262</v>
+        <v>4.519225216602447</v>
       </c>
       <c r="I537" t="n">
-        <v>4.465878592752169</v>
+        <v>4.061863801313769</v>
       </c>
       <c r="J537" t="n">
-        <v>4.160352887264716</v>
+        <v>4.467561389980517</v>
       </c>
       <c r="K537" t="n">
-        <v>4.449658693842262</v>
+        <v>3.983415787535764</v>
       </c>
       <c r="L537" t="n">
-        <v>4.465878592752169</v>
+        <v>4.316911064834876</v>
       </c>
     </row>
     <row r="538">
@@ -20854,34 +20854,34 @@
         <v>0.7197883289569623</v>
       </c>
       <c r="C547" t="n">
-        <v>0.6498208268047516</v>
+        <v>0.6469432298389494</v>
       </c>
       <c r="D547" t="n">
-        <v>0.7235649845210126</v>
+        <v>0.7163005597632089</v>
       </c>
       <c r="E547" t="n">
-        <v>0.7197883289569623</v>
+        <v>0.7193505018570122</v>
       </c>
       <c r="F547" t="n">
-        <v>0.6498208268047516</v>
+        <v>0.7470702617333241</v>
       </c>
       <c r="G547" t="n">
-        <v>0.7235649845210126</v>
+        <v>0.7345417547501197</v>
       </c>
       <c r="H547" t="n">
-        <v>0.7197883289569623</v>
+        <v>0.6344486180325224</v>
       </c>
       <c r="I547" t="n">
-        <v>0.6498208268047516</v>
+        <v>0.7224265270059151</v>
       </c>
       <c r="J547" t="n">
-        <v>0.7235649845210126</v>
+        <v>0.7158669641302</v>
       </c>
       <c r="K547" t="n">
-        <v>0.7197883289569623</v>
+        <v>0.6875652468476346</v>
       </c>
       <c r="L547" t="n">
-        <v>0.6498208268047516</v>
+        <v>0.7115597017809795</v>
       </c>
     </row>
     <row r="548">
@@ -20930,34 +20930,34 @@
         <v>3.1812506127364784</v>
       </c>
       <c r="C549" t="n">
-        <v>2.836501350222649</v>
+        <v>2.8258891064559</v>
       </c>
       <c r="D549" t="n">
-        <v>3.2460755833371038</v>
+        <v>3.2298341600042626</v>
       </c>
       <c r="E549" t="n">
-        <v>3.1812506127364784</v>
+        <v>3.0911388928114287</v>
       </c>
       <c r="F549" t="n">
-        <v>2.836501350222649</v>
+        <v>2.900295403545459</v>
       </c>
       <c r="G549" t="n">
-        <v>3.2460755833371038</v>
+        <v>2.9603799098417487</v>
       </c>
       <c r="H549" t="n">
-        <v>3.1812506127364784</v>
+        <v>3.190850040128508</v>
       </c>
       <c r="I549" t="n">
-        <v>2.836501350222649</v>
+        <v>2.9292180157881744</v>
       </c>
       <c r="J549" t="n">
-        <v>3.2460755833371038</v>
+        <v>3.216081825709266</v>
       </c>
       <c r="K549" t="n">
-        <v>3.1812506127364784</v>
+        <v>2.95211531027943</v>
       </c>
       <c r="L549" t="n">
-        <v>2.836501350222649</v>
+        <v>3.2456958387502786</v>
       </c>
     </row>
     <row r="550">
@@ -20965,37 +20965,37 @@
         <v>549.0</v>
       </c>
       <c r="B550" t="n">
-        <v>3.9440637422989555</v>
+        <v>3.983504379721946</v>
       </c>
       <c r="C550" t="n">
-        <v>4.539887654650643</v>
+        <v>4.600029063316042</v>
       </c>
       <c r="D550" t="n">
-        <v>4.486927613651727</v>
+        <v>4.522885721926728</v>
       </c>
       <c r="E550" t="n">
-        <v>3.9440637422989555</v>
+        <v>4.407897100369687</v>
       </c>
       <c r="F550" t="n">
-        <v>4.539887654650643</v>
+        <v>3.8919540391188923</v>
       </c>
       <c r="G550" t="n">
-        <v>4.486927613651727</v>
+        <v>3.9944300661618546</v>
       </c>
       <c r="H550" t="n">
-        <v>3.9440637422989555</v>
+        <v>4.470132603758866</v>
       </c>
       <c r="I550" t="n">
-        <v>4.539887654650643</v>
+        <v>4.077181415616465</v>
       </c>
       <c r="J550" t="n">
-        <v>4.486927613651727</v>
+        <v>4.11171429027798</v>
       </c>
       <c r="K550" t="n">
-        <v>3.9440637422989555</v>
+        <v>4.034263716138686</v>
       </c>
       <c r="L550" t="n">
-        <v>4.539887654650643</v>
+        <v>4.3945962612367735</v>
       </c>
     </row>
     <row r="551">
@@ -21041,37 +21041,37 @@
         <v>551.0</v>
       </c>
       <c r="B552" t="n">
-        <v>5.040349985971065</v>
+        <v>4.990934790030173</v>
       </c>
       <c r="C552" t="n">
-        <v>5.801788249773703</v>
+        <v>5.763378899273728</v>
       </c>
       <c r="D552" t="n">
-        <v>5.734107512506937</v>
+        <v>5.666725965158974</v>
       </c>
       <c r="E552" t="n">
-        <v>5.040349985971065</v>
+        <v>5.522656659070572</v>
       </c>
       <c r="F552" t="n">
-        <v>5.801788249773703</v>
+        <v>4.876231318815015</v>
       </c>
       <c r="G552" t="n">
-        <v>5.734107512506937</v>
+        <v>5.00462358847495</v>
       </c>
       <c r="H552" t="n">
-        <v>5.040349985971065</v>
+        <v>5.600631554898795</v>
       </c>
       <c r="I552" t="n">
-        <v>5.801788249773703</v>
+        <v>5.108302798925269</v>
       </c>
       <c r="J552" t="n">
-        <v>5.734107512506937</v>
+        <v>5.1515690562501675</v>
       </c>
       <c r="K552" t="n">
-        <v>5.040349985971065</v>
+        <v>5.0545311900569345</v>
       </c>
       <c r="L552" t="n">
-        <v>5.801788249773703</v>
+        <v>5.505992030533202</v>
       </c>
     </row>
     <row r="553">
@@ -21117,37 +21117,37 @@
         <v>553.0</v>
       </c>
       <c r="B554" t="n">
-        <v>3.875022075510828</v>
+        <v>3.8366555203077506</v>
       </c>
       <c r="C554" t="n">
-        <v>3.769325866547652</v>
+        <v>3.6845602996297058</v>
       </c>
       <c r="D554" t="n">
-        <v>4.121593403136541</v>
+        <v>4.016462260719513</v>
       </c>
       <c r="E554" t="n">
-        <v>3.875022075510828</v>
+        <v>3.9970002983935746</v>
       </c>
       <c r="F554" t="n">
-        <v>3.769325866547652</v>
+        <v>3.54026152992214</v>
       </c>
       <c r="G554" t="n">
-        <v>4.121593403136541</v>
+        <v>3.9945808086264702</v>
       </c>
       <c r="H554" t="n">
-        <v>3.875022075510828</v>
+        <v>4.031183564849685</v>
       </c>
       <c r="I554" t="n">
-        <v>3.769325866547652</v>
+        <v>3.970546025098191</v>
       </c>
       <c r="J554" t="n">
-        <v>4.121593403136541</v>
+        <v>3.6099822169129605</v>
       </c>
       <c r="K554" t="n">
-        <v>3.875022075510828</v>
+        <v>4.168697090026249</v>
       </c>
       <c r="L554" t="n">
-        <v>3.769325866547652</v>
+        <v>4.098787265905984</v>
       </c>
     </row>
     <row r="555">
@@ -21234,34 +21234,34 @@
         <v>1.2545116405640575</v>
       </c>
       <c r="C557" t="n">
-        <v>1.2749366223126066</v>
+        <v>1.2686789087799808</v>
       </c>
       <c r="D557" t="n">
-        <v>1.3252066932338638</v>
+        <v>1.3062967137609713</v>
       </c>
       <c r="E557" t="n">
-        <v>1.2545116405640575</v>
+        <v>1.4193495560240987</v>
       </c>
       <c r="F557" t="n">
-        <v>1.2749366223126066</v>
+        <v>1.2291194457590198</v>
       </c>
       <c r="G557" t="n">
-        <v>1.3252066932338638</v>
+        <v>1.2053810872289945</v>
       </c>
       <c r="H557" t="n">
-        <v>1.2545116405640575</v>
+        <v>1.360890579583317</v>
       </c>
       <c r="I557" t="n">
-        <v>1.2749366223126066</v>
+        <v>1.395546800466679</v>
       </c>
       <c r="J557" t="n">
-        <v>1.3252066932338638</v>
+        <v>1.3675169491635797</v>
       </c>
       <c r="K557" t="n">
-        <v>1.2545116405640575</v>
+        <v>1.3725292290270517</v>
       </c>
       <c r="L557" t="n">
-        <v>1.2749366223126066</v>
+        <v>1.3600667965996693</v>
       </c>
     </row>
     <row r="558">
@@ -21269,37 +21269,37 @@
         <v>557.0</v>
       </c>
       <c r="B558" t="n">
-        <v>8.184043299148371</v>
+        <v>8.103807580529269</v>
       </c>
       <c r="C558" t="n">
-        <v>8.317289519916224</v>
+        <v>8.19532432047117</v>
       </c>
       <c r="D558" t="n">
-        <v>8.645235808948541</v>
+        <v>8.438325216844486</v>
       </c>
       <c r="E558" t="n">
-        <v>8.184043299148371</v>
+        <v>9.168616152782223</v>
       </c>
       <c r="F558" t="n">
-        <v>8.317289519916224</v>
+        <v>7.939780835703831</v>
       </c>
       <c r="G558" t="n">
-        <v>8.645235808948541</v>
+        <v>7.786437428130152</v>
       </c>
       <c r="H558" t="n">
-        <v>8.184043299148371</v>
+        <v>8.790986897610239</v>
       </c>
       <c r="I558" t="n">
-        <v>8.317289519916224</v>
+        <v>9.014856757742274</v>
       </c>
       <c r="J558" t="n">
-        <v>8.645235808948541</v>
+        <v>8.833791461792503</v>
       </c>
       <c r="K558" t="n">
-        <v>8.184043299148371</v>
+        <v>8.866169440792422</v>
       </c>
       <c r="L558" t="n">
-        <v>8.317289519916224</v>
+        <v>8.785665481234547</v>
       </c>
     </row>
     <row r="559">
@@ -21649,37 +21649,37 @@
         <v>567.0</v>
       </c>
       <c r="B568" t="n">
-        <v>1.394765059410058</v>
+        <v>1.4094467968775324</v>
       </c>
       <c r="C568" t="n">
-        <v>1.5258102875751463</v>
+        <v>1.561725886877834</v>
       </c>
       <c r="D568" t="n">
-        <v>1.506499840586625</v>
+        <v>1.5353358282434155</v>
       </c>
       <c r="E568" t="n">
-        <v>1.394765059410058</v>
+        <v>1.3597282032125142</v>
       </c>
       <c r="F568" t="n">
-        <v>1.5258102875751463</v>
+        <v>1.5307168882680944</v>
       </c>
       <c r="G568" t="n">
-        <v>1.506499840586625</v>
+        <v>1.4790996911455907</v>
       </c>
       <c r="H568" t="n">
-        <v>1.394765059410058</v>
+        <v>1.391713056805458</v>
       </c>
       <c r="I568" t="n">
-        <v>1.5258102875751463</v>
+        <v>1.5484184227338778</v>
       </c>
       <c r="J568" t="n">
-        <v>1.506499840586625</v>
+        <v>1.5409154863057792</v>
       </c>
       <c r="K568" t="n">
-        <v>1.394765059410058</v>
+        <v>1.580156192544158</v>
       </c>
       <c r="L568" t="n">
-        <v>1.5258102875751463</v>
+        <v>1.6071076868122784</v>
       </c>
     </row>
     <row r="569">
@@ -21953,37 +21953,37 @@
         <v>575.0</v>
       </c>
       <c r="B576" t="n">
-        <v>1.2624374210744038</v>
+        <v>1.2757262360330817</v>
       </c>
       <c r="C576" t="n">
-        <v>1.13972135383273</v>
+        <v>1.146618274188321</v>
       </c>
       <c r="D576" t="n">
-        <v>1.2690613007884233</v>
+        <v>1.2695446427969885</v>
       </c>
       <c r="E576" t="n">
-        <v>1.2624374210744038</v>
+        <v>1.2749502474600771</v>
       </c>
       <c r="F576" t="n">
-        <v>1.13972135383273</v>
+        <v>1.3240797255414904</v>
       </c>
       <c r="G576" t="n">
-        <v>1.2690613007884233</v>
+        <v>1.3018746627281519</v>
       </c>
       <c r="H576" t="n">
-        <v>1.2624374210744038</v>
+        <v>1.1244732859337803</v>
       </c>
       <c r="I576" t="n">
-        <v>1.13972135383273</v>
+        <v>1.280402080766182</v>
       </c>
       <c r="J576" t="n">
-        <v>1.2690613007884233</v>
+        <v>1.268776153919626</v>
       </c>
       <c r="K576" t="n">
-        <v>1.2624374210744038</v>
+        <v>1.2186152360363376</v>
       </c>
       <c r="L576" t="n">
-        <v>1.13972135383273</v>
+        <v>1.261142121297368</v>
       </c>
     </row>
     <row r="577">
@@ -21994,34 +21994,34 @@
         <v>4.6251538442597</v>
       </c>
       <c r="C577" t="n">
-        <v>4.175562695676496</v>
+        <v>4.157072080959393</v>
       </c>
       <c r="D577" t="n">
-        <v>4.649421552275784</v>
+        <v>4.602742437398249</v>
       </c>
       <c r="E577" t="n">
-        <v>4.6251538442597</v>
+        <v>4.622340492593677</v>
       </c>
       <c r="F577" t="n">
-        <v>4.175562695676496</v>
+        <v>4.800459737927461</v>
       </c>
       <c r="G577" t="n">
-        <v>4.649421552275784</v>
+        <v>4.719955136914868</v>
       </c>
       <c r="H577" t="n">
-        <v>4.6251538442597</v>
+        <v>4.0767852806541285</v>
       </c>
       <c r="I577" t="n">
-        <v>4.175562695676496</v>
+        <v>4.642106150037866</v>
       </c>
       <c r="J577" t="n">
-        <v>4.649421552275784</v>
+        <v>4.5999562759280135</v>
       </c>
       <c r="K577" t="n">
-        <v>4.6251538442597</v>
+        <v>4.418097538820822</v>
       </c>
       <c r="L577" t="n">
-        <v>4.175562695676496</v>
+        <v>4.572279040536324</v>
       </c>
     </row>
     <row r="578">
@@ -22029,37 +22029,37 @@
         <v>577.0</v>
       </c>
       <c r="B578" t="n">
-        <v>6.187907548879444</v>
+        <v>6.249786624368239</v>
       </c>
       <c r="C578" t="n">
-        <v>6.247281809410343</v>
+        <v>6.280217723379539</v>
       </c>
       <c r="D578" t="n">
-        <v>6.222225501764438</v>
+        <v>6.276397642666551</v>
       </c>
       <c r="E578" t="n">
-        <v>6.187907548879444</v>
+        <v>5.826311529865202</v>
       </c>
       <c r="F578" t="n">
-        <v>6.247281809410343</v>
+        <v>6.408942686565616</v>
       </c>
       <c r="G578" t="n">
-        <v>6.222225501764438</v>
+        <v>6.30323623795983</v>
       </c>
       <c r="H578" t="n">
-        <v>6.187907548879444</v>
+        <v>6.208422213295936</v>
       </c>
       <c r="I578" t="n">
-        <v>6.247281809410343</v>
+        <v>6.518255033596056</v>
       </c>
       <c r="J578" t="n">
-        <v>6.222225501764438</v>
+        <v>5.999068442092687</v>
       </c>
       <c r="K578" t="n">
-        <v>6.187907548879444</v>
+        <v>6.246003463583807</v>
       </c>
       <c r="L578" t="n">
-        <v>6.247281809410343</v>
+        <v>5.535621091988758</v>
       </c>
     </row>
     <row r="579">
@@ -22257,37 +22257,37 @@
         <v>583.0</v>
       </c>
       <c r="B584" t="n">
-        <v>2.6861545925739545</v>
+        <v>2.7135643333145048</v>
       </c>
       <c r="C584" t="n">
-        <v>2.9385323956280702</v>
+        <v>3.0067425563235943</v>
       </c>
       <c r="D584" t="n">
-        <v>2.9013427302339485</v>
+        <v>2.9559345925018436</v>
       </c>
       <c r="E584" t="n">
-        <v>2.6861545925739545</v>
+        <v>2.6178426623930924</v>
       </c>
       <c r="F584" t="n">
-        <v>2.9385323956280702</v>
+        <v>2.947041890200118</v>
       </c>
       <c r="G584" t="n">
-        <v>2.9013427302339485</v>
+        <v>2.8476648967530496</v>
       </c>
       <c r="H584" t="n">
-        <v>2.6861545925739545</v>
+        <v>2.6794221119390977</v>
       </c>
       <c r="I584" t="n">
-        <v>2.9385323956280702</v>
+        <v>2.981122107117636</v>
       </c>
       <c r="J584" t="n">
-        <v>2.9013427302339485</v>
+        <v>2.966676935628</v>
       </c>
       <c r="K584" t="n">
-        <v>2.6861545925739545</v>
+        <v>3.0422258538975195</v>
       </c>
       <c r="L584" t="n">
-        <v>2.9385323956280702</v>
+        <v>3.094114732383407</v>
       </c>
     </row>
     <row r="585">
@@ -22295,37 +22295,37 @@
         <v>584.0</v>
       </c>
       <c r="B585" t="n">
-        <v>5.359395917329755</v>
+        <v>5.306852820101032</v>
       </c>
       <c r="C585" t="n">
-        <v>5.209822034243682</v>
+        <v>5.20148209332798</v>
       </c>
       <c r="D585" t="n">
-        <v>4.767798937368425</v>
+        <v>4.789397916522466</v>
       </c>
       <c r="E585" t="n">
-        <v>5.359395917329755</v>
+        <v>5.217177571542095</v>
       </c>
       <c r="F585" t="n">
-        <v>5.209822034243682</v>
+        <v>4.881345702913397</v>
       </c>
       <c r="G585" t="n">
-        <v>4.767798937368425</v>
+        <v>4.826835981541643</v>
       </c>
       <c r="H585" t="n">
-        <v>5.359395917329755</v>
+        <v>5.258432630277662</v>
       </c>
       <c r="I585" t="n">
-        <v>5.209822034243682</v>
+        <v>4.620450688830582</v>
       </c>
       <c r="J585" t="n">
-        <v>4.767798937368425</v>
+        <v>4.7421081968535885</v>
       </c>
       <c r="K585" t="n">
-        <v>5.359395917329755</v>
+        <v>4.840348958626761</v>
       </c>
       <c r="L585" t="n">
-        <v>5.209822034243682</v>
+        <v>5.054145540931705</v>
       </c>
     </row>
     <row r="586">
@@ -22716,34 +22716,34 @@
         <v>0.5837894765353249</v>
       </c>
       <c r="C596" t="n">
-        <v>0.5999127437842956</v>
+        <v>0.6028717920266784</v>
       </c>
       <c r="D596" t="n">
-        <v>0.634716515748113</v>
+        <v>0.6361972491184321</v>
       </c>
       <c r="E596" t="n">
-        <v>0.5837894765353249</v>
+        <v>0.5969191360690552</v>
       </c>
       <c r="F596" t="n">
-        <v>0.5999127437842956</v>
+        <v>0.6326648748732655</v>
       </c>
       <c r="G596" t="n">
-        <v>0.634716515748113</v>
+        <v>0.6623150241561108</v>
       </c>
       <c r="H596" t="n">
-        <v>0.5837894765353249</v>
+        <v>0.6874185625699462</v>
       </c>
       <c r="I596" t="n">
-        <v>0.5999127437842956</v>
+        <v>0.658706770541155</v>
       </c>
       <c r="J596" t="n">
-        <v>0.634716515748113</v>
+        <v>0.664742568663609</v>
       </c>
       <c r="K596" t="n">
-        <v>0.5837894765353249</v>
+        <v>0.5952864247178365</v>
       </c>
       <c r="L596" t="n">
-        <v>0.5999127437842956</v>
+        <v>0.6591057446431197</v>
       </c>
     </row>
     <row r="597">
@@ -22789,37 +22789,37 @@
         <v>597.0</v>
       </c>
       <c r="B598" t="n">
-        <v>0.373809049209806</v>
+        <v>0.3777028934724082</v>
       </c>
       <c r="C598" t="n">
-        <v>0.3657073329283893</v>
+        <v>0.36939505058960964</v>
       </c>
       <c r="D598" t="n">
-        <v>0.3777224284988235</v>
+        <v>0.3855276453418996</v>
       </c>
       <c r="E598" t="n">
-        <v>0.373809049209806</v>
+        <v>0.4226840852586002</v>
       </c>
       <c r="F598" t="n">
-        <v>0.3657073329283893</v>
+        <v>0.40255627151383483</v>
       </c>
       <c r="G598" t="n">
-        <v>0.3777224284988235</v>
+        <v>0.4188274786525122</v>
       </c>
       <c r="H598" t="n">
-        <v>0.373809049209806</v>
+        <v>0.381469459566848</v>
       </c>
       <c r="I598" t="n">
-        <v>0.3657073329283893</v>
+        <v>0.41554156563493555</v>
       </c>
       <c r="J598" t="n">
-        <v>0.3777224284988235</v>
+        <v>0.3844513538840493</v>
       </c>
       <c r="K598" t="n">
-        <v>0.373809049209806</v>
+        <v>0.36801302751291354</v>
       </c>
       <c r="L598" t="n">
-        <v>0.3657073329283893</v>
+        <v>0.38879298394178335</v>
       </c>
     </row>
     <row r="599">
@@ -23093,37 +23093,37 @@
         <v>605.0</v>
       </c>
       <c r="B606" t="n">
-        <v>1.559878655619887</v>
+        <v>1.544279869063688</v>
       </c>
       <c r="C606" t="n">
-        <v>1.4234118803136018</v>
+        <v>1.415445769990604</v>
       </c>
       <c r="D606" t="n">
-        <v>1.3513507614718097</v>
+        <v>1.3511417128922993</v>
       </c>
       <c r="E606" t="n">
-        <v>1.559878655619887</v>
+        <v>1.521050628707507</v>
       </c>
       <c r="F606" t="n">
-        <v>1.4234118803136018</v>
+        <v>1.4005463407057372</v>
       </c>
       <c r="G606" t="n">
-        <v>1.3513507614718097</v>
+        <v>1.5256404007334585</v>
       </c>
       <c r="H606" t="n">
-        <v>1.559878655619887</v>
+        <v>1.4114942188899293</v>
       </c>
       <c r="I606" t="n">
-        <v>1.4234118803136018</v>
+        <v>1.4779655326458643</v>
       </c>
       <c r="J606" t="n">
-        <v>1.3513507614718097</v>
+        <v>1.5518638098989033</v>
       </c>
       <c r="K606" t="n">
-        <v>1.559878655619887</v>
+        <v>1.427434299904441</v>
       </c>
       <c r="L606" t="n">
-        <v>1.4234118803136018</v>
+        <v>1.5377044686089574</v>
       </c>
     </row>
     <row r="607">
@@ -23131,37 +23131,37 @@
         <v>606.0</v>
       </c>
       <c r="B607" t="n">
-        <v>2.373193209148631</v>
+        <v>2.397659118521297</v>
       </c>
       <c r="C607" t="n">
-        <v>2.1655731976403723</v>
+        <v>2.197630445864737</v>
       </c>
       <c r="D607" t="n">
-        <v>2.0559396968146086</v>
+        <v>2.0977915423419287</v>
       </c>
       <c r="E607" t="n">
-        <v>2.373193209148631</v>
+        <v>2.36159324660775</v>
       </c>
       <c r="F607" t="n">
-        <v>2.1655731976403723</v>
+        <v>2.1744974936057115</v>
       </c>
       <c r="G607" t="n">
-        <v>2.0559396968146086</v>
+        <v>2.3687193569523917</v>
       </c>
       <c r="H607" t="n">
-        <v>2.373193209148631</v>
+        <v>2.191495241541585</v>
       </c>
       <c r="I607" t="n">
-        <v>2.1655731976403723</v>
+        <v>2.2946990420571214</v>
       </c>
       <c r="J607" t="n">
-        <v>2.0559396968146086</v>
+        <v>2.4094339951237513</v>
       </c>
       <c r="K607" t="n">
-        <v>2.373193209148631</v>
+        <v>2.2162439165454138</v>
       </c>
       <c r="L607" t="n">
-        <v>2.1655731976403723</v>
+        <v>2.3874501083709716</v>
       </c>
     </row>
     <row r="608">
@@ -23169,37 +23169,37 @@
         <v>607.0</v>
       </c>
       <c r="B608" t="n">
-        <v>2.856042339893465</v>
+        <v>2.885185629076051</v>
       </c>
       <c r="C608" t="n">
-        <v>2.820003809681005</v>
+        <v>2.871213785083732</v>
       </c>
       <c r="D608" t="n">
-        <v>2.6439761638379964</v>
+        <v>2.6483780980029</v>
       </c>
       <c r="E608" t="n">
-        <v>2.856042339893465</v>
+        <v>2.757700681567385</v>
       </c>
       <c r="F608" t="n">
-        <v>2.820003809681005</v>
+        <v>2.8869416749167573</v>
       </c>
       <c r="G608" t="n">
-        <v>2.6439761638379964</v>
+        <v>2.5947730692351727</v>
       </c>
       <c r="H608" t="n">
-        <v>2.856042339893465</v>
+        <v>2.946115015267772</v>
       </c>
       <c r="I608" t="n">
-        <v>2.820003809681005</v>
+        <v>2.872952859270735</v>
       </c>
       <c r="J608" t="n">
-        <v>2.6439761638379964</v>
+        <v>2.99636460598663</v>
       </c>
       <c r="K608" t="n">
-        <v>2.856042339893465</v>
+        <v>2.8539381296159867</v>
       </c>
       <c r="L608" t="n">
-        <v>2.820003809681005</v>
+        <v>2.8975230133294585</v>
       </c>
     </row>
     <row r="609">
@@ -23207,37 +23207,37 @@
         <v>608.0</v>
       </c>
       <c r="B609" t="n">
-        <v>3.014340146463921</v>
+        <v>3.04448354792856</v>
       </c>
       <c r="C609" t="n">
-        <v>2.923697259743183</v>
+        <v>2.9493462197137554</v>
       </c>
       <c r="D609" t="n">
-        <v>2.7363486266486796</v>
+        <v>2.7672568529329444</v>
       </c>
       <c r="E609" t="n">
-        <v>3.014340146463921</v>
+        <v>2.824585241482692</v>
       </c>
       <c r="F609" t="n">
-        <v>2.923697259743183</v>
+        <v>3.053698088584089</v>
       </c>
       <c r="G609" t="n">
-        <v>2.7363486266486796</v>
+        <v>3.0555476922424254</v>
       </c>
       <c r="H609" t="n">
-        <v>3.014340146463921</v>
+        <v>2.9329704893234827</v>
       </c>
       <c r="I609" t="n">
-        <v>2.923697259743183</v>
+        <v>2.7063890768374086</v>
       </c>
       <c r="J609" t="n">
-        <v>2.7363486266486796</v>
+        <v>3.1333597789235035</v>
       </c>
       <c r="K609" t="n">
-        <v>3.014340146463921</v>
+        <v>3.0704255880723137</v>
       </c>
       <c r="L609" t="n">
-        <v>2.923697259743183</v>
+        <v>2.7596877679388276</v>
       </c>
     </row>
     <row r="610">
@@ -23283,37 +23283,37 @@
         <v>610.0</v>
       </c>
       <c r="B611" t="n">
-        <v>2.6836113318276684</v>
+        <v>2.7112774280320773</v>
       </c>
       <c r="C611" t="n">
-        <v>2.6104123826146086</v>
+        <v>2.603795185606814</v>
       </c>
       <c r="D611" t="n">
-        <v>2.8543720645476047</v>
+        <v>2.838342772863278</v>
       </c>
       <c r="E611" t="n">
-        <v>2.6836113318276684</v>
+        <v>2.8245894455498854</v>
       </c>
       <c r="F611" t="n">
-        <v>2.6104123826146086</v>
+        <v>2.501822518232825</v>
       </c>
       <c r="G611" t="n">
-        <v>2.8543720645476047</v>
+        <v>2.8228796470135866</v>
       </c>
       <c r="H611" t="n">
-        <v>2.6836113318276684</v>
+        <v>2.8487459845636933</v>
       </c>
       <c r="I611" t="n">
-        <v>2.6104123826146086</v>
+        <v>2.805894810683367</v>
       </c>
       <c r="J611" t="n">
-        <v>2.8543720645476047</v>
+        <v>2.5510925462310485</v>
       </c>
       <c r="K611" t="n">
-        <v>2.6836113318276684</v>
+        <v>2.945923673539647</v>
       </c>
       <c r="L611" t="n">
-        <v>2.6104123826146086</v>
+        <v>2.896519986622307</v>
       </c>
     </row>
     <row r="612">
@@ -23473,37 +23473,37 @@
         <v>615.0</v>
       </c>
       <c r="B616" t="n">
-        <v>0.8386482453525775</v>
+        <v>0.8474761216194467</v>
       </c>
       <c r="C616" t="n">
-        <v>0.8618102760694532</v>
+        <v>0.8751775574522874</v>
       </c>
       <c r="D616" t="n">
-        <v>0.911807960958075</v>
+        <v>0.9235554920716791</v>
       </c>
       <c r="E616" t="n">
-        <v>0.8386482453525775</v>
+        <v>0.8665361995877352</v>
       </c>
       <c r="F616" t="n">
-        <v>0.8618102760694532</v>
+        <v>0.9184276113103322</v>
       </c>
       <c r="G616" t="n">
-        <v>0.911807960958075</v>
+        <v>0.961470171222155</v>
       </c>
       <c r="H616" t="n">
-        <v>0.8386482453525775</v>
+        <v>0.997912502283247</v>
       </c>
       <c r="I616" t="n">
-        <v>0.8618102760694532</v>
+        <v>0.9562321378174246</v>
       </c>
       <c r="J616" t="n">
-        <v>0.911807960958075</v>
+        <v>0.9649941915873091</v>
       </c>
       <c r="K616" t="n">
-        <v>0.8386482453525775</v>
+        <v>0.8641660234552931</v>
       </c>
       <c r="L616" t="n">
-        <v>0.8618102760694532</v>
+        <v>0.9568113209616057</v>
       </c>
     </row>
     <row r="617">
@@ -23514,34 +23514,34 @@
         <v>2.69568867186569</v>
       </c>
       <c r="C617" t="n">
-        <v>2.6372639096812223</v>
+        <v>2.636395088645004</v>
       </c>
       <c r="D617" t="n">
-        <v>2.7239096371965674</v>
+        <v>2.751534404951896</v>
       </c>
       <c r="E617" t="n">
-        <v>2.69568867186569</v>
+        <v>3.0167221911757918</v>
       </c>
       <c r="F617" t="n">
-        <v>2.6372639096812223</v>
+        <v>2.873068752351527</v>
       </c>
       <c r="G617" t="n">
-        <v>2.7239096371965674</v>
+        <v>2.9891973537452485</v>
       </c>
       <c r="H617" t="n">
-        <v>2.69568867186569</v>
+        <v>2.7225708846527534</v>
       </c>
       <c r="I617" t="n">
-        <v>2.6372639096812223</v>
+        <v>2.9657455913910256</v>
       </c>
       <c r="J617" t="n">
-        <v>2.7239096371965674</v>
+        <v>2.7438528469318357</v>
       </c>
       <c r="K617" t="n">
-        <v>2.69568867186569</v>
+        <v>2.6265315053458234</v>
       </c>
       <c r="L617" t="n">
-        <v>2.6372639096812223</v>
+        <v>2.774839326427578</v>
       </c>
     </row>
     <row r="618">
@@ -23549,37 +23549,37 @@
         <v>617.0</v>
       </c>
       <c r="B618" t="n">
-        <v>2.7755618804002684</v>
+        <v>2.803883940404353</v>
       </c>
       <c r="C618" t="n">
-        <v>2.802193974190416</v>
+        <v>2.817536449671462</v>
       </c>
       <c r="D618" t="n">
-        <v>2.790955064782638</v>
+        <v>2.8158226210872295</v>
       </c>
       <c r="E618" t="n">
-        <v>2.7755618804002684</v>
+        <v>2.6138974515842954</v>
       </c>
       <c r="F618" t="n">
-        <v>2.802193974190416</v>
+        <v>2.8752871984089143</v>
       </c>
       <c r="G618" t="n">
-        <v>2.790955064782638</v>
+        <v>2.827863401172812</v>
       </c>
       <c r="H618" t="n">
-        <v>2.7755618804002684</v>
+        <v>2.7853263455806037</v>
       </c>
       <c r="I618" t="n">
-        <v>2.802193974190416</v>
+        <v>2.924328734184152</v>
       </c>
       <c r="J618" t="n">
-        <v>2.790955064782638</v>
+        <v>2.691402550702372</v>
       </c>
       <c r="K618" t="n">
-        <v>2.7755618804002684</v>
+        <v>2.8021866754567664</v>
       </c>
       <c r="L618" t="n">
-        <v>2.802193974190416</v>
+        <v>2.483483039160533</v>
       </c>
     </row>
     <row r="619">
@@ -23704,34 +23704,34 @@
         <v>0.8715385604882863</v>
       </c>
       <c r="C622" t="n">
-        <v>0.822558990026922</v>
+        <v>0.8158006289012297</v>
       </c>
       <c r="D622" t="n">
-        <v>0.8382072235240451</v>
+        <v>0.8493808001852768</v>
       </c>
       <c r="E622" t="n">
-        <v>0.8715385604882863</v>
+        <v>0.7676023420115702</v>
       </c>
       <c r="F622" t="n">
-        <v>0.822558990026922</v>
+        <v>0.783460123993959</v>
       </c>
       <c r="G622" t="n">
-        <v>0.8382072235240451</v>
+        <v>0.749961026938191</v>
       </c>
       <c r="H622" t="n">
-        <v>0.8715385604882863</v>
+        <v>0.769707669808384</v>
       </c>
       <c r="I622" t="n">
-        <v>0.822558990026922</v>
+        <v>0.8613732855961093</v>
       </c>
       <c r="J622" t="n">
-        <v>0.8382072235240451</v>
+        <v>0.8203555097633903</v>
       </c>
       <c r="K622" t="n">
-        <v>0.8715385604882863</v>
+        <v>0.8468177917645715</v>
       </c>
       <c r="L622" t="n">
-        <v>0.822558990026922</v>
+        <v>0.7856534611496278</v>
       </c>
     </row>
     <row r="623">
